--- a/Test Execution/Feby/Test Case- CAS.xlsx
+++ b/Test Execution/Feby/Test Case- CAS.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\CAS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54606987-C892-40CA-A478-DCFBAF4046D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="CAS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="443">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1457,12 +1451,42 @@
   <si>
     <t>Verify whether a user can create an appoinment in back date</t>
   </si>
+  <si>
+    <t>Appoinment should be saved .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appoinment should be saved </t>
+  </si>
+  <si>
+    <t>Appoinment should be saved in the right hand side of the divided slot .</t>
+  </si>
+  <si>
+    <t>Appoinment should be saved in the right hand side of the divided slot.</t>
+  </si>
+  <si>
+    <t>Executed by admin</t>
+  </si>
+  <si>
+    <t>Go to search apponiment tab</t>
+  </si>
+  <si>
+    <t>Edit option is not working</t>
+  </si>
+  <si>
+    <t>Executed as admin</t>
+  </si>
+  <si>
+    <t>Same as Expected Result</t>
+  </si>
+  <si>
+    <t>Executed as Admin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1587,7 +1611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1673,6 +1697,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1680,9 +1710,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1746,7 +1773,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1798,7 +1825,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1992,22 +2019,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="7" customWidth="1"/>
@@ -2023,7 +2050,7 @@
     <col min="16" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="25.5">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2063,16 +2090,16 @@
       <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="29"/>
-      <c r="R1" s="30" t="s">
+      <c r="P1" s="31"/>
+      <c r="R1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="30"/>
-    </row>
-    <row r="2" spans="1:19" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="32"/>
+    </row>
+    <row r="2" spans="1:19" s="9" customFormat="1" ht="98.25" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -2082,7 +2109,7 @@
       <c r="C2" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="33" t="s">
         <v>373</v>
       </c>
       <c r="E2" s="6">
@@ -2094,7 +2121,9 @@
       <c r="G2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="I2" s="18" t="s">
         <v>80</v>
       </c>
@@ -2117,11 +2146,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="9" customFormat="1" ht="30">
       <c r="A3" s="7"/>
       <c r="B3" s="16"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="32"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="6">
         <v>2</v>
       </c>
@@ -2131,7 +2160,9 @@
       <c r="G3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="I3" s="19" t="s">
         <v>83</v>
       </c>
@@ -2154,11 +2185,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="9" customFormat="1" ht="30">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="32"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="6">
         <v>3</v>
       </c>
@@ -2168,7 +2199,9 @@
       <c r="G4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="I4" s="18"/>
       <c r="J4" s="27"/>
       <c r="K4" s="5"/>
@@ -2186,8 +2219,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="D5" s="32"/>
+    <row r="5" spans="1:19" ht="60">
+      <c r="D5" s="30"/>
       <c r="E5" s="6">
         <v>4</v>
       </c>
@@ -2196,6 +2229,9 @@
       </c>
       <c r="G5" s="7" t="s">
         <v>87</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="26"/>
@@ -2209,8 +2245,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="D6" s="32"/>
+    <row r="6" spans="1:19" ht="45">
+      <c r="D6" s="30"/>
       <c r="E6" s="6">
         <v>5</v>
       </c>
@@ -2219,6 +2255,9 @@
       </c>
       <c r="G6" s="7" t="s">
         <v>88</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>371</v>
@@ -2227,8 +2266,8 @@
       <c r="K6" s="5"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="D7" s="32"/>
+    <row r="7" spans="1:19" ht="75">
+      <c r="D7" s="30"/>
       <c r="E7" s="6">
         <v>6</v>
       </c>
@@ -2237,6 +2276,9 @@
       </c>
       <c r="G7" s="7" t="s">
         <v>354</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>89</v>
@@ -2245,11 +2287,11 @@
       <c r="K7" s="5"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="30" customHeight="1">
       <c r="K8" s="5"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="D9" s="16"/>
@@ -2261,7 +2303,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="30">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -2271,7 +2313,7 @@
       <c r="C10" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="30" t="s">
         <v>374</v>
       </c>
       <c r="E10" s="6">
@@ -2282,6 +2324,9 @@
       </c>
       <c r="G10" s="7" t="s">
         <v>79</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>80</v>
@@ -2290,9 +2335,9 @@
       <c r="K10" s="5"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="30">
       <c r="B11" s="16"/>
-      <c r="D11" s="32"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="6">
         <v>2</v>
       </c>
@@ -2301,6 +2346,9 @@
       </c>
       <c r="G11" s="7" t="s">
         <v>82</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="I11" s="19" t="s">
         <v>83</v>
@@ -2309,8 +2357,8 @@
       <c r="K11" s="5"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D12" s="32"/>
+    <row r="12" spans="1:19" ht="30">
+      <c r="D12" s="30"/>
       <c r="E12" s="6">
         <v>3</v>
       </c>
@@ -2319,13 +2367,16 @@
       </c>
       <c r="G12" s="7" t="s">
         <v>85</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="J12" s="26"/>
       <c r="K12" s="5"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D13" s="32"/>
+    <row r="13" spans="1:19">
+      <c r="D13" s="30"/>
       <c r="E13" s="6">
         <v>4</v>
       </c>
@@ -2334,13 +2385,16 @@
       </c>
       <c r="G13" s="7" t="s">
         <v>87</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="J13" s="26"/>
       <c r="K13" s="5"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D14" s="32"/>
+    <row r="14" spans="1:19" ht="30">
+      <c r="D14" s="30"/>
       <c r="E14" s="6">
         <v>5</v>
       </c>
@@ -2349,13 +2403,16 @@
       </c>
       <c r="G14" s="7" t="s">
         <v>91</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="5"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D15" s="32"/>
+    <row r="15" spans="1:19" ht="30">
+      <c r="D15" s="30"/>
       <c r="E15" s="6">
         <v>6</v>
       </c>
@@ -2364,13 +2421,16 @@
       </c>
       <c r="G15" s="7" t="s">
         <v>93</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="J15" s="26"/>
       <c r="K15" s="5"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D16" s="32"/>
+    <row r="16" spans="1:19" ht="30">
+      <c r="D16" s="30"/>
       <c r="E16" s="6">
         <v>7</v>
       </c>
@@ -2379,6 +2439,9 @@
       </c>
       <c r="G16" s="7" t="s">
         <v>95</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>96</v>
@@ -2387,15 +2450,15 @@
       <c r="K16" s="5"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="K17" s="5"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="K18" s="5"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="30">
       <c r="A19" s="7" t="s">
         <v>22</v>
       </c>
@@ -2405,7 +2468,7 @@
       <c r="C19" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="30" t="s">
         <v>375</v>
       </c>
       <c r="E19" s="6">
@@ -2418,8 +2481,8 @@
       <c r="K19" s="5"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D20" s="32"/>
+    <row r="20" spans="1:12" ht="30">
+      <c r="D20" s="30"/>
       <c r="E20" s="6">
         <v>2</v>
       </c>
@@ -2428,6 +2491,9 @@
       </c>
       <c r="G20" s="7" t="s">
         <v>79</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>80</v>
@@ -2436,8 +2502,8 @@
       <c r="K20" s="5"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D21" s="32"/>
+    <row r="21" spans="1:12" ht="30">
+      <c r="D21" s="30"/>
       <c r="E21" s="6">
         <v>3</v>
       </c>
@@ -2446,6 +2512,9 @@
       </c>
       <c r="G21" s="7" t="s">
         <v>82</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>83</v>
@@ -2454,8 +2523,8 @@
       <c r="K21" s="5"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D22" s="32"/>
+    <row r="22" spans="1:12" ht="30">
+      <c r="D22" s="30"/>
       <c r="E22" s="6">
         <v>4</v>
       </c>
@@ -2464,13 +2533,16 @@
       </c>
       <c r="G22" s="7" t="s">
         <v>85</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="5"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D23" s="32"/>
+    <row r="23" spans="1:12">
+      <c r="D23" s="30"/>
       <c r="E23" s="6">
         <v>5</v>
       </c>
@@ -2479,13 +2551,16 @@
       </c>
       <c r="G23" s="7" t="s">
         <v>87</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="J23" s="26"/>
       <c r="K23" s="5"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D24" s="32"/>
+    <row r="24" spans="1:12" ht="30">
+      <c r="D24" s="30"/>
       <c r="E24" s="6">
         <v>6</v>
       </c>
@@ -2494,13 +2569,16 @@
       </c>
       <c r="G24" s="7" t="s">
         <v>99</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="J24" s="26"/>
       <c r="K24" s="5"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D25" s="32"/>
+    <row r="25" spans="1:12" ht="30">
+      <c r="D25" s="30"/>
       <c r="E25" s="6">
         <v>7</v>
       </c>
@@ -2509,20 +2587,23 @@
       </c>
       <c r="G25" s="7" t="s">
         <v>101</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="J25" s="26"/>
       <c r="K25" s="5"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="K26" s="5"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="K27" s="5"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="30">
       <c r="A28" s="7" t="s">
         <v>23</v>
       </c>
@@ -2532,7 +2613,7 @@
       <c r="C28" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="30" t="s">
         <v>376</v>
       </c>
       <c r="E28" s="6">
@@ -2543,6 +2624,9 @@
       </c>
       <c r="G28" s="7" t="s">
         <v>79</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="I28" s="18" t="s">
         <v>80</v>
@@ -2551,8 +2635,8 @@
       <c r="K28" s="5"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D29" s="32"/>
+    <row r="29" spans="1:12" ht="30">
+      <c r="D29" s="30"/>
       <c r="E29" s="6">
         <v>2</v>
       </c>
@@ -2561,6 +2645,9 @@
       </c>
       <c r="G29" s="7" t="s">
         <v>82</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="I29" s="19" t="s">
         <v>83</v>
@@ -2569,8 +2656,8 @@
       <c r="K29" s="5"/>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D30" s="32"/>
+    <row r="30" spans="1:12" ht="30">
+      <c r="D30" s="30"/>
       <c r="E30" s="6">
         <v>3</v>
       </c>
@@ -2579,14 +2666,17 @@
       </c>
       <c r="G30" s="7" t="s">
         <v>85</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="26"/>
       <c r="K30" s="5"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D31" s="32"/>
+    <row r="31" spans="1:12">
+      <c r="D31" s="30"/>
       <c r="E31" s="6">
         <v>4</v>
       </c>
@@ -2595,14 +2685,17 @@
       </c>
       <c r="G31" s="7" t="s">
         <v>87</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="26"/>
       <c r="K31" s="5"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D32" s="32"/>
+    <row r="32" spans="1:12" ht="30">
+      <c r="D32" s="30"/>
       <c r="E32" s="6">
         <v>5</v>
       </c>
@@ -2611,13 +2704,16 @@
       </c>
       <c r="G32" s="7" t="s">
         <v>88</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="5"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="D33" s="32"/>
+    <row r="33" spans="1:12" ht="165">
+      <c r="D33" s="30"/>
       <c r="E33" s="6">
         <v>6</v>
       </c>
@@ -2626,6 +2722,9 @@
       </c>
       <c r="G33" s="7" t="s">
         <v>104</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>105</v>
@@ -2634,8 +2733,8 @@
       <c r="K33" s="5"/>
       <c r="L33" s="8"/>
     </row>
-    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D34" s="32"/>
+    <row r="34" spans="1:12" ht="30">
+      <c r="D34" s="30"/>
       <c r="E34" s="6">
         <v>7</v>
       </c>
@@ -2644,13 +2743,16 @@
       </c>
       <c r="G34" s="7" t="s">
         <v>107</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="J34" s="26"/>
       <c r="K34" s="5"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D35" s="32"/>
+    <row r="35" spans="1:12" ht="45">
+      <c r="D35" s="30"/>
       <c r="E35" s="6">
         <v>8</v>
       </c>
@@ -2659,13 +2761,16 @@
       </c>
       <c r="G35" s="7" t="s">
         <v>109</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="J35" s="26"/>
       <c r="K35" s="5"/>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D36" s="32"/>
+    <row r="36" spans="1:12" ht="30">
+      <c r="D36" s="30"/>
       <c r="E36" s="6">
         <v>9</v>
       </c>
@@ -2674,13 +2779,16 @@
       </c>
       <c r="G36" s="7" t="s">
         <v>111</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="J36" s="26"/>
       <c r="K36" s="5"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D37" s="32"/>
+    <row r="37" spans="1:12" ht="45">
+      <c r="D37" s="30"/>
       <c r="E37" s="6">
         <v>10</v>
       </c>
@@ -2690,15 +2798,20 @@
       <c r="G37" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J37" s="24"/>
+      <c r="H37" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="J37" s="24" t="s">
+        <v>442</v>
+      </c>
       <c r="K37" s="5"/>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="K38" s="5"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="30">
       <c r="A39" s="7" t="s">
         <v>24</v>
       </c>
@@ -2708,7 +2821,7 @@
       <c r="C39" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="30" t="s">
         <v>377</v>
       </c>
       <c r="E39" s="6">
@@ -2719,6 +2832,9 @@
       </c>
       <c r="G39" s="7" t="s">
         <v>79</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="I39" s="18" t="s">
         <v>80</v>
@@ -2727,8 +2843,8 @@
       <c r="K39" s="5"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D40" s="32"/>
+    <row r="40" spans="1:12" ht="30">
+      <c r="D40" s="30"/>
       <c r="E40" s="6">
         <v>2</v>
       </c>
@@ -2737,6 +2853,9 @@
       </c>
       <c r="G40" s="7" t="s">
         <v>82</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="I40" s="19" t="s">
         <v>83</v>
@@ -2745,8 +2864,8 @@
       <c r="K40" s="5"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D41" s="32"/>
+    <row r="41" spans="1:12" ht="30">
+      <c r="D41" s="30"/>
       <c r="E41" s="6">
         <v>3</v>
       </c>
@@ -2755,14 +2874,17 @@
       </c>
       <c r="G41" s="7" t="s">
         <v>85</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="25"/>
       <c r="K41" s="5"/>
       <c r="L41" s="8"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D42" s="32"/>
+    <row r="42" spans="1:12">
+      <c r="D42" s="30"/>
       <c r="E42" s="6">
         <v>4</v>
       </c>
@@ -2771,14 +2893,17 @@
       </c>
       <c r="G42" s="7" t="s">
         <v>87</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="I42" s="18"/>
       <c r="J42" s="26"/>
       <c r="K42" s="5"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D43" s="32"/>
+    <row r="43" spans="1:12" ht="30">
+      <c r="D43" s="30"/>
       <c r="E43" s="6">
         <v>5</v>
       </c>
@@ -2787,13 +2912,16 @@
       </c>
       <c r="G43" s="7" t="s">
         <v>88</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="J43" s="26"/>
       <c r="K43" s="5"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="1:12" ht="180" x14ac:dyDescent="0.25">
-      <c r="D44" s="32"/>
+    <row r="44" spans="1:12" ht="180">
+      <c r="D44" s="30"/>
       <c r="E44" s="6">
         <v>6</v>
       </c>
@@ -2802,6 +2930,9 @@
       </c>
       <c r="G44" s="7" t="s">
         <v>104</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>114</v>
@@ -2810,8 +2941,8 @@
       <c r="K44" s="5"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D45" s="32"/>
+    <row r="45" spans="1:12" ht="30">
+      <c r="D45" s="30"/>
       <c r="E45" s="6">
         <v>7</v>
       </c>
@@ -2820,13 +2951,16 @@
       </c>
       <c r="G45" s="7" t="s">
         <v>107</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="J45" s="26"/>
       <c r="K45" s="5"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D46" s="32"/>
+    <row r="46" spans="1:12" ht="30">
+      <c r="D46" s="30"/>
       <c r="E46" s="6">
         <v>8</v>
       </c>
@@ -2835,13 +2969,16 @@
       </c>
       <c r="G46" s="7" t="s">
         <v>111</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="J46" s="26"/>
       <c r="K46" s="5"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D47" s="32"/>
+    <row r="47" spans="1:12">
+      <c r="D47" s="30"/>
       <c r="E47" s="6">
         <v>9</v>
       </c>
@@ -2850,20 +2987,23 @@
       </c>
       <c r="G47" s="7" t="s">
         <v>116</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="J47" s="26"/>
       <c r="K47" s="5"/>
       <c r="L47" s="8"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="K48" s="5"/>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="K49" s="5"/>
       <c r="L49" s="8"/>
     </row>
-    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="30">
       <c r="A50" s="7" t="s">
         <v>25</v>
       </c>
@@ -2873,7 +3013,7 @@
       <c r="C50" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D50" s="32" t="s">
+      <c r="D50" s="30" t="s">
         <v>378</v>
       </c>
       <c r="E50" s="6">
@@ -2892,8 +3032,8 @@
       <c r="K50" s="5"/>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D51" s="32"/>
+    <row r="51" spans="1:12" ht="30">
+      <c r="D51" s="30"/>
       <c r="E51" s="6">
         <v>2</v>
       </c>
@@ -2910,8 +3050,8 @@
       <c r="K51" s="5"/>
       <c r="L51" s="8"/>
     </row>
-    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D52" s="32"/>
+    <row r="52" spans="1:12" ht="30">
+      <c r="D52" s="30"/>
       <c r="E52" s="6">
         <v>3</v>
       </c>
@@ -2926,8 +3066,8 @@
       <c r="K52" s="5"/>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D53" s="32"/>
+    <row r="53" spans="1:12">
+      <c r="D53" s="30"/>
       <c r="E53" s="6">
         <v>4</v>
       </c>
@@ -2942,8 +3082,8 @@
       <c r="K53" s="5"/>
       <c r="L53" s="8"/>
     </row>
-    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D54" s="32"/>
+    <row r="54" spans="1:12" ht="30">
+      <c r="D54" s="30"/>
       <c r="E54" s="6">
         <v>5</v>
       </c>
@@ -2957,8 +3097,8 @@
       <c r="K54" s="5"/>
       <c r="L54" s="8"/>
     </row>
-    <row r="55" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="D55" s="32"/>
+    <row r="55" spans="1:12" ht="165">
+      <c r="D55" s="30"/>
       <c r="E55" s="6">
         <v>6</v>
       </c>
@@ -2975,8 +3115,8 @@
       <c r="K55" s="5"/>
       <c r="L55" s="8"/>
     </row>
-    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D56" s="32"/>
+    <row r="56" spans="1:12" ht="30">
+      <c r="D56" s="30"/>
       <c r="E56" s="6">
         <v>7</v>
       </c>
@@ -2990,8 +3130,8 @@
       <c r="K56" s="5"/>
       <c r="L56" s="8"/>
     </row>
-    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D57" s="32"/>
+    <row r="57" spans="1:12" ht="30">
+      <c r="D57" s="30"/>
       <c r="E57" s="6">
         <v>8</v>
       </c>
@@ -3005,8 +3145,8 @@
       <c r="K57" s="5"/>
       <c r="L57" s="8"/>
     </row>
-    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D58" s="32"/>
+    <row r="58" spans="1:12" ht="30">
+      <c r="D58" s="30"/>
       <c r="E58" s="6">
         <v>9</v>
       </c>
@@ -3020,8 +3160,8 @@
       <c r="K58" s="5"/>
       <c r="L58" s="8"/>
     </row>
-    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D59" s="32"/>
+    <row r="59" spans="1:12" ht="30">
+      <c r="D59" s="30"/>
       <c r="E59" s="6">
         <v>10</v>
       </c>
@@ -3035,8 +3175,8 @@
       <c r="K59" s="5"/>
       <c r="L59" s="8"/>
     </row>
-    <row r="60" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D60" s="32"/>
+    <row r="60" spans="1:12" ht="60">
+      <c r="D60" s="30"/>
       <c r="E60" s="6">
         <v>11</v>
       </c>
@@ -3050,15 +3190,15 @@
       <c r="K60" s="5"/>
       <c r="L60" s="8"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="K61" s="5"/>
       <c r="L61" s="8"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="K62" s="5"/>
       <c r="L62" s="8"/>
     </row>
-    <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="30">
       <c r="A63" s="7" t="s">
         <v>26</v>
       </c>
@@ -3068,7 +3208,7 @@
       <c r="C63" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="D63" s="30" t="s">
         <v>379</v>
       </c>
       <c r="E63" s="6">
@@ -3087,8 +3227,8 @@
       <c r="K63" s="5"/>
       <c r="L63" s="8"/>
     </row>
-    <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D64" s="32"/>
+    <row r="64" spans="1:12" ht="30">
+      <c r="D64" s="30"/>
       <c r="E64" s="6">
         <v>2</v>
       </c>
@@ -3105,8 +3245,8 @@
       <c r="K64" s="5"/>
       <c r="L64" s="8"/>
     </row>
-    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D65" s="32"/>
+    <row r="65" spans="1:12" ht="30">
+      <c r="D65" s="30"/>
       <c r="E65" s="6">
         <v>3</v>
       </c>
@@ -3120,8 +3260,8 @@
       <c r="K65" s="5"/>
       <c r="L65" s="8"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D66" s="32"/>
+    <row r="66" spans="1:12">
+      <c r="D66" s="30"/>
       <c r="E66" s="6">
         <v>4</v>
       </c>
@@ -3135,8 +3275,8 @@
       <c r="K66" s="5"/>
       <c r="L66" s="8"/>
     </row>
-    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D67" s="32"/>
+    <row r="67" spans="1:12" ht="30">
+      <c r="D67" s="30"/>
       <c r="E67" s="6">
         <v>5</v>
       </c>
@@ -3149,8 +3289,8 @@
       <c r="K67" s="5"/>
       <c r="L67" s="8"/>
     </row>
-    <row r="68" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="D68" s="32"/>
+    <row r="68" spans="1:12" ht="165">
+      <c r="D68" s="30"/>
       <c r="E68" s="6">
         <v>6</v>
       </c>
@@ -3167,8 +3307,8 @@
       <c r="K68" s="5"/>
       <c r="L68" s="8"/>
     </row>
-    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D69" s="32"/>
+    <row r="69" spans="1:12" ht="30">
+      <c r="D69" s="30"/>
       <c r="E69" s="6">
         <v>7</v>
       </c>
@@ -3182,8 +3322,8 @@
       <c r="K69" s="5"/>
       <c r="L69" s="8"/>
     </row>
-    <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D70" s="32"/>
+    <row r="70" spans="1:12" ht="30">
+      <c r="D70" s="30"/>
       <c r="E70" s="6">
         <v>8</v>
       </c>
@@ -3197,8 +3337,8 @@
       <c r="K70" s="5"/>
       <c r="L70" s="8"/>
     </row>
-    <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D71" s="32"/>
+    <row r="71" spans="1:12" ht="30">
+      <c r="D71" s="30"/>
       <c r="E71" s="6">
         <v>9</v>
       </c>
@@ -3212,8 +3352,8 @@
       <c r="K71" s="5"/>
       <c r="L71" s="8"/>
     </row>
-    <row r="72" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D72" s="32"/>
+    <row r="72" spans="1:12" ht="45">
+      <c r="D72" s="30"/>
       <c r="E72" s="6">
         <v>10</v>
       </c>
@@ -3227,15 +3367,15 @@
       <c r="K72" s="5"/>
       <c r="L72" s="8"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="K73" s="5"/>
       <c r="L73" s="8"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="K74" s="5"/>
       <c r="L74" s="8"/>
     </row>
-    <row r="75" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="30">
       <c r="A75" s="7" t="s">
         <v>27</v>
       </c>
@@ -3245,7 +3385,7 @@
       <c r="C75" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D75" s="32" t="s">
+      <c r="D75" s="30" t="s">
         <v>380</v>
       </c>
       <c r="E75" s="6">
@@ -3264,8 +3404,8 @@
       <c r="K75" s="5"/>
       <c r="L75" s="8"/>
     </row>
-    <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D76" s="32"/>
+    <row r="76" spans="1:12" ht="30">
+      <c r="D76" s="30"/>
       <c r="E76" s="6">
         <v>2</v>
       </c>
@@ -3282,8 +3422,8 @@
       <c r="K76" s="5"/>
       <c r="L76" s="8"/>
     </row>
-    <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D77" s="32"/>
+    <row r="77" spans="1:12" ht="30">
+      <c r="D77" s="30"/>
       <c r="E77" s="6">
         <v>3</v>
       </c>
@@ -3297,8 +3437,8 @@
       <c r="K77" s="5"/>
       <c r="L77" s="8"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D78" s="32"/>
+    <row r="78" spans="1:12">
+      <c r="D78" s="30"/>
       <c r="E78" s="6">
         <v>4</v>
       </c>
@@ -3312,8 +3452,8 @@
       <c r="K78" s="5"/>
       <c r="L78" s="8"/>
     </row>
-    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D79" s="32"/>
+    <row r="79" spans="1:12" ht="30">
+      <c r="D79" s="30"/>
       <c r="E79" s="6">
         <v>5</v>
       </c>
@@ -3327,8 +3467,8 @@
       <c r="K79" s="5"/>
       <c r="L79" s="8"/>
     </row>
-    <row r="80" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="D80" s="32"/>
+    <row r="80" spans="1:12" ht="165">
+      <c r="D80" s="30"/>
       <c r="E80" s="6">
         <v>6</v>
       </c>
@@ -3345,8 +3485,8 @@
       <c r="K80" s="5"/>
       <c r="L80" s="8"/>
     </row>
-    <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D81" s="32"/>
+    <row r="81" spans="1:12" ht="30">
+      <c r="D81" s="30"/>
       <c r="E81" s="6">
         <v>7</v>
       </c>
@@ -3360,8 +3500,8 @@
       <c r="K81" s="5"/>
       <c r="L81" s="8"/>
     </row>
-    <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D82" s="32"/>
+    <row r="82" spans="1:12" ht="30">
+      <c r="D82" s="30"/>
       <c r="E82" s="6">
         <v>8</v>
       </c>
@@ -3375,8 +3515,8 @@
       <c r="K82" s="5"/>
       <c r="L82" s="8"/>
     </row>
-    <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D83" s="32"/>
+    <row r="83" spans="1:12" ht="30">
+      <c r="D83" s="30"/>
       <c r="E83" s="6">
         <v>9</v>
       </c>
@@ -3390,8 +3530,8 @@
       <c r="K83" s="5"/>
       <c r="L83" s="8"/>
     </row>
-    <row r="84" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D84" s="32"/>
+    <row r="84" spans="1:12" ht="45">
+      <c r="D84" s="30"/>
       <c r="E84" s="6">
         <v>10</v>
       </c>
@@ -3405,15 +3545,15 @@
       <c r="K84" s="5"/>
       <c r="L84" s="8"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="K85" s="5"/>
       <c r="L85" s="8"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="K86" s="5"/>
       <c r="L86" s="8"/>
     </row>
-    <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="30">
       <c r="A87" s="7" t="s">
         <v>28</v>
       </c>
@@ -3423,7 +3563,7 @@
       <c r="C87" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D87" s="32" t="s">
+      <c r="D87" s="30" t="s">
         <v>381</v>
       </c>
       <c r="E87" s="6">
@@ -3442,8 +3582,8 @@
       <c r="K87" s="5"/>
       <c r="L87" s="8"/>
     </row>
-    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D88" s="32"/>
+    <row r="88" spans="1:12" ht="30">
+      <c r="D88" s="30"/>
       <c r="E88" s="6">
         <v>2</v>
       </c>
@@ -3460,8 +3600,8 @@
       <c r="K88" s="5"/>
       <c r="L88" s="8"/>
     </row>
-    <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D89" s="32"/>
+    <row r="89" spans="1:12" ht="30">
+      <c r="D89" s="30"/>
       <c r="E89" s="6">
         <v>3</v>
       </c>
@@ -3475,8 +3615,8 @@
       <c r="K89" s="5"/>
       <c r="L89" s="8"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D90" s="32"/>
+    <row r="90" spans="1:12">
+      <c r="D90" s="30"/>
       <c r="E90" s="6">
         <v>4</v>
       </c>
@@ -3490,8 +3630,8 @@
       <c r="K90" s="5"/>
       <c r="L90" s="8"/>
     </row>
-    <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D91" s="32"/>
+    <row r="91" spans="1:12" ht="30">
+      <c r="D91" s="30"/>
       <c r="E91" s="6">
         <v>5</v>
       </c>
@@ -3505,8 +3645,8 @@
       <c r="K91" s="5"/>
       <c r="L91" s="8"/>
     </row>
-    <row r="92" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="D92" s="32"/>
+    <row r="92" spans="1:12" ht="165">
+      <c r="D92" s="30"/>
       <c r="E92" s="6">
         <v>6</v>
       </c>
@@ -3523,8 +3663,8 @@
       <c r="K92" s="5"/>
       <c r="L92" s="8"/>
     </row>
-    <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D93" s="32"/>
+    <row r="93" spans="1:12" ht="30">
+      <c r="D93" s="30"/>
       <c r="E93" s="6">
         <v>7</v>
       </c>
@@ -3538,8 +3678,8 @@
       <c r="K93" s="5"/>
       <c r="L93" s="8"/>
     </row>
-    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D94" s="32"/>
+    <row r="94" spans="1:12" ht="30">
+      <c r="D94" s="30"/>
       <c r="E94" s="6">
         <v>8</v>
       </c>
@@ -3553,8 +3693,8 @@
       <c r="K94" s="5"/>
       <c r="L94" s="8"/>
     </row>
-    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D95" s="32"/>
+    <row r="95" spans="1:12" ht="30">
+      <c r="D95" s="30"/>
       <c r="E95" s="6">
         <v>9</v>
       </c>
@@ -3568,8 +3708,8 @@
       <c r="K95" s="5"/>
       <c r="L95" s="8"/>
     </row>
-    <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D96" s="32"/>
+    <row r="96" spans="1:12" ht="30">
+      <c r="D96" s="30"/>
       <c r="E96" s="6">
         <v>10</v>
       </c>
@@ -3583,8 +3723,8 @@
       <c r="K96" s="5"/>
       <c r="L96" s="8"/>
     </row>
-    <row r="97" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D97" s="32"/>
+    <row r="97" spans="1:12" ht="60">
+      <c r="D97" s="30"/>
       <c r="E97" s="6">
         <v>11</v>
       </c>
@@ -3598,15 +3738,15 @@
       <c r="K97" s="5"/>
       <c r="L97" s="8"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12">
       <c r="K98" s="5"/>
       <c r="L98" s="8"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12">
       <c r="K99" s="5"/>
       <c r="L99" s="8"/>
     </row>
-    <row r="100" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="45">
       <c r="A100" s="7" t="s">
         <v>29</v>
       </c>
@@ -3616,7 +3756,7 @@
       <c r="C100" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D100" s="32" t="s">
+      <c r="D100" s="30" t="s">
         <v>382</v>
       </c>
       <c r="E100" s="6">
@@ -3635,8 +3775,8 @@
       <c r="K100" s="5"/>
       <c r="L100" s="8"/>
     </row>
-    <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D101" s="32"/>
+    <row r="101" spans="1:12" ht="30">
+      <c r="D101" s="30"/>
       <c r="E101" s="6">
         <v>2</v>
       </c>
@@ -3653,8 +3793,8 @@
       <c r="K101" s="5"/>
       <c r="L101" s="8"/>
     </row>
-    <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D102" s="32"/>
+    <row r="102" spans="1:12" ht="30">
+      <c r="D102" s="30"/>
       <c r="E102" s="6">
         <v>3</v>
       </c>
@@ -3668,8 +3808,8 @@
       <c r="K102" s="5"/>
       <c r="L102" s="8"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D103" s="32"/>
+    <row r="103" spans="1:12">
+      <c r="D103" s="30"/>
       <c r="E103" s="6">
         <v>4</v>
       </c>
@@ -3683,8 +3823,8 @@
       <c r="K103" s="5"/>
       <c r="L103" s="8"/>
     </row>
-    <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D104" s="32"/>
+    <row r="104" spans="1:12" ht="30">
+      <c r="D104" s="30"/>
       <c r="E104" s="6">
         <v>5</v>
       </c>
@@ -3698,8 +3838,8 @@
       <c r="K104" s="5"/>
       <c r="L104" s="8"/>
     </row>
-    <row r="105" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D105" s="32"/>
+    <row r="105" spans="1:12" ht="90">
+      <c r="D105" s="30"/>
       <c r="E105" s="6">
         <v>6</v>
       </c>
@@ -3716,8 +3856,8 @@
       <c r="K105" s="5"/>
       <c r="L105" s="8"/>
     </row>
-    <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D106" s="32"/>
+    <row r="106" spans="1:12" ht="30">
+      <c r="D106" s="30"/>
       <c r="E106" s="6">
         <v>7</v>
       </c>
@@ -3734,8 +3874,8 @@
       <c r="K106" s="5"/>
       <c r="L106" s="8"/>
     </row>
-    <row r="107" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D107" s="32"/>
+    <row r="107" spans="1:12" ht="45">
+      <c r="D107" s="30"/>
       <c r="E107" s="6">
         <v>8</v>
       </c>
@@ -3749,8 +3889,8 @@
       <c r="K107" s="5"/>
       <c r="L107" s="8"/>
     </row>
-    <row r="108" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D108" s="32"/>
+    <row r="108" spans="1:12" ht="30">
+      <c r="D108" s="30"/>
       <c r="E108" s="6">
         <v>9</v>
       </c>
@@ -3764,8 +3904,8 @@
       <c r="K108" s="5"/>
       <c r="L108" s="8"/>
     </row>
-    <row r="109" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D109" s="32"/>
+    <row r="109" spans="1:12" ht="30">
+      <c r="D109" s="30"/>
       <c r="E109" s="6">
         <v>10</v>
       </c>
@@ -3779,8 +3919,8 @@
       <c r="K109" s="5"/>
       <c r="L109" s="8"/>
     </row>
-    <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D110" s="32"/>
+    <row r="110" spans="1:12" ht="30">
+      <c r="D110" s="30"/>
       <c r="E110" s="6">
         <v>11</v>
       </c>
@@ -3794,8 +3934,8 @@
       <c r="K110" s="5"/>
       <c r="L110" s="8"/>
     </row>
-    <row r="111" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D111" s="32"/>
+    <row r="111" spans="1:12">
+      <c r="D111" s="30"/>
       <c r="E111" s="6">
         <v>12</v>
       </c>
@@ -3803,21 +3943,21 @@
         <v>139</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>113</v>
+        <v>433</v>
       </c>
       <c r="J111" s="26"/>
       <c r="K111" s="5"/>
       <c r="L111" s="8"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12">
       <c r="K112" s="5"/>
       <c r="L112" s="8"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12">
       <c r="K113" s="5"/>
       <c r="L113" s="8"/>
     </row>
-    <row r="114" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="45">
       <c r="A114" s="7" t="s">
         <v>30</v>
       </c>
@@ -3827,7 +3967,7 @@
       <c r="C114" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D114" s="32" t="s">
+      <c r="D114" s="30" t="s">
         <v>383</v>
       </c>
       <c r="E114" s="6">
@@ -3846,8 +3986,8 @@
       <c r="K114" s="5"/>
       <c r="L114" s="8"/>
     </row>
-    <row r="115" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D115" s="32"/>
+    <row r="115" spans="1:12" ht="30">
+      <c r="D115" s="30"/>
       <c r="E115" s="6">
         <v>2</v>
       </c>
@@ -3864,8 +4004,8 @@
       <c r="K115" s="5"/>
       <c r="L115" s="8"/>
     </row>
-    <row r="116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D116" s="32"/>
+    <row r="116" spans="1:12" ht="30">
+      <c r="D116" s="30"/>
       <c r="E116" s="6">
         <v>3</v>
       </c>
@@ -3879,8 +4019,8 @@
       <c r="K116" s="5"/>
       <c r="L116" s="8"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D117" s="32"/>
+    <row r="117" spans="1:12">
+      <c r="D117" s="30"/>
       <c r="E117" s="6">
         <v>4</v>
       </c>
@@ -3894,8 +4034,8 @@
       <c r="K117" s="5"/>
       <c r="L117" s="8"/>
     </row>
-    <row r="118" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D118" s="32"/>
+    <row r="118" spans="1:12" ht="30">
+      <c r="D118" s="30"/>
       <c r="E118" s="6">
         <v>5</v>
       </c>
@@ -3909,8 +4049,8 @@
       <c r="K118" s="5"/>
       <c r="L118" s="8"/>
     </row>
-    <row r="119" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D119" s="32"/>
+    <row r="119" spans="1:12" ht="90">
+      <c r="D119" s="30"/>
       <c r="E119" s="6">
         <v>6</v>
       </c>
@@ -3927,8 +4067,8 @@
       <c r="K119" s="5"/>
       <c r="L119" s="8"/>
     </row>
-    <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D120" s="32"/>
+    <row r="120" spans="1:12" ht="30">
+      <c r="D120" s="30"/>
       <c r="E120" s="6">
         <v>7</v>
       </c>
@@ -3942,8 +4082,8 @@
       <c r="K120" s="5"/>
       <c r="L120" s="8"/>
     </row>
-    <row r="121" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D121" s="32"/>
+    <row r="121" spans="1:12" ht="45">
+      <c r="D121" s="30"/>
       <c r="E121" s="6">
         <v>8</v>
       </c>
@@ -3957,8 +4097,8 @@
       <c r="K121" s="5"/>
       <c r="L121" s="8"/>
     </row>
-    <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D122" s="32"/>
+    <row r="122" spans="1:12" ht="30">
+      <c r="D122" s="30"/>
       <c r="E122" s="6">
         <v>9</v>
       </c>
@@ -3972,7 +4112,7 @@
       <c r="K122" s="5"/>
       <c r="L122" s="8"/>
     </row>
-    <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="30">
       <c r="A123" s="17"/>
       <c r="D123" s="17"/>
       <c r="E123" s="6">
@@ -3988,7 +4128,7 @@
       <c r="K123" s="5"/>
       <c r="L123" s="8"/>
     </row>
-    <row r="124" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="45">
       <c r="E124" s="6">
         <v>11</v>
       </c>
@@ -4002,11 +4142,11 @@
       <c r="K124" s="5"/>
       <c r="L124" s="8"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12">
       <c r="K125" s="5"/>
       <c r="L125" s="8"/>
     </row>
-    <row r="126" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="45">
       <c r="A126" s="7" t="s">
         <v>31</v>
       </c>
@@ -4016,7 +4156,7 @@
       <c r="C126" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D126" s="32" t="s">
+      <c r="D126" s="30" t="s">
         <v>384</v>
       </c>
       <c r="E126" s="6">
@@ -4035,8 +4175,8 @@
       <c r="K126" s="5"/>
       <c r="L126" s="8"/>
     </row>
-    <row r="127" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D127" s="32"/>
+    <row r="127" spans="1:12" ht="30">
+      <c r="D127" s="30"/>
       <c r="E127" s="6">
         <v>2</v>
       </c>
@@ -4053,8 +4193,8 @@
       <c r="K127" s="5"/>
       <c r="L127" s="8"/>
     </row>
-    <row r="128" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D128" s="32"/>
+    <row r="128" spans="1:12" ht="30">
+      <c r="D128" s="30"/>
       <c r="E128" s="6">
         <v>3</v>
       </c>
@@ -4068,8 +4208,8 @@
       <c r="K128" s="5"/>
       <c r="L128" s="8"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D129" s="32"/>
+    <row r="129" spans="1:12">
+      <c r="D129" s="30"/>
       <c r="E129" s="6">
         <v>4</v>
       </c>
@@ -4083,8 +4223,8 @@
       <c r="K129" s="5"/>
       <c r="L129" s="8"/>
     </row>
-    <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D130" s="32"/>
+    <row r="130" spans="1:12" ht="30">
+      <c r="D130" s="30"/>
       <c r="E130" s="6">
         <v>5</v>
       </c>
@@ -4098,8 +4238,8 @@
       <c r="K130" s="5"/>
       <c r="L130" s="8"/>
     </row>
-    <row r="131" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D131" s="32"/>
+    <row r="131" spans="1:12" ht="90">
+      <c r="D131" s="30"/>
       <c r="E131" s="6">
         <v>6</v>
       </c>
@@ -4116,8 +4256,8 @@
       <c r="K131" s="5"/>
       <c r="L131" s="8"/>
     </row>
-    <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D132" s="32"/>
+    <row r="132" spans="1:12" ht="30">
+      <c r="D132" s="30"/>
       <c r="E132" s="6">
         <v>7</v>
       </c>
@@ -4131,8 +4271,8 @@
       <c r="K132" s="5"/>
       <c r="L132" s="8"/>
     </row>
-    <row r="133" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D133" s="32"/>
+    <row r="133" spans="1:12" ht="45">
+      <c r="D133" s="30"/>
       <c r="E133" s="6">
         <v>8</v>
       </c>
@@ -4145,8 +4285,8 @@
       <c r="K133" s="5"/>
       <c r="L133" s="8"/>
     </row>
-    <row r="134" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D134" s="32"/>
+    <row r="134" spans="1:12" ht="30">
+      <c r="D134" s="30"/>
       <c r="E134" s="6">
         <v>9</v>
       </c>
@@ -4159,8 +4299,8 @@
       <c r="K134" s="5"/>
       <c r="L134" s="8"/>
     </row>
-    <row r="135" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D135" s="32"/>
+    <row r="135" spans="1:12" ht="30">
+      <c r="D135" s="30"/>
       <c r="E135" s="6">
         <v>10</v>
       </c>
@@ -4173,8 +4313,8 @@
       <c r="K135" s="5"/>
       <c r="L135" s="8"/>
     </row>
-    <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D136" s="32"/>
+    <row r="136" spans="1:12" ht="30">
+      <c r="D136" s="30"/>
       <c r="E136" s="6">
         <v>11</v>
       </c>
@@ -4187,8 +4327,8 @@
       <c r="K136" s="5"/>
       <c r="L136" s="8"/>
     </row>
-    <row r="137" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D137" s="32"/>
+    <row r="137" spans="1:12" ht="60">
+      <c r="D137" s="30"/>
       <c r="E137" s="6">
         <v>12</v>
       </c>
@@ -4201,15 +4341,15 @@
       <c r="K137" s="5"/>
       <c r="L137" s="8"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12">
       <c r="K138" s="5"/>
       <c r="L138" s="8"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12">
       <c r="K139" s="5"/>
       <c r="L139" s="8"/>
     </row>
-    <row r="140" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="45">
       <c r="A140" s="7" t="s">
         <v>32</v>
       </c>
@@ -4219,7 +4359,7 @@
       <c r="C140" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D140" s="32" t="s">
+      <c r="D140" s="30" t="s">
         <v>385</v>
       </c>
       <c r="E140" s="6">
@@ -4237,8 +4377,8 @@
       <c r="K140" s="5"/>
       <c r="L140" s="8"/>
     </row>
-    <row r="141" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D141" s="32"/>
+    <row r="141" spans="1:12" ht="30">
+      <c r="D141" s="30"/>
       <c r="E141" s="6">
         <v>2</v>
       </c>
@@ -4254,8 +4394,8 @@
       <c r="K141" s="5"/>
       <c r="L141" s="8"/>
     </row>
-    <row r="142" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D142" s="32"/>
+    <row r="142" spans="1:12" ht="30">
+      <c r="D142" s="30"/>
       <c r="E142" s="6">
         <v>3</v>
       </c>
@@ -4268,8 +4408,8 @@
       <c r="K142" s="5"/>
       <c r="L142" s="8"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D143" s="32"/>
+    <row r="143" spans="1:12">
+      <c r="D143" s="30"/>
       <c r="E143" s="6">
         <v>4</v>
       </c>
@@ -4282,8 +4422,8 @@
       <c r="K143" s="5"/>
       <c r="L143" s="8"/>
     </row>
-    <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D144" s="32"/>
+    <row r="144" spans="1:12" ht="30">
+      <c r="D144" s="30"/>
       <c r="E144" s="6">
         <v>5</v>
       </c>
@@ -4296,8 +4436,8 @@
       <c r="K144" s="5"/>
       <c r="L144" s="8"/>
     </row>
-    <row r="145" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D145" s="32"/>
+    <row r="145" spans="1:12" ht="90">
+      <c r="D145" s="30"/>
       <c r="E145" s="6">
         <v>6</v>
       </c>
@@ -4313,8 +4453,8 @@
       <c r="K145" s="5"/>
       <c r="L145" s="8"/>
     </row>
-    <row r="146" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D146" s="32"/>
+    <row r="146" spans="1:12" ht="30">
+      <c r="D146" s="30"/>
       <c r="E146" s="6">
         <v>7</v>
       </c>
@@ -4327,8 +4467,8 @@
       <c r="K146" s="5"/>
       <c r="L146" s="8"/>
     </row>
-    <row r="147" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D147" s="32"/>
+    <row r="147" spans="1:12" ht="45">
+      <c r="D147" s="30"/>
       <c r="E147" s="6">
         <v>8</v>
       </c>
@@ -4341,8 +4481,8 @@
       <c r="K147" s="5"/>
       <c r="L147" s="8"/>
     </row>
-    <row r="148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D148" s="32"/>
+    <row r="148" spans="1:12" ht="30">
+      <c r="D148" s="30"/>
       <c r="E148" s="6">
         <v>9</v>
       </c>
@@ -4355,8 +4495,8 @@
       <c r="K148" s="5"/>
       <c r="L148" s="8"/>
     </row>
-    <row r="149" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D149" s="32"/>
+    <row r="149" spans="1:12" ht="30">
+      <c r="D149" s="30"/>
       <c r="E149" s="6">
         <v>10</v>
       </c>
@@ -4369,8 +4509,8 @@
       <c r="K149" s="5"/>
       <c r="L149" s="8"/>
     </row>
-    <row r="150" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D150" s="32"/>
+    <row r="150" spans="1:12" ht="45">
+      <c r="D150" s="30"/>
       <c r="E150" s="6">
         <v>11</v>
       </c>
@@ -4383,15 +4523,15 @@
       <c r="K150" s="5"/>
       <c r="L150" s="8"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12">
       <c r="K151" s="5"/>
       <c r="L151" s="8"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12">
       <c r="K152" s="5"/>
       <c r="L152" s="8"/>
     </row>
-    <row r="153" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" ht="45">
       <c r="A153" s="7" t="s">
         <v>33</v>
       </c>
@@ -4401,7 +4541,7 @@
       <c r="C153" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D153" s="32" t="s">
+      <c r="D153" s="30" t="s">
         <v>386</v>
       </c>
       <c r="E153" s="6">
@@ -4419,8 +4559,8 @@
       <c r="K153" s="5"/>
       <c r="L153" s="8"/>
     </row>
-    <row r="154" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D154" s="32"/>
+    <row r="154" spans="1:12" ht="30">
+      <c r="D154" s="30"/>
       <c r="E154" s="6">
         <v>2</v>
       </c>
@@ -4436,8 +4576,8 @@
       <c r="K154" s="5"/>
       <c r="L154" s="8"/>
     </row>
-    <row r="155" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D155" s="32"/>
+    <row r="155" spans="1:12" ht="30">
+      <c r="D155" s="30"/>
       <c r="E155" s="6">
         <v>3</v>
       </c>
@@ -4450,8 +4590,8 @@
       <c r="K155" s="5"/>
       <c r="L155" s="8"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D156" s="32"/>
+    <row r="156" spans="1:12">
+      <c r="D156" s="30"/>
       <c r="E156" s="6">
         <v>4</v>
       </c>
@@ -4464,8 +4604,8 @@
       <c r="K156" s="5"/>
       <c r="L156" s="8"/>
     </row>
-    <row r="157" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D157" s="32"/>
+    <row r="157" spans="1:12" ht="30">
+      <c r="D157" s="30"/>
       <c r="E157" s="6">
         <v>5</v>
       </c>
@@ -4478,12 +4618,12 @@
       <c r="K157" s="5"/>
       <c r="L157" s="8"/>
     </row>
-    <row r="158" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D158" s="32"/>
+    <row r="158" spans="1:12" ht="90">
+      <c r="D158" s="30"/>
       <c r="E158" s="6">
         <v>6</v>
       </c>
-      <c r="F158" s="17" t="s">
+      <c r="F158" s="29" t="s">
         <v>129</v>
       </c>
       <c r="G158" s="7" t="s">
@@ -4495,8 +4635,8 @@
       <c r="K158" s="5"/>
       <c r="L158" s="8"/>
     </row>
-    <row r="159" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D159" s="32"/>
+    <row r="159" spans="1:12" ht="30">
+      <c r="D159" s="30"/>
       <c r="E159" s="6">
         <v>7</v>
       </c>
@@ -4509,8 +4649,8 @@
       <c r="K159" s="5"/>
       <c r="L159" s="8"/>
     </row>
-    <row r="160" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D160" s="32"/>
+    <row r="160" spans="1:12" ht="45">
+      <c r="D160" s="30"/>
       <c r="E160" s="6">
         <v>8</v>
       </c>
@@ -4523,8 +4663,8 @@
       <c r="K160" s="5"/>
       <c r="L160" s="8"/>
     </row>
-    <row r="161" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D161" s="32"/>
+    <row r="161" spans="1:12" ht="30">
+      <c r="D161" s="30"/>
       <c r="E161" s="6">
         <v>9</v>
       </c>
@@ -4537,8 +4677,8 @@
       <c r="K161" s="5"/>
       <c r="L161" s="8"/>
     </row>
-    <row r="162" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D162" s="32"/>
+    <row r="162" spans="1:12" ht="30">
+      <c r="D162" s="30"/>
       <c r="E162" s="6">
         <v>10</v>
       </c>
@@ -4551,8 +4691,8 @@
       <c r="K162" s="5"/>
       <c r="L162" s="8"/>
     </row>
-    <row r="163" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D163" s="32"/>
+    <row r="163" spans="1:12" ht="45">
+      <c r="D163" s="30"/>
       <c r="E163" s="6">
         <v>11</v>
       </c>
@@ -4560,20 +4700,20 @@
         <v>139</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>127</v>
+        <v>435</v>
       </c>
       <c r="K163" s="5"/>
       <c r="L163" s="8"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12">
       <c r="K164" s="5"/>
       <c r="L164" s="8"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12">
       <c r="K165" s="5"/>
       <c r="L165" s="8"/>
     </row>
-    <row r="166" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="45">
       <c r="A166" s="7" t="s">
         <v>34</v>
       </c>
@@ -4583,7 +4723,7 @@
       <c r="C166" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D166" s="32" t="s">
+      <c r="D166" s="30" t="s">
         <v>387</v>
       </c>
       <c r="E166" s="6">
@@ -4601,8 +4741,8 @@
       <c r="K166" s="5"/>
       <c r="L166" s="8"/>
     </row>
-    <row r="167" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D167" s="32"/>
+    <row r="167" spans="1:12" ht="30">
+      <c r="D167" s="30"/>
       <c r="E167" s="6">
         <v>2</v>
       </c>
@@ -4618,8 +4758,8 @@
       <c r="K167" s="5"/>
       <c r="L167" s="8"/>
     </row>
-    <row r="168" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D168" s="32"/>
+    <row r="168" spans="1:12" ht="30">
+      <c r="D168" s="30"/>
       <c r="E168" s="6">
         <v>3</v>
       </c>
@@ -4632,8 +4772,8 @@
       <c r="K168" s="5"/>
       <c r="L168" s="8"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D169" s="32"/>
+    <row r="169" spans="1:12">
+      <c r="D169" s="30"/>
       <c r="E169" s="6">
         <v>4</v>
       </c>
@@ -4646,8 +4786,8 @@
       <c r="K169" s="5"/>
       <c r="L169" s="8"/>
     </row>
-    <row r="170" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D170" s="32"/>
+    <row r="170" spans="1:12" ht="30">
+      <c r="D170" s="30"/>
       <c r="E170" s="6">
         <v>5</v>
       </c>
@@ -4660,8 +4800,8 @@
       <c r="K170" s="5"/>
       <c r="L170" s="8"/>
     </row>
-    <row r="171" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D171" s="32"/>
+    <row r="171" spans="1:12" ht="90">
+      <c r="D171" s="30"/>
       <c r="E171" s="6">
         <v>6</v>
       </c>
@@ -4677,8 +4817,8 @@
       <c r="K171" s="5"/>
       <c r="L171" s="8"/>
     </row>
-    <row r="172" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D172" s="32"/>
+    <row r="172" spans="1:12" ht="30">
+      <c r="D172" s="30"/>
       <c r="E172" s="6">
         <v>7</v>
       </c>
@@ -4691,8 +4831,8 @@
       <c r="K172" s="5"/>
       <c r="L172" s="8"/>
     </row>
-    <row r="173" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D173" s="32"/>
+    <row r="173" spans="1:12" ht="45">
+      <c r="D173" s="30"/>
       <c r="E173" s="6">
         <v>8</v>
       </c>
@@ -4705,8 +4845,8 @@
       <c r="K173" s="5"/>
       <c r="L173" s="8"/>
     </row>
-    <row r="174" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D174" s="32"/>
+    <row r="174" spans="1:12" ht="30">
+      <c r="D174" s="30"/>
       <c r="E174" s="6">
         <v>9</v>
       </c>
@@ -4719,8 +4859,8 @@
       <c r="K174" s="5"/>
       <c r="L174" s="8"/>
     </row>
-    <row r="175" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D175" s="32"/>
+    <row r="175" spans="1:12" ht="30">
+      <c r="D175" s="30"/>
       <c r="E175" s="6">
         <v>10</v>
       </c>
@@ -4733,8 +4873,8 @@
       <c r="K175" s="5"/>
       <c r="L175" s="8"/>
     </row>
-    <row r="176" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D176" s="32"/>
+    <row r="176" spans="1:12" ht="30">
+      <c r="D176" s="30"/>
       <c r="E176" s="6">
         <v>11</v>
       </c>
@@ -4747,8 +4887,8 @@
       <c r="K176" s="5"/>
       <c r="L176" s="8"/>
     </row>
-    <row r="177" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D177" s="32"/>
+    <row r="177" spans="1:12" ht="60">
+      <c r="D177" s="30"/>
       <c r="E177" s="6">
         <v>12</v>
       </c>
@@ -4761,15 +4901,15 @@
       <c r="K177" s="5"/>
       <c r="L177" s="8"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12">
       <c r="K178" s="5"/>
       <c r="L178" s="8"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12">
       <c r="K179" s="5"/>
       <c r="L179" s="8"/>
     </row>
-    <row r="180" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="45">
       <c r="A180" s="7" t="s">
         <v>35</v>
       </c>
@@ -4779,7 +4919,7 @@
       <c r="C180" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D180" s="32" t="s">
+      <c r="D180" s="30" t="s">
         <v>388</v>
       </c>
       <c r="E180" s="6">
@@ -4797,8 +4937,8 @@
       <c r="K180" s="5"/>
       <c r="L180" s="8"/>
     </row>
-    <row r="181" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D181" s="32"/>
+    <row r="181" spans="1:12" ht="30">
+      <c r="D181" s="30"/>
       <c r="E181" s="6">
         <v>2</v>
       </c>
@@ -4814,8 +4954,8 @@
       <c r="K181" s="5"/>
       <c r="L181" s="8"/>
     </row>
-    <row r="182" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D182" s="32"/>
+    <row r="182" spans="1:12" ht="30">
+      <c r="D182" s="30"/>
       <c r="E182" s="6">
         <v>3</v>
       </c>
@@ -4828,8 +4968,8 @@
       <c r="K182" s="5"/>
       <c r="L182" s="8"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D183" s="32"/>
+    <row r="183" spans="1:12">
+      <c r="D183" s="30"/>
       <c r="E183" s="6">
         <v>4</v>
       </c>
@@ -4842,8 +4982,8 @@
       <c r="K183" s="5"/>
       <c r="L183" s="8"/>
     </row>
-    <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D184" s="32"/>
+    <row r="184" spans="1:12" ht="30">
+      <c r="D184" s="30"/>
       <c r="E184" s="6">
         <v>5</v>
       </c>
@@ -4856,8 +4996,8 @@
       <c r="K184" s="5"/>
       <c r="L184" s="8"/>
     </row>
-    <row r="185" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D185" s="32"/>
+    <row r="185" spans="1:12" ht="90">
+      <c r="D185" s="30"/>
       <c r="E185" s="6">
         <v>6</v>
       </c>
@@ -4873,8 +5013,8 @@
       <c r="K185" s="5"/>
       <c r="L185" s="8"/>
     </row>
-    <row r="186" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D186" s="32"/>
+    <row r="186" spans="1:12" ht="30">
+      <c r="D186" s="30"/>
       <c r="E186" s="6">
         <v>7</v>
       </c>
@@ -4887,8 +5027,8 @@
       <c r="K186" s="5"/>
       <c r="L186" s="8"/>
     </row>
-    <row r="187" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D187" s="32"/>
+    <row r="187" spans="1:12" ht="45">
+      <c r="D187" s="30"/>
       <c r="E187" s="6">
         <v>8</v>
       </c>
@@ -4901,8 +5041,8 @@
       <c r="K187" s="5"/>
       <c r="L187" s="8"/>
     </row>
-    <row r="188" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D188" s="32"/>
+    <row r="188" spans="1:12" ht="30">
+      <c r="D188" s="30"/>
       <c r="E188" s="6">
         <v>9</v>
       </c>
@@ -4915,8 +5055,8 @@
       <c r="K188" s="5"/>
       <c r="L188" s="8"/>
     </row>
-    <row r="189" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D189" s="32"/>
+    <row r="189" spans="1:12" ht="30">
+      <c r="D189" s="30"/>
       <c r="E189" s="6">
         <v>10</v>
       </c>
@@ -4929,8 +5069,8 @@
       <c r="K189" s="5"/>
       <c r="L189" s="8"/>
     </row>
-    <row r="190" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D190" s="32"/>
+    <row r="190" spans="1:12" ht="30">
+      <c r="D190" s="30"/>
       <c r="E190" s="6">
         <v>11</v>
       </c>
@@ -4943,8 +5083,8 @@
       <c r="K190" s="5"/>
       <c r="L190" s="8"/>
     </row>
-    <row r="191" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D191" s="32"/>
+    <row r="191" spans="1:12" ht="45">
+      <c r="D191" s="30"/>
       <c r="E191" s="6">
         <v>12</v>
       </c>
@@ -4957,15 +5097,15 @@
       <c r="K191" s="5"/>
       <c r="L191" s="8"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12">
       <c r="K192" s="5"/>
       <c r="L192" s="8"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12">
       <c r="K193" s="5"/>
       <c r="L193" s="8"/>
     </row>
-    <row r="194" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="45">
       <c r="A194" s="7" t="s">
         <v>36</v>
       </c>
@@ -4975,7 +5115,7 @@
       <c r="C194" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D194" s="32" t="s">
+      <c r="D194" s="30" t="s">
         <v>389</v>
       </c>
       <c r="E194" s="6">
@@ -4993,8 +5133,8 @@
       <c r="K194" s="5"/>
       <c r="L194" s="8"/>
     </row>
-    <row r="195" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D195" s="32"/>
+    <row r="195" spans="1:12" ht="30">
+      <c r="D195" s="30"/>
       <c r="E195" s="6">
         <v>2</v>
       </c>
@@ -5010,8 +5150,8 @@
       <c r="K195" s="5"/>
       <c r="L195" s="8"/>
     </row>
-    <row r="196" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D196" s="32"/>
+    <row r="196" spans="1:12" ht="30">
+      <c r="D196" s="30"/>
       <c r="E196" s="6">
         <v>3</v>
       </c>
@@ -5024,8 +5164,8 @@
       <c r="K196" s="5"/>
       <c r="L196" s="8"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D197" s="32"/>
+    <row r="197" spans="1:12">
+      <c r="D197" s="30"/>
       <c r="E197" s="6">
         <v>4</v>
       </c>
@@ -5038,8 +5178,8 @@
       <c r="K197" s="5"/>
       <c r="L197" s="8"/>
     </row>
-    <row r="198" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D198" s="32"/>
+    <row r="198" spans="1:12" ht="30">
+      <c r="D198" s="30"/>
       <c r="E198" s="6">
         <v>5</v>
       </c>
@@ -5052,8 +5192,8 @@
       <c r="K198" s="5"/>
       <c r="L198" s="8"/>
     </row>
-    <row r="199" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D199" s="32"/>
+    <row r="199" spans="1:12" ht="90">
+      <c r="D199" s="30"/>
       <c r="E199" s="6">
         <v>6</v>
       </c>
@@ -5069,8 +5209,8 @@
       <c r="K199" s="5"/>
       <c r="L199" s="8"/>
     </row>
-    <row r="200" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D200" s="32"/>
+    <row r="200" spans="1:12" ht="30">
+      <c r="D200" s="30"/>
       <c r="E200" s="6">
         <v>7</v>
       </c>
@@ -5083,8 +5223,8 @@
       <c r="K200" s="5"/>
       <c r="L200" s="8"/>
     </row>
-    <row r="201" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D201" s="32"/>
+    <row r="201" spans="1:12" ht="45">
+      <c r="D201" s="30"/>
       <c r="E201" s="6">
         <v>8</v>
       </c>
@@ -5097,8 +5237,8 @@
       <c r="K201" s="5"/>
       <c r="L201" s="8"/>
     </row>
-    <row r="202" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D202" s="32"/>
+    <row r="202" spans="1:12" ht="30">
+      <c r="D202" s="30"/>
       <c r="E202" s="6">
         <v>9</v>
       </c>
@@ -5111,8 +5251,8 @@
       <c r="K202" s="5"/>
       <c r="L202" s="8"/>
     </row>
-    <row r="203" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D203" s="32"/>
+    <row r="203" spans="1:12" ht="30">
+      <c r="D203" s="30"/>
       <c r="E203" s="6">
         <v>10</v>
       </c>
@@ -5125,8 +5265,8 @@
       <c r="K203" s="5"/>
       <c r="L203" s="8"/>
     </row>
-    <row r="204" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D204" s="32"/>
+    <row r="204" spans="1:12">
+      <c r="D204" s="30"/>
       <c r="E204" s="6">
         <v>11</v>
       </c>
@@ -5134,21 +5274,21 @@
         <v>139</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>113</v>
+        <v>434</v>
       </c>
       <c r="J204" s="7"/>
       <c r="K204" s="5"/>
       <c r="L204" s="8"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12">
       <c r="K205" s="5"/>
       <c r="L205" s="8"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12">
       <c r="K206" s="5"/>
       <c r="L206" s="8"/>
     </row>
-    <row r="207" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" ht="45">
       <c r="A207" s="7" t="s">
         <v>37</v>
       </c>
@@ -5158,7 +5298,7 @@
       <c r="C207" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D207" s="32" t="s">
+      <c r="D207" s="30" t="s">
         <v>390</v>
       </c>
       <c r="E207" s="6">
@@ -5176,8 +5316,8 @@
       <c r="K207" s="5"/>
       <c r="L207" s="8"/>
     </row>
-    <row r="208" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D208" s="32"/>
+    <row r="208" spans="1:12" ht="30">
+      <c r="D208" s="30"/>
       <c r="E208" s="6">
         <v>2</v>
       </c>
@@ -5193,8 +5333,8 @@
       <c r="K208" s="5"/>
       <c r="L208" s="8"/>
     </row>
-    <row r="209" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D209" s="32"/>
+    <row r="209" spans="1:12" ht="30">
+      <c r="D209" s="30"/>
       <c r="E209" s="6">
         <v>3</v>
       </c>
@@ -5207,8 +5347,8 @@
       <c r="K209" s="5"/>
       <c r="L209" s="8"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D210" s="32"/>
+    <row r="210" spans="1:12">
+      <c r="D210" s="30"/>
       <c r="E210" s="6">
         <v>4</v>
       </c>
@@ -5221,8 +5361,8 @@
       <c r="K210" s="5"/>
       <c r="L210" s="8"/>
     </row>
-    <row r="211" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D211" s="32"/>
+    <row r="211" spans="1:12" ht="30">
+      <c r="D211" s="30"/>
       <c r="E211" s="6">
         <v>5</v>
       </c>
@@ -5235,8 +5375,8 @@
       <c r="K211" s="5"/>
       <c r="L211" s="8"/>
     </row>
-    <row r="212" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D212" s="32"/>
+    <row r="212" spans="1:12" ht="90">
+      <c r="D212" s="30"/>
       <c r="E212" s="6">
         <v>6</v>
       </c>
@@ -5252,8 +5392,8 @@
       <c r="K212" s="5"/>
       <c r="L212" s="8"/>
     </row>
-    <row r="213" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D213" s="32"/>
+    <row r="213" spans="1:12" ht="30">
+      <c r="D213" s="30"/>
       <c r="E213" s="6">
         <v>7</v>
       </c>
@@ -5266,8 +5406,8 @@
       <c r="K213" s="5"/>
       <c r="L213" s="8"/>
     </row>
-    <row r="214" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D214" s="32"/>
+    <row r="214" spans="1:12" ht="45">
+      <c r="D214" s="30"/>
       <c r="E214" s="6">
         <v>8</v>
       </c>
@@ -5280,8 +5420,8 @@
       <c r="K214" s="5"/>
       <c r="L214" s="8"/>
     </row>
-    <row r="215" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D215" s="32"/>
+    <row r="215" spans="1:12" ht="30">
+      <c r="D215" s="30"/>
       <c r="E215" s="6">
         <v>9</v>
       </c>
@@ -5294,8 +5434,8 @@
       <c r="K215" s="5"/>
       <c r="L215" s="8"/>
     </row>
-    <row r="216" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D216" s="32"/>
+    <row r="216" spans="1:12" ht="30">
+      <c r="D216" s="30"/>
       <c r="E216" s="6">
         <v>10</v>
       </c>
@@ -5308,8 +5448,8 @@
       <c r="K216" s="5"/>
       <c r="L216" s="8"/>
     </row>
-    <row r="217" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D217" s="32"/>
+    <row r="217" spans="1:12" ht="30">
+      <c r="D217" s="30"/>
       <c r="E217" s="6">
         <v>11</v>
       </c>
@@ -5322,8 +5462,8 @@
       <c r="K217" s="5"/>
       <c r="L217" s="8"/>
     </row>
-    <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D218" s="32"/>
+    <row r="218" spans="1:12" ht="30">
+      <c r="D218" s="30"/>
       <c r="E218" s="6">
         <v>12</v>
       </c>
@@ -5336,8 +5476,8 @@
       <c r="K218" s="5"/>
       <c r="L218" s="8"/>
     </row>
-    <row r="219" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D219" s="32"/>
+    <row r="219" spans="1:12" ht="60">
+      <c r="D219" s="30"/>
       <c r="E219" s="6">
         <v>13</v>
       </c>
@@ -5350,15 +5490,15 @@
       <c r="K219" s="5"/>
       <c r="L219" s="8"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12">
       <c r="K220" s="5"/>
       <c r="L220" s="8"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12">
       <c r="K221" s="5"/>
       <c r="L221" s="8"/>
     </row>
-    <row r="222" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" ht="45">
       <c r="A222" s="7" t="s">
         <v>38</v>
       </c>
@@ -5368,7 +5508,7 @@
       <c r="C222" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D222" s="32" t="s">
+      <c r="D222" s="30" t="s">
         <v>391</v>
       </c>
       <c r="E222" s="6">
@@ -5386,8 +5526,8 @@
       <c r="K222" s="5"/>
       <c r="L222" s="8"/>
     </row>
-    <row r="223" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D223" s="32"/>
+    <row r="223" spans="1:12" ht="30">
+      <c r="D223" s="30"/>
       <c r="E223" s="6">
         <v>2</v>
       </c>
@@ -5403,8 +5543,8 @@
       <c r="K223" s="5"/>
       <c r="L223" s="8"/>
     </row>
-    <row r="224" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D224" s="32"/>
+    <row r="224" spans="1:12" ht="30">
+      <c r="D224" s="30"/>
       <c r="E224" s="6">
         <v>3</v>
       </c>
@@ -5417,8 +5557,8 @@
       <c r="K224" s="5"/>
       <c r="L224" s="8"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D225" s="32"/>
+    <row r="225" spans="1:12">
+      <c r="D225" s="30"/>
       <c r="E225" s="6">
         <v>4</v>
       </c>
@@ -5431,8 +5571,8 @@
       <c r="K225" s="5"/>
       <c r="L225" s="8"/>
     </row>
-    <row r="226" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D226" s="32"/>
+    <row r="226" spans="1:12" ht="30">
+      <c r="D226" s="30"/>
       <c r="E226" s="6">
         <v>5</v>
       </c>
@@ -5445,8 +5585,8 @@
       <c r="K226" s="5"/>
       <c r="L226" s="8"/>
     </row>
-    <row r="227" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D227" s="32"/>
+    <row r="227" spans="1:12" ht="90">
+      <c r="D227" s="30"/>
       <c r="E227" s="6">
         <v>6</v>
       </c>
@@ -5462,8 +5602,8 @@
       <c r="K227" s="5"/>
       <c r="L227" s="8"/>
     </row>
-    <row r="228" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D228" s="32"/>
+    <row r="228" spans="1:12" ht="30">
+      <c r="D228" s="30"/>
       <c r="E228" s="6">
         <v>7</v>
       </c>
@@ -5476,8 +5616,8 @@
       <c r="K228" s="5"/>
       <c r="L228" s="8"/>
     </row>
-    <row r="229" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D229" s="32"/>
+    <row r="229" spans="1:12" ht="45">
+      <c r="D229" s="30"/>
       <c r="E229" s="6">
         <v>8</v>
       </c>
@@ -5490,8 +5630,8 @@
       <c r="K229" s="5"/>
       <c r="L229" s="8"/>
     </row>
-    <row r="230" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D230" s="32"/>
+    <row r="230" spans="1:12" ht="30">
+      <c r="D230" s="30"/>
       <c r="E230" s="6">
         <v>9</v>
       </c>
@@ -5504,8 +5644,8 @@
       <c r="K230" s="5"/>
       <c r="L230" s="8"/>
     </row>
-    <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D231" s="32"/>
+    <row r="231" spans="1:12" ht="30">
+      <c r="D231" s="30"/>
       <c r="E231" s="6">
         <v>10</v>
       </c>
@@ -5518,8 +5658,8 @@
       <c r="K231" s="5"/>
       <c r="L231" s="8"/>
     </row>
-    <row r="232" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D232" s="32"/>
+    <row r="232" spans="1:12" ht="30">
+      <c r="D232" s="30"/>
       <c r="E232" s="6">
         <v>11</v>
       </c>
@@ -5532,8 +5672,8 @@
       <c r="K232" s="5"/>
       <c r="L232" s="8"/>
     </row>
-    <row r="233" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D233" s="32"/>
+    <row r="233" spans="1:12" ht="45">
+      <c r="D233" s="30"/>
       <c r="E233" s="6">
         <v>12</v>
       </c>
@@ -5546,15 +5686,15 @@
       <c r="K233" s="5"/>
       <c r="L233" s="8"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12">
       <c r="K234" s="5"/>
       <c r="L234" s="8"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12">
       <c r="K235" s="5"/>
       <c r="L235" s="8"/>
     </row>
-    <row r="236" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" ht="45">
       <c r="A236" s="7" t="s">
         <v>39</v>
       </c>
@@ -5564,7 +5704,7 @@
       <c r="C236" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D236" s="32" t="s">
+      <c r="D236" s="30" t="s">
         <v>392</v>
       </c>
       <c r="E236" s="6">
@@ -5582,8 +5722,8 @@
       <c r="K236" s="5"/>
       <c r="L236" s="8"/>
     </row>
-    <row r="237" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D237" s="32"/>
+    <row r="237" spans="1:12" ht="30">
+      <c r="D237" s="30"/>
       <c r="E237" s="6">
         <v>2</v>
       </c>
@@ -5599,8 +5739,8 @@
       <c r="K237" s="5"/>
       <c r="L237" s="8"/>
     </row>
-    <row r="238" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D238" s="32"/>
+    <row r="238" spans="1:12" ht="30">
+      <c r="D238" s="30"/>
       <c r="E238" s="6">
         <v>3</v>
       </c>
@@ -5613,8 +5753,8 @@
       <c r="K238" s="5"/>
       <c r="L238" s="8"/>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D239" s="32"/>
+    <row r="239" spans="1:12">
+      <c r="D239" s="30"/>
       <c r="E239" s="6">
         <v>4</v>
       </c>
@@ -5627,8 +5767,8 @@
       <c r="K239" s="5"/>
       <c r="L239" s="8"/>
     </row>
-    <row r="240" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D240" s="32"/>
+    <row r="240" spans="1:12" ht="30">
+      <c r="D240" s="30"/>
       <c r="E240" s="6">
         <v>5</v>
       </c>
@@ -5641,8 +5781,8 @@
       <c r="K240" s="5"/>
       <c r="L240" s="8"/>
     </row>
-    <row r="241" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D241" s="32"/>
+    <row r="241" spans="1:12" ht="90">
+      <c r="D241" s="30"/>
       <c r="E241" s="6">
         <v>6</v>
       </c>
@@ -5658,8 +5798,8 @@
       <c r="K241" s="5"/>
       <c r="L241" s="8"/>
     </row>
-    <row r="242" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D242" s="32"/>
+    <row r="242" spans="1:12" ht="30">
+      <c r="D242" s="30"/>
       <c r="E242" s="6">
         <v>7</v>
       </c>
@@ -5672,8 +5812,8 @@
       <c r="K242" s="5"/>
       <c r="L242" s="8"/>
     </row>
-    <row r="243" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D243" s="32"/>
+    <row r="243" spans="1:12" ht="45">
+      <c r="D243" s="30"/>
       <c r="E243" s="6">
         <v>8</v>
       </c>
@@ -5686,8 +5826,8 @@
       <c r="K243" s="5"/>
       <c r="L243" s="8"/>
     </row>
-    <row r="244" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D244" s="32"/>
+    <row r="244" spans="1:12" ht="30">
+      <c r="D244" s="30"/>
       <c r="E244" s="6">
         <v>9</v>
       </c>
@@ -5700,8 +5840,8 @@
       <c r="K244" s="5"/>
       <c r="L244" s="8"/>
     </row>
-    <row r="245" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D245" s="32"/>
+    <row r="245" spans="1:12" ht="30">
+      <c r="D245" s="30"/>
       <c r="E245" s="6">
         <v>10</v>
       </c>
@@ -5714,8 +5854,8 @@
       <c r="K245" s="5"/>
       <c r="L245" s="8"/>
     </row>
-    <row r="246" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D246" s="32"/>
+    <row r="246" spans="1:12" ht="30">
+      <c r="D246" s="30"/>
       <c r="E246" s="6">
         <v>11</v>
       </c>
@@ -5728,8 +5868,8 @@
       <c r="K246" s="5"/>
       <c r="L246" s="8"/>
     </row>
-    <row r="247" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D247" s="32"/>
+    <row r="247" spans="1:12" ht="45">
+      <c r="D247" s="30"/>
       <c r="E247" s="6">
         <v>12</v>
       </c>
@@ -5737,20 +5877,20 @@
         <v>139</v>
       </c>
       <c r="G247" s="7" t="s">
-        <v>127</v>
+        <v>436</v>
       </c>
       <c r="K247" s="5"/>
       <c r="L247" s="8"/>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12">
       <c r="K248" s="5"/>
       <c r="L248" s="8"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12">
       <c r="K249" s="5"/>
       <c r="L249" s="8"/>
     </row>
-    <row r="250" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" ht="45">
       <c r="A250" s="7" t="s">
         <v>40</v>
       </c>
@@ -5760,7 +5900,7 @@
       <c r="C250" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D250" s="32" t="s">
+      <c r="D250" s="30" t="s">
         <v>393</v>
       </c>
       <c r="E250" s="6">
@@ -5778,8 +5918,8 @@
       <c r="K250" s="5"/>
       <c r="L250" s="8"/>
     </row>
-    <row r="251" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D251" s="32"/>
+    <row r="251" spans="1:12" ht="30">
+      <c r="D251" s="30"/>
       <c r="E251" s="6">
         <v>2</v>
       </c>
@@ -5795,8 +5935,8 @@
       <c r="K251" s="5"/>
       <c r="L251" s="8"/>
     </row>
-    <row r="252" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D252" s="32"/>
+    <row r="252" spans="1:12" ht="30">
+      <c r="D252" s="30"/>
       <c r="E252" s="6">
         <v>3</v>
       </c>
@@ -5809,8 +5949,8 @@
       <c r="K252" s="5"/>
       <c r="L252" s="8"/>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D253" s="32"/>
+    <row r="253" spans="1:12">
+      <c r="D253" s="30"/>
       <c r="E253" s="6">
         <v>4</v>
       </c>
@@ -5823,8 +5963,8 @@
       <c r="K253" s="5"/>
       <c r="L253" s="8"/>
     </row>
-    <row r="254" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D254" s="32"/>
+    <row r="254" spans="1:12" ht="30">
+      <c r="D254" s="30"/>
       <c r="E254" s="6">
         <v>5</v>
       </c>
@@ -5837,8 +5977,8 @@
       <c r="K254" s="5"/>
       <c r="L254" s="8"/>
     </row>
-    <row r="255" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D255" s="32"/>
+    <row r="255" spans="1:12" ht="90">
+      <c r="D255" s="30"/>
       <c r="E255" s="6">
         <v>6</v>
       </c>
@@ -5854,8 +5994,8 @@
       <c r="K255" s="5"/>
       <c r="L255" s="8"/>
     </row>
-    <row r="256" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D256" s="32"/>
+    <row r="256" spans="1:12" ht="30">
+      <c r="D256" s="30"/>
       <c r="E256" s="6">
         <v>7</v>
       </c>
@@ -5868,8 +6008,8 @@
       <c r="K256" s="5"/>
       <c r="L256" s="8"/>
     </row>
-    <row r="257" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D257" s="32"/>
+    <row r="257" spans="1:12" ht="45">
+      <c r="D257" s="30"/>
       <c r="E257" s="6">
         <v>8</v>
       </c>
@@ -5882,8 +6022,8 @@
       <c r="K257" s="5"/>
       <c r="L257" s="8"/>
     </row>
-    <row r="258" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D258" s="32"/>
+    <row r="258" spans="1:12" ht="30">
+      <c r="D258" s="30"/>
       <c r="E258" s="6">
         <v>9</v>
       </c>
@@ -5896,8 +6036,8 @@
       <c r="K258" s="5"/>
       <c r="L258" s="8"/>
     </row>
-    <row r="259" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D259" s="32"/>
+    <row r="259" spans="1:12" ht="30">
+      <c r="D259" s="30"/>
       <c r="E259" s="6">
         <v>10</v>
       </c>
@@ -5910,8 +6050,8 @@
       <c r="K259" s="5"/>
       <c r="L259" s="8"/>
     </row>
-    <row r="260" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D260" s="32"/>
+    <row r="260" spans="1:12" ht="30">
+      <c r="D260" s="30"/>
       <c r="E260" s="6">
         <v>11</v>
       </c>
@@ -5924,8 +6064,8 @@
       <c r="K260" s="5"/>
       <c r="L260" s="8"/>
     </row>
-    <row r="261" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D261" s="32"/>
+    <row r="261" spans="1:12" ht="60">
+      <c r="D261" s="30"/>
       <c r="E261" s="6">
         <v>12</v>
       </c>
@@ -5938,15 +6078,15 @@
       <c r="K261" s="5"/>
       <c r="L261" s="8"/>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12">
       <c r="K262" s="5"/>
       <c r="L262" s="8"/>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12">
       <c r="K263" s="5"/>
       <c r="L263" s="8"/>
     </row>
-    <row r="264" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" ht="45">
       <c r="A264" s="7" t="s">
         <v>41</v>
       </c>
@@ -5956,7 +6096,7 @@
       <c r="C264" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D264" s="32" t="s">
+      <c r="D264" s="30" t="s">
         <v>394</v>
       </c>
       <c r="E264" s="6">
@@ -5974,8 +6114,8 @@
       <c r="K264" s="5"/>
       <c r="L264" s="8"/>
     </row>
-    <row r="265" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D265" s="32"/>
+    <row r="265" spans="1:12" ht="30">
+      <c r="D265" s="30"/>
       <c r="E265" s="6">
         <v>2</v>
       </c>
@@ -5991,8 +6131,8 @@
       <c r="K265" s="5"/>
       <c r="L265" s="8"/>
     </row>
-    <row r="266" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D266" s="32"/>
+    <row r="266" spans="1:12" ht="30">
+      <c r="D266" s="30"/>
       <c r="E266" s="6">
         <v>3</v>
       </c>
@@ -6006,8 +6146,8 @@
       <c r="K266" s="5"/>
       <c r="L266" s="8"/>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D267" s="32"/>
+    <row r="267" spans="1:12">
+      <c r="D267" s="30"/>
       <c r="E267" s="6">
         <v>4</v>
       </c>
@@ -6021,8 +6161,8 @@
       <c r="K267" s="5"/>
       <c r="L267" s="8"/>
     </row>
-    <row r="268" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D268" s="32"/>
+    <row r="268" spans="1:12" ht="30">
+      <c r="D268" s="30"/>
       <c r="E268" s="6">
         <v>5</v>
       </c>
@@ -6035,8 +6175,8 @@
       <c r="K268" s="5"/>
       <c r="L268" s="8"/>
     </row>
-    <row r="269" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D269" s="32"/>
+    <row r="269" spans="1:12" ht="90">
+      <c r="D269" s="30"/>
       <c r="E269" s="6">
         <v>6</v>
       </c>
@@ -6052,8 +6192,8 @@
       <c r="K269" s="5"/>
       <c r="L269" s="8"/>
     </row>
-    <row r="270" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D270" s="32"/>
+    <row r="270" spans="1:12" ht="30">
+      <c r="D270" s="30"/>
       <c r="E270" s="6">
         <v>7</v>
       </c>
@@ -6066,8 +6206,8 @@
       <c r="K270" s="5"/>
       <c r="L270" s="8"/>
     </row>
-    <row r="271" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D271" s="32"/>
+    <row r="271" spans="1:12" ht="45">
+      <c r="D271" s="30"/>
       <c r="E271" s="6">
         <v>8</v>
       </c>
@@ -6080,8 +6220,8 @@
       <c r="K271" s="5"/>
       <c r="L271" s="8"/>
     </row>
-    <row r="272" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D272" s="32"/>
+    <row r="272" spans="1:12" ht="30">
+      <c r="D272" s="30"/>
       <c r="E272" s="6">
         <v>9</v>
       </c>
@@ -6094,8 +6234,8 @@
       <c r="K272" s="5"/>
       <c r="L272" s="8"/>
     </row>
-    <row r="273" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D273" s="32"/>
+    <row r="273" spans="1:12" ht="30">
+      <c r="D273" s="30"/>
       <c r="E273" s="6">
         <v>10</v>
       </c>
@@ -6108,8 +6248,8 @@
       <c r="K273" s="5"/>
       <c r="L273" s="8"/>
     </row>
-    <row r="274" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D274" s="32"/>
+    <row r="274" spans="1:12" ht="30">
+      <c r="D274" s="30"/>
       <c r="E274" s="6">
         <v>11</v>
       </c>
@@ -6122,8 +6262,8 @@
       <c r="K274" s="5"/>
       <c r="L274" s="8"/>
     </row>
-    <row r="275" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D275" s="32"/>
+    <row r="275" spans="1:12" ht="60">
+      <c r="D275" s="30"/>
       <c r="E275" s="6">
         <v>12</v>
       </c>
@@ -6136,15 +6276,15 @@
       <c r="K275" s="5"/>
       <c r="L275" s="8"/>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12">
       <c r="K276" s="5"/>
       <c r="L276" s="8"/>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12">
       <c r="K277" s="5"/>
       <c r="L277" s="8"/>
     </row>
-    <row r="278" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" ht="45">
       <c r="A278" s="7" t="s">
         <v>42</v>
       </c>
@@ -6154,7 +6294,7 @@
       <c r="C278" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D278" s="32" t="s">
+      <c r="D278" s="30" t="s">
         <v>395</v>
       </c>
       <c r="E278" s="6">
@@ -6172,8 +6312,8 @@
       <c r="K278" s="5"/>
       <c r="L278" s="8"/>
     </row>
-    <row r="279" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D279" s="32"/>
+    <row r="279" spans="1:12" ht="30">
+      <c r="D279" s="30"/>
       <c r="E279" s="6">
         <v>2</v>
       </c>
@@ -6187,17 +6327,17 @@
       <c r="K279" s="5"/>
       <c r="L279" s="8"/>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12">
       <c r="I280" s="18"/>
       <c r="K280" s="5"/>
       <c r="L280" s="8"/>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12">
       <c r="I281" s="18"/>
       <c r="K281" s="5"/>
       <c r="L281" s="8"/>
     </row>
-    <row r="282" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" ht="45">
       <c r="A282" s="7" t="s">
         <v>43</v>
       </c>
@@ -6207,7 +6347,7 @@
       <c r="C282" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D282" s="32" t="s">
+      <c r="D282" s="30" t="s">
         <v>396</v>
       </c>
       <c r="E282" s="6">
@@ -6225,8 +6365,8 @@
       <c r="K282" s="5"/>
       <c r="L282" s="8"/>
     </row>
-    <row r="283" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D283" s="32"/>
+    <row r="283" spans="1:12" ht="30">
+      <c r="D283" s="30"/>
       <c r="E283" s="6">
         <v>2</v>
       </c>
@@ -6240,8 +6380,8 @@
       <c r="K283" s="5"/>
       <c r="L283" s="8"/>
     </row>
-    <row r="284" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D284" s="32"/>
+    <row r="284" spans="1:12" ht="30">
+      <c r="D284" s="30"/>
       <c r="E284" s="6">
         <v>3</v>
       </c>
@@ -6257,7 +6397,7 @@
       <c r="K284" s="5"/>
       <c r="L284" s="8"/>
     </row>
-    <row r="285" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" ht="30">
       <c r="E285" s="6">
         <v>4</v>
       </c>
@@ -6270,11 +6410,11 @@
       <c r="K285" s="5"/>
       <c r="L285" s="8"/>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12">
       <c r="K286" s="5"/>
       <c r="L286" s="8"/>
     </row>
-    <row r="287" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" ht="45">
       <c r="A287" s="7" t="s">
         <v>44</v>
       </c>
@@ -6284,7 +6424,7 @@
       <c r="C287" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D287" s="32" t="s">
+      <c r="D287" s="30" t="s">
         <v>397</v>
       </c>
       <c r="E287" s="6">
@@ -6302,8 +6442,8 @@
       <c r="K287" s="5"/>
       <c r="L287" s="8"/>
     </row>
-    <row r="288" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D288" s="32"/>
+    <row r="288" spans="1:12" ht="30">
+      <c r="D288" s="30"/>
       <c r="E288" s="6">
         <v>2</v>
       </c>
@@ -6317,8 +6457,8 @@
       <c r="K288" s="5"/>
       <c r="L288" s="8"/>
     </row>
-    <row r="289" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D289" s="32"/>
+    <row r="289" spans="1:12" ht="30">
+      <c r="D289" s="30"/>
       <c r="E289" s="6">
         <v>3</v>
       </c>
@@ -6334,8 +6474,8 @@
       <c r="K289" s="5"/>
       <c r="L289" s="8"/>
     </row>
-    <row r="290" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D290" s="32"/>
+    <row r="290" spans="1:12" ht="30">
+      <c r="D290" s="30"/>
       <c r="E290" s="6">
         <v>4</v>
       </c>
@@ -6349,8 +6489,8 @@
       <c r="K290" s="5"/>
       <c r="L290" s="8"/>
     </row>
-    <row r="291" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D291" s="32"/>
+    <row r="291" spans="1:12" ht="30">
+      <c r="D291" s="30"/>
       <c r="E291" s="6">
         <v>4</v>
       </c>
@@ -6363,15 +6503,15 @@
       <c r="K291" s="5"/>
       <c r="L291" s="8"/>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12">
       <c r="K292" s="5"/>
       <c r="L292" s="8"/>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12">
       <c r="K293" s="5"/>
       <c r="L293" s="8"/>
     </row>
-    <row r="294" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" ht="45">
       <c r="A294" s="7" t="s">
         <v>45</v>
       </c>
@@ -6381,7 +6521,7 @@
       <c r="C294" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D294" s="32" t="s">
+      <c r="D294" s="30" t="s">
         <v>398</v>
       </c>
       <c r="E294" s="6">
@@ -6399,8 +6539,8 @@
       <c r="K294" s="5"/>
       <c r="L294" s="8"/>
     </row>
-    <row r="295" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D295" s="32"/>
+    <row r="295" spans="1:12" ht="30">
+      <c r="D295" s="30"/>
       <c r="E295" s="6">
         <v>2</v>
       </c>
@@ -6414,8 +6554,8 @@
       <c r="K295" s="5"/>
       <c r="L295" s="8"/>
     </row>
-    <row r="296" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D296" s="32"/>
+    <row r="296" spans="1:12" ht="30">
+      <c r="D296" s="30"/>
       <c r="E296" s="6">
         <v>3</v>
       </c>
@@ -6428,8 +6568,8 @@
       <c r="K296" s="5"/>
       <c r="L296" s="8"/>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D297" s="32"/>
+    <row r="297" spans="1:12">
+      <c r="D297" s="30"/>
       <c r="E297" s="6">
         <v>4</v>
       </c>
@@ -6442,15 +6582,15 @@
       <c r="K297" s="5"/>
       <c r="L297" s="8"/>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12">
       <c r="K298" s="5"/>
       <c r="L298" s="8"/>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12">
       <c r="K299" s="5"/>
       <c r="L299" s="8"/>
     </row>
-    <row r="300" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" ht="45">
       <c r="A300" s="7" t="s">
         <v>46</v>
       </c>
@@ -6460,7 +6600,7 @@
       <c r="C300" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D300" s="32" t="s">
+      <c r="D300" s="30" t="s">
         <v>399</v>
       </c>
       <c r="E300" s="6">
@@ -6478,8 +6618,8 @@
       <c r="K300" s="5"/>
       <c r="L300" s="8"/>
     </row>
-    <row r="301" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D301" s="32"/>
+    <row r="301" spans="1:12" ht="30">
+      <c r="D301" s="30"/>
       <c r="E301" s="6">
         <v>2</v>
       </c>
@@ -6493,8 +6633,8 @@
       <c r="K301" s="5"/>
       <c r="L301" s="8"/>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D302" s="32"/>
+    <row r="302" spans="1:12">
+      <c r="D302" s="30"/>
       <c r="E302" s="6">
         <v>3</v>
       </c>
@@ -6507,15 +6647,15 @@
       <c r="K302" s="5"/>
       <c r="L302" s="8"/>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12">
       <c r="K303" s="5"/>
       <c r="L303" s="8"/>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12">
       <c r="K304" s="5"/>
       <c r="L304" s="8"/>
     </row>
-    <row r="305" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" ht="45">
       <c r="A305" s="7" t="s">
         <v>47</v>
       </c>
@@ -6525,7 +6665,7 @@
       <c r="C305" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D305" s="32" t="s">
+      <c r="D305" s="30" t="s">
         <v>400</v>
       </c>
       <c r="E305" s="6">
@@ -6543,8 +6683,8 @@
       <c r="K305" s="5"/>
       <c r="L305" s="8"/>
     </row>
-    <row r="306" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D306" s="32"/>
+    <row r="306" spans="1:12" ht="30">
+      <c r="D306" s="30"/>
       <c r="E306" s="6">
         <v>2</v>
       </c>
@@ -6557,15 +6697,15 @@
       <c r="K306" s="5"/>
       <c r="L306" s="8"/>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12">
       <c r="K307" s="5"/>
       <c r="L307" s="8"/>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12">
       <c r="K308" s="5"/>
       <c r="L308" s="8"/>
     </row>
-    <row r="309" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" ht="45">
       <c r="A309" s="7" t="s">
         <v>48</v>
       </c>
@@ -6575,7 +6715,7 @@
       <c r="C309" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D309" s="32" t="s">
+      <c r="D309" s="30" t="s">
         <v>401</v>
       </c>
       <c r="E309" s="6">
@@ -6593,8 +6733,8 @@
       <c r="K309" s="5"/>
       <c r="L309" s="8"/>
     </row>
-    <row r="310" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D310" s="32"/>
+    <row r="310" spans="1:12" ht="30">
+      <c r="D310" s="30"/>
       <c r="E310" s="6">
         <v>2</v>
       </c>
@@ -6610,8 +6750,8 @@
       <c r="K310" s="5"/>
       <c r="L310" s="8"/>
     </row>
-    <row r="311" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D311" s="32"/>
+    <row r="311" spans="1:12" ht="45">
+      <c r="D311" s="30"/>
       <c r="E311" s="6">
         <v>3</v>
       </c>
@@ -6621,18 +6761,21 @@
       <c r="G311" s="7" t="s">
         <v>176</v>
       </c>
+      <c r="J311" s="6" t="s">
+        <v>437</v>
+      </c>
       <c r="K311" s="5"/>
       <c r="L311" s="8"/>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12">
       <c r="K312" s="5"/>
       <c r="L312" s="8"/>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12">
       <c r="K313" s="5"/>
       <c r="L313" s="8"/>
     </row>
-    <row r="314" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" ht="45">
       <c r="A314" s="7" t="s">
         <v>49</v>
       </c>
@@ -6642,7 +6785,7 @@
       <c r="C314" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D314" s="32" t="s">
+      <c r="D314" s="30" t="s">
         <v>402</v>
       </c>
       <c r="E314" s="6">
@@ -6660,8 +6803,8 @@
       <c r="K314" s="5"/>
       <c r="L314" s="8"/>
     </row>
-    <row r="315" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D315" s="32"/>
+    <row r="315" spans="1:12" ht="30">
+      <c r="D315" s="30"/>
       <c r="E315" s="6">
         <v>2</v>
       </c>
@@ -6674,8 +6817,8 @@
       <c r="K315" s="5"/>
       <c r="L315" s="8"/>
     </row>
-    <row r="316" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D316" s="32"/>
+    <row r="316" spans="1:12" ht="90">
+      <c r="D316" s="30"/>
       <c r="E316" s="6">
         <v>3</v>
       </c>
@@ -6691,8 +6834,8 @@
       <c r="K316" s="5"/>
       <c r="L316" s="8"/>
     </row>
-    <row r="317" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D317" s="32"/>
+    <row r="317" spans="1:12" ht="30">
+      <c r="D317" s="30"/>
       <c r="E317" s="6">
         <v>4</v>
       </c>
@@ -6705,8 +6848,8 @@
       <c r="K317" s="5"/>
       <c r="L317" s="8"/>
     </row>
-    <row r="318" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D318" s="32"/>
+    <row r="318" spans="1:12" ht="45">
+      <c r="D318" s="30"/>
       <c r="E318" s="6">
         <v>5</v>
       </c>
@@ -6719,7 +6862,7 @@
       <c r="K318" s="5"/>
       <c r="L318" s="8"/>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12">
       <c r="E319" s="6">
         <v>6</v>
       </c>
@@ -6732,15 +6875,15 @@
       <c r="K319" s="5"/>
       <c r="L319" s="8"/>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12">
       <c r="K320" s="5"/>
       <c r="L320" s="8"/>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12">
       <c r="K321" s="5"/>
       <c r="L321" s="8"/>
     </row>
-    <row r="322" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" ht="45">
       <c r="A322" s="7" t="s">
         <v>50</v>
       </c>
@@ -6750,7 +6893,7 @@
       <c r="C322" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D322" s="32" t="s">
+      <c r="D322" s="30" t="s">
         <v>403</v>
       </c>
       <c r="E322" s="6">
@@ -6768,13 +6911,13 @@
       <c r="K322" s="5"/>
       <c r="L322" s="8"/>
     </row>
-    <row r="323" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D323" s="32"/>
+    <row r="323" spans="1:12" ht="30">
+      <c r="D323" s="30"/>
       <c r="E323" s="6">
         <v>2</v>
       </c>
       <c r="F323" s="7" t="s">
-        <v>177</v>
+        <v>438</v>
       </c>
       <c r="G323" s="7" t="s">
         <v>178</v>
@@ -6782,8 +6925,8 @@
       <c r="K323" s="5"/>
       <c r="L323" s="8"/>
     </row>
-    <row r="324" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D324" s="32"/>
+    <row r="324" spans="1:12" ht="90">
+      <c r="D324" s="30"/>
       <c r="E324" s="6">
         <v>3</v>
       </c>
@@ -6799,8 +6942,8 @@
       <c r="K324" s="5"/>
       <c r="L324" s="8"/>
     </row>
-    <row r="325" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D325" s="32"/>
+    <row r="325" spans="1:12" ht="30">
+      <c r="D325" s="30"/>
       <c r="E325" s="6">
         <v>4</v>
       </c>
@@ -6813,8 +6956,8 @@
       <c r="K325" s="5"/>
       <c r="L325" s="8"/>
     </row>
-    <row r="326" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D326" s="32"/>
+    <row r="326" spans="1:12" ht="45">
+      <c r="D326" s="30"/>
       <c r="E326" s="6">
         <v>5</v>
       </c>
@@ -6827,8 +6970,8 @@
       <c r="K326" s="5"/>
       <c r="L326" s="8"/>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D327" s="32"/>
+    <row r="327" spans="1:12">
+      <c r="D327" s="30"/>
       <c r="E327" s="6">
         <v>6</v>
       </c>
@@ -6841,15 +6984,15 @@
       <c r="K327" s="5"/>
       <c r="L327" s="8"/>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12">
       <c r="K328" s="5"/>
       <c r="L328" s="8"/>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12">
       <c r="K329" s="5"/>
       <c r="L329" s="8"/>
     </row>
-    <row r="330" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" ht="30">
       <c r="A330" s="7" t="s">
         <v>51</v>
       </c>
@@ -6859,7 +7002,7 @@
       <c r="C330" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D330" s="32" t="s">
+      <c r="D330" s="30" t="s">
         <v>404</v>
       </c>
       <c r="E330" s="6">
@@ -6877,8 +7020,8 @@
       <c r="K330" s="5"/>
       <c r="L330" s="8"/>
     </row>
-    <row r="331" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D331" s="32"/>
+    <row r="331" spans="1:12" ht="30">
+      <c r="D331" s="30"/>
       <c r="E331" s="6">
         <v>2</v>
       </c>
@@ -6894,8 +7037,8 @@
       <c r="K331" s="5"/>
       <c r="L331" s="8"/>
     </row>
-    <row r="332" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D332" s="32"/>
+    <row r="332" spans="1:12" ht="30">
+      <c r="D332" s="30"/>
       <c r="E332" s="6">
         <v>3</v>
       </c>
@@ -6908,8 +7051,8 @@
       <c r="K332" s="5"/>
       <c r="L332" s="8"/>
     </row>
-    <row r="333" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D333" s="32"/>
+    <row r="333" spans="1:12" ht="30">
+      <c r="D333" s="30"/>
       <c r="E333" s="6">
         <v>4</v>
       </c>
@@ -6922,8 +7065,8 @@
       <c r="K333" s="5"/>
       <c r="L333" s="8"/>
     </row>
-    <row r="334" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D334" s="32"/>
+    <row r="334" spans="1:12" ht="45">
+      <c r="D334" s="30"/>
       <c r="E334" s="6">
         <v>5</v>
       </c>
@@ -6936,15 +7079,15 @@
       <c r="K334" s="5"/>
       <c r="L334" s="8"/>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12">
       <c r="K335" s="5"/>
       <c r="L335" s="8"/>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12">
       <c r="K336" s="5"/>
       <c r="L336" s="8"/>
     </row>
-    <row r="337" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" ht="30">
       <c r="A337" s="7" t="s">
         <v>52</v>
       </c>
@@ -6954,7 +7097,7 @@
       <c r="C337" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D337" s="32" t="s">
+      <c r="D337" s="30" t="s">
         <v>405</v>
       </c>
       <c r="E337" s="6">
@@ -6972,8 +7115,8 @@
       <c r="K337" s="5"/>
       <c r="L337" s="8"/>
     </row>
-    <row r="338" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D338" s="32"/>
+    <row r="338" spans="1:12" ht="30">
+      <c r="D338" s="30"/>
       <c r="E338" s="6">
         <v>2</v>
       </c>
@@ -6989,8 +7132,8 @@
       <c r="K338" s="5"/>
       <c r="L338" s="8"/>
     </row>
-    <row r="339" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D339" s="32"/>
+    <row r="339" spans="1:12" ht="30">
+      <c r="D339" s="30"/>
       <c r="E339" s="6">
         <v>3</v>
       </c>
@@ -7003,8 +7146,8 @@
       <c r="K339" s="5"/>
       <c r="L339" s="8"/>
     </row>
-    <row r="340" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D340" s="32"/>
+    <row r="340" spans="1:12" ht="30">
+      <c r="D340" s="30"/>
       <c r="E340" s="6">
         <v>4</v>
       </c>
@@ -7020,8 +7163,8 @@
       <c r="K340" s="5"/>
       <c r="L340" s="8"/>
     </row>
-    <row r="341" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D341" s="32"/>
+    <row r="341" spans="1:12" ht="30">
+      <c r="D341" s="30"/>
       <c r="E341" s="6">
         <v>5</v>
       </c>
@@ -7034,15 +7177,15 @@
       <c r="K341" s="5"/>
       <c r="L341" s="8"/>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12">
       <c r="K342" s="5"/>
       <c r="L342" s="8"/>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12">
       <c r="K343" s="5"/>
       <c r="L343" s="8"/>
     </row>
-    <row r="344" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" ht="30">
       <c r="A344" s="7" t="s">
         <v>53</v>
       </c>
@@ -7052,7 +7195,7 @@
       <c r="C344" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D344" s="32" t="s">
+      <c r="D344" s="30" t="s">
         <v>406</v>
       </c>
       <c r="E344" s="6">
@@ -7070,8 +7213,8 @@
       <c r="K344" s="5"/>
       <c r="L344" s="8"/>
     </row>
-    <row r="345" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D345" s="32"/>
+    <row r="345" spans="1:12" ht="30">
+      <c r="D345" s="30"/>
       <c r="E345" s="6">
         <v>2</v>
       </c>
@@ -7087,8 +7230,8 @@
       <c r="K345" s="5"/>
       <c r="L345" s="8"/>
     </row>
-    <row r="346" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D346" s="32"/>
+    <row r="346" spans="1:12" ht="30">
+      <c r="D346" s="30"/>
       <c r="E346" s="6">
         <v>3</v>
       </c>
@@ -7101,8 +7244,8 @@
       <c r="K346" s="5"/>
       <c r="L346" s="8"/>
     </row>
-    <row r="347" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D347" s="32"/>
+    <row r="347" spans="1:12" ht="30">
+      <c r="D347" s="30"/>
       <c r="E347" s="6">
         <v>4</v>
       </c>
@@ -7115,8 +7258,8 @@
       <c r="K347" s="5"/>
       <c r="L347" s="8"/>
     </row>
-    <row r="348" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D348" s="32"/>
+    <row r="348" spans="1:12" ht="60">
+      <c r="D348" s="30"/>
       <c r="E348" s="6">
         <v>5</v>
       </c>
@@ -7129,15 +7272,15 @@
       <c r="K348" s="5"/>
       <c r="L348" s="8"/>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12">
       <c r="K349" s="5"/>
       <c r="L349" s="8"/>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12">
       <c r="K350" s="5"/>
       <c r="L350" s="8"/>
     </row>
-    <row r="351" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" ht="30">
       <c r="A351" s="7" t="s">
         <v>54</v>
       </c>
@@ -7147,7 +7290,7 @@
       <c r="C351" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D351" s="32" t="s">
+      <c r="D351" s="30" t="s">
         <v>407</v>
       </c>
       <c r="E351" s="6">
@@ -7165,8 +7308,8 @@
       <c r="K351" s="5"/>
       <c r="L351" s="8"/>
     </row>
-    <row r="352" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D352" s="32"/>
+    <row r="352" spans="1:12" ht="30">
+      <c r="D352" s="30"/>
       <c r="E352" s="6">
         <v>2</v>
       </c>
@@ -7182,8 +7325,8 @@
       <c r="K352" s="5"/>
       <c r="L352" s="8"/>
     </row>
-    <row r="353" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D353" s="32"/>
+    <row r="353" spans="1:12" ht="30">
+      <c r="D353" s="30"/>
       <c r="E353" s="6">
         <v>3</v>
       </c>
@@ -7196,8 +7339,8 @@
       <c r="K353" s="5"/>
       <c r="L353" s="8"/>
     </row>
-    <row r="354" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D354" s="32"/>
+    <row r="354" spans="1:12" ht="45">
+      <c r="D354" s="30"/>
       <c r="E354" s="6">
         <v>4</v>
       </c>
@@ -7210,15 +7353,15 @@
       <c r="K354" s="5"/>
       <c r="L354" s="8"/>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12">
       <c r="K355" s="5"/>
       <c r="L355" s="8"/>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12">
       <c r="K356" s="5"/>
       <c r="L356" s="8"/>
     </row>
-    <row r="357" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" ht="30">
       <c r="A357" s="7" t="s">
         <v>55</v>
       </c>
@@ -7228,7 +7371,7 @@
       <c r="C357" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D357" s="32" t="s">
+      <c r="D357" s="30" t="s">
         <v>408</v>
       </c>
       <c r="E357" s="6">
@@ -7246,8 +7389,8 @@
       <c r="K357" s="5"/>
       <c r="L357" s="8"/>
     </row>
-    <row r="358" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D358" s="32"/>
+    <row r="358" spans="1:12" ht="30">
+      <c r="D358" s="30"/>
       <c r="E358" s="6">
         <v>2</v>
       </c>
@@ -7263,8 +7406,8 @@
       <c r="K358" s="5"/>
       <c r="L358" s="8"/>
     </row>
-    <row r="359" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D359" s="32"/>
+    <row r="359" spans="1:12" ht="30">
+      <c r="D359" s="30"/>
       <c r="E359" s="6">
         <v>3</v>
       </c>
@@ -7277,8 +7420,8 @@
       <c r="K359" s="5"/>
       <c r="L359" s="8"/>
     </row>
-    <row r="360" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D360" s="32"/>
+    <row r="360" spans="1:12" ht="30">
+      <c r="D360" s="30"/>
       <c r="E360" s="6">
         <v>4</v>
       </c>
@@ -7291,8 +7434,8 @@
       <c r="K360" s="5"/>
       <c r="L360" s="8"/>
     </row>
-    <row r="361" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D361" s="32"/>
+    <row r="361" spans="1:12" ht="45">
+      <c r="D361" s="30"/>
       <c r="E361" s="6">
         <v>5</v>
       </c>
@@ -7305,15 +7448,15 @@
       <c r="K361" s="5"/>
       <c r="L361" s="8"/>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12">
       <c r="K362" s="5"/>
       <c r="L362" s="8"/>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12">
       <c r="K363" s="5"/>
       <c r="L363" s="8"/>
     </row>
-    <row r="364" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" ht="45">
       <c r="A364" s="7" t="s">
         <v>56</v>
       </c>
@@ -7323,7 +7466,7 @@
       <c r="C364" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D364" s="32" t="s">
+      <c r="D364" s="30" t="s">
         <v>409</v>
       </c>
       <c r="E364" s="6">
@@ -7341,8 +7484,8 @@
       <c r="K364" s="5"/>
       <c r="L364" s="8"/>
     </row>
-    <row r="365" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D365" s="32"/>
+    <row r="365" spans="1:12" ht="60">
+      <c r="D365" s="30"/>
       <c r="E365" s="6">
         <v>2</v>
       </c>
@@ -7355,8 +7498,8 @@
       <c r="K365" s="5"/>
       <c r="L365" s="8"/>
     </row>
-    <row r="366" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D366" s="32"/>
+    <row r="366" spans="1:12" ht="30">
+      <c r="D366" s="30"/>
       <c r="E366" s="6">
         <v>3</v>
       </c>
@@ -7369,8 +7512,8 @@
       <c r="K366" s="5"/>
       <c r="L366" s="8"/>
     </row>
-    <row r="367" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D367" s="32"/>
+    <row r="367" spans="1:12" ht="30">
+      <c r="D367" s="30"/>
       <c r="E367" s="6">
         <v>4</v>
       </c>
@@ -7383,8 +7526,8 @@
       <c r="K367" s="5"/>
       <c r="L367" s="8"/>
     </row>
-    <row r="368" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D368" s="32"/>
+    <row r="368" spans="1:12" ht="30">
+      <c r="D368" s="30"/>
       <c r="E368" s="6">
         <v>5</v>
       </c>
@@ -7401,8 +7544,8 @@
       <c r="K368" s="5"/>
       <c r="L368" s="8"/>
     </row>
-    <row r="369" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D369" s="32"/>
+    <row r="369" spans="1:12" ht="30">
+      <c r="D369" s="30"/>
       <c r="E369" s="6">
         <v>6</v>
       </c>
@@ -7415,8 +7558,8 @@
       <c r="K369" s="5"/>
       <c r="L369" s="8"/>
     </row>
-    <row r="370" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D370" s="32"/>
+    <row r="370" spans="1:12" ht="45">
+      <c r="D370" s="30"/>
       <c r="E370" s="6">
         <v>7</v>
       </c>
@@ -7429,7 +7572,7 @@
       <c r="K370" s="5"/>
       <c r="L370" s="8"/>
     </row>
-    <row r="371" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" ht="30">
       <c r="E371" s="6">
         <v>8</v>
       </c>
@@ -7442,7 +7585,7 @@
       <c r="K371" s="5"/>
       <c r="L371" s="8"/>
     </row>
-    <row r="372" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" ht="30">
       <c r="E372" s="6">
         <v>9</v>
       </c>
@@ -7455,7 +7598,7 @@
       <c r="K372" s="5"/>
       <c r="L372" s="8"/>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12">
       <c r="E373" s="6">
         <v>10</v>
       </c>
@@ -7468,15 +7611,15 @@
       <c r="K373" s="5"/>
       <c r="L373" s="8"/>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12">
       <c r="K374" s="5"/>
       <c r="L374" s="8"/>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12">
       <c r="K375" s="5"/>
       <c r="L375" s="8"/>
     </row>
-    <row r="376" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" ht="30">
       <c r="A376" s="7" t="s">
         <v>57</v>
       </c>
@@ -7486,7 +7629,7 @@
       <c r="C376" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D376" s="32" t="s">
+      <c r="D376" s="30" t="s">
         <v>410</v>
       </c>
       <c r="E376" s="6">
@@ -7504,8 +7647,8 @@
       <c r="K376" s="5"/>
       <c r="L376" s="8"/>
     </row>
-    <row r="377" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D377" s="32"/>
+    <row r="377" spans="1:12" ht="45">
+      <c r="D377" s="30"/>
       <c r="E377" s="6">
         <v>2</v>
       </c>
@@ -7515,11 +7658,14 @@
       <c r="G377" s="7" t="s">
         <v>229</v>
       </c>
+      <c r="J377" s="6" t="s">
+        <v>437</v>
+      </c>
       <c r="K377" s="5"/>
       <c r="L377" s="8"/>
     </row>
-    <row r="378" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D378" s="32"/>
+    <row r="378" spans="1:12" ht="30">
+      <c r="D378" s="30"/>
       <c r="E378" s="6">
         <v>3</v>
       </c>
@@ -7532,8 +7678,8 @@
       <c r="K378" s="5"/>
       <c r="L378" s="8"/>
     </row>
-    <row r="379" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D379" s="32"/>
+    <row r="379" spans="1:12" ht="30">
+      <c r="D379" s="30"/>
       <c r="E379" s="6">
         <v>4</v>
       </c>
@@ -7549,8 +7695,8 @@
       <c r="K379" s="5"/>
       <c r="L379" s="8"/>
     </row>
-    <row r="380" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D380" s="32"/>
+    <row r="380" spans="1:12" ht="30">
+      <c r="D380" s="30"/>
       <c r="E380" s="6">
         <v>5</v>
       </c>
@@ -7564,8 +7710,8 @@
       <c r="K380" s="5"/>
       <c r="L380" s="8"/>
     </row>
-    <row r="381" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="D381" s="32"/>
+    <row r="381" spans="1:12" ht="120">
+      <c r="D381" s="30"/>
       <c r="E381" s="6">
         <v>6</v>
       </c>
@@ -7578,8 +7724,8 @@
       <c r="K381" s="5"/>
       <c r="L381" s="8"/>
     </row>
-    <row r="382" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D382" s="32"/>
+    <row r="382" spans="1:12" ht="45">
+      <c r="D382" s="30"/>
       <c r="E382" s="6">
         <v>7</v>
       </c>
@@ -7592,15 +7738,15 @@
       <c r="K382" s="5"/>
       <c r="L382" s="8"/>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12">
       <c r="K383" s="5"/>
       <c r="L383" s="8"/>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12">
       <c r="K384" s="5"/>
       <c r="L384" s="8"/>
     </row>
-    <row r="385" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" ht="30">
       <c r="A385" s="7" t="s">
         <v>58</v>
       </c>
@@ -7610,7 +7756,7 @@
       <c r="C385" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D385" s="32" t="s">
+      <c r="D385" s="30" t="s">
         <v>411</v>
       </c>
       <c r="E385" s="6">
@@ -7628,8 +7774,8 @@
       <c r="K385" s="5"/>
       <c r="L385" s="8"/>
     </row>
-    <row r="386" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D386" s="32"/>
+    <row r="386" spans="1:12" ht="45">
+      <c r="D386" s="30"/>
       <c r="E386" s="6">
         <v>2</v>
       </c>
@@ -7642,8 +7788,8 @@
       <c r="K386" s="5"/>
       <c r="L386" s="8"/>
     </row>
-    <row r="387" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D387" s="32"/>
+    <row r="387" spans="1:12" ht="30">
+      <c r="D387" s="30"/>
       <c r="E387" s="6">
         <v>3</v>
       </c>
@@ -7656,8 +7802,8 @@
       <c r="K387" s="5"/>
       <c r="L387" s="8"/>
     </row>
-    <row r="388" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D388" s="32"/>
+    <row r="388" spans="1:12" ht="30">
+      <c r="D388" s="30"/>
       <c r="E388" s="6">
         <v>4</v>
       </c>
@@ -7673,8 +7819,8 @@
       <c r="K388" s="5"/>
       <c r="L388" s="8"/>
     </row>
-    <row r="389" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D389" s="32"/>
+    <row r="389" spans="1:12" ht="30">
+      <c r="D389" s="30"/>
       <c r="E389" s="6">
         <v>5</v>
       </c>
@@ -7687,8 +7833,8 @@
       <c r="K389" s="5"/>
       <c r="L389" s="8"/>
     </row>
-    <row r="390" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D390" s="32"/>
+    <row r="390" spans="1:12" ht="45">
+      <c r="D390" s="30"/>
       <c r="E390" s="6">
         <v>6</v>
       </c>
@@ -7698,11 +7844,14 @@
       <c r="G390" s="7" t="s">
         <v>243</v>
       </c>
+      <c r="J390" s="6" t="s">
+        <v>439</v>
+      </c>
       <c r="K390" s="5"/>
       <c r="L390" s="8"/>
     </row>
-    <row r="391" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="D391" s="32"/>
+    <row r="391" spans="1:12" ht="120">
+      <c r="D391" s="30"/>
       <c r="E391" s="6">
         <v>7</v>
       </c>
@@ -7715,8 +7864,8 @@
       <c r="K391" s="5"/>
       <c r="L391" s="8"/>
     </row>
-    <row r="392" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D392" s="32"/>
+    <row r="392" spans="1:12" ht="75">
+      <c r="D392" s="30"/>
       <c r="E392" s="6">
         <v>8</v>
       </c>
@@ -7726,18 +7875,21 @@
       <c r="G392" s="7" t="s">
         <v>244</v>
       </c>
+      <c r="J392" s="6" t="s">
+        <v>440</v>
+      </c>
       <c r="K392" s="5"/>
       <c r="L392" s="8"/>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12">
       <c r="K393" s="5"/>
       <c r="L393" s="8"/>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12">
       <c r="K394" s="5"/>
       <c r="L394" s="8"/>
     </row>
-    <row r="395" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" ht="30">
       <c r="A395" s="7" t="s">
         <v>59</v>
       </c>
@@ -7747,7 +7899,7 @@
       <c r="C395" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D395" s="32" t="s">
+      <c r="D395" s="30" t="s">
         <v>412</v>
       </c>
       <c r="E395" s="6">
@@ -7765,8 +7917,8 @@
       <c r="K395" s="5"/>
       <c r="L395" s="8"/>
     </row>
-    <row r="396" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D396" s="32"/>
+    <row r="396" spans="1:12" ht="30">
+      <c r="D396" s="30"/>
       <c r="E396" s="6">
         <v>2</v>
       </c>
@@ -7782,8 +7934,8 @@
       <c r="K396" s="5"/>
       <c r="L396" s="8"/>
     </row>
-    <row r="397" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D397" s="32"/>
+    <row r="397" spans="1:12" ht="30">
+      <c r="D397" s="30"/>
       <c r="E397" s="6">
         <v>3</v>
       </c>
@@ -7797,8 +7949,8 @@
       <c r="K397" s="5"/>
       <c r="L397" s="8"/>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D398" s="32"/>
+    <row r="398" spans="1:12">
+      <c r="D398" s="30"/>
       <c r="E398" s="6">
         <v>4</v>
       </c>
@@ -7812,8 +7964,8 @@
       <c r="K398" s="5"/>
       <c r="L398" s="8"/>
     </row>
-    <row r="399" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D399" s="32"/>
+    <row r="399" spans="1:12" ht="30">
+      <c r="D399" s="30"/>
       <c r="E399" s="6">
         <v>5</v>
       </c>
@@ -7826,8 +7978,8 @@
       <c r="K399" s="5"/>
       <c r="L399" s="8"/>
     </row>
-    <row r="400" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D400" s="32"/>
+    <row r="400" spans="1:12" ht="45">
+      <c r="D400" s="30"/>
       <c r="E400" s="6">
         <v>6</v>
       </c>
@@ -7843,8 +7995,8 @@
       <c r="K400" s="5"/>
       <c r="L400" s="8"/>
     </row>
-    <row r="401" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D401" s="32"/>
+    <row r="401" spans="1:12" ht="30">
+      <c r="D401" s="30"/>
       <c r="E401" s="6">
         <v>7</v>
       </c>
@@ -7857,8 +8009,8 @@
       <c r="K401" s="5"/>
       <c r="L401" s="8"/>
     </row>
-    <row r="402" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D402" s="32"/>
+    <row r="402" spans="1:12" ht="60">
+      <c r="D402" s="30"/>
       <c r="E402" s="6">
         <v>8</v>
       </c>
@@ -7871,15 +8023,15 @@
       <c r="K402" s="5"/>
       <c r="L402" s="8"/>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12">
       <c r="K403" s="5"/>
       <c r="L403" s="8"/>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12">
       <c r="K404" s="5"/>
       <c r="L404" s="8"/>
     </row>
-    <row r="405" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" ht="30">
       <c r="A405" s="7" t="s">
         <v>60</v>
       </c>
@@ -7889,7 +8041,7 @@
       <c r="C405" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D405" s="32" t="s">
+      <c r="D405" s="30" t="s">
         <v>413</v>
       </c>
       <c r="E405" s="6">
@@ -7901,14 +8053,17 @@
       <c r="G405" s="7" t="s">
         <v>79</v>
       </c>
+      <c r="H405" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="I405" s="18" t="s">
         <v>80</v>
       </c>
       <c r="K405" s="5"/>
       <c r="L405" s="8"/>
     </row>
-    <row r="406" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D406" s="32"/>
+    <row r="406" spans="1:12" ht="30">
+      <c r="D406" s="30"/>
       <c r="E406" s="6">
         <v>2</v>
       </c>
@@ -7918,14 +8073,17 @@
       <c r="G406" s="7" t="s">
         <v>82</v>
       </c>
+      <c r="H406" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="I406" s="19" t="s">
         <v>83</v>
       </c>
       <c r="K406" s="5"/>
       <c r="L406" s="8"/>
     </row>
-    <row r="407" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D407" s="32"/>
+    <row r="407" spans="1:12" ht="30">
+      <c r="D407" s="30"/>
       <c r="E407" s="6">
         <v>3</v>
       </c>
@@ -7935,11 +8093,14 @@
       <c r="G407" s="7" t="s">
         <v>88</v>
       </c>
+      <c r="H407" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="K407" s="5"/>
       <c r="L407" s="8"/>
     </row>
-    <row r="408" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="D408" s="32"/>
+    <row r="408" spans="1:12" ht="165">
+      <c r="D408" s="30"/>
       <c r="E408" s="6">
         <v>4</v>
       </c>
@@ -7949,14 +8110,17 @@
       <c r="G408" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="H408" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="I408" s="7" t="s">
         <v>250</v>
       </c>
       <c r="K408" s="5"/>
       <c r="L408" s="8"/>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D409" s="32"/>
+    <row r="409" spans="1:12">
+      <c r="D409" s="30"/>
       <c r="E409" s="6">
         <v>5</v>
       </c>
@@ -7966,11 +8130,14 @@
       <c r="G409" s="7" t="s">
         <v>251</v>
       </c>
+      <c r="H409" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="K409" s="5"/>
       <c r="L409" s="8"/>
     </row>
-    <row r="410" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D410" s="32"/>
+    <row r="410" spans="1:12" ht="60">
+      <c r="D410" s="30"/>
       <c r="E410" s="6">
         <v>6</v>
       </c>
@@ -7980,11 +8147,14 @@
       <c r="G410" s="7" t="s">
         <v>252</v>
       </c>
+      <c r="H410" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="K410" s="5"/>
       <c r="L410" s="8"/>
     </row>
-    <row r="411" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D411" s="32"/>
+    <row r="411" spans="1:12" ht="30">
+      <c r="D411" s="30"/>
       <c r="E411" s="6">
         <v>7</v>
       </c>
@@ -7994,11 +8164,14 @@
       <c r="G411" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="H411" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="K411" s="5"/>
       <c r="L411" s="8"/>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D412" s="32"/>
+    <row r="412" spans="1:12">
+      <c r="D412" s="30"/>
       <c r="E412" s="6">
         <v>8</v>
       </c>
@@ -8008,11 +8181,14 @@
       <c r="G412" s="7" t="s">
         <v>255</v>
       </c>
+      <c r="H412" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="K412" s="5"/>
       <c r="L412" s="8"/>
     </row>
-    <row r="413" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D413" s="32"/>
+    <row r="413" spans="1:12" ht="45">
+      <c r="D413" s="30"/>
       <c r="E413" s="6">
         <v>9</v>
       </c>
@@ -8022,11 +8198,14 @@
       <c r="G413" s="7" t="s">
         <v>257</v>
       </c>
+      <c r="H413" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="K413" s="5"/>
       <c r="L413" s="8"/>
     </row>
-    <row r="414" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D414" s="32"/>
+    <row r="414" spans="1:12" ht="45">
+      <c r="D414" s="30"/>
       <c r="E414" s="6">
         <v>10</v>
       </c>
@@ -8036,14 +8215,17 @@
       <c r="G414" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="H414" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="I414" s="7" t="s">
         <v>258</v>
       </c>
       <c r="K414" s="5"/>
       <c r="L414" s="8"/>
     </row>
-    <row r="415" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D415" s="32"/>
+    <row r="415" spans="1:12" ht="30">
+      <c r="D415" s="30"/>
       <c r="E415" s="6">
         <v>11</v>
       </c>
@@ -8053,11 +8235,14 @@
       <c r="G415" s="7" t="s">
         <v>260</v>
       </c>
+      <c r="H415" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="K415" s="5"/>
       <c r="L415" s="8"/>
     </row>
-    <row r="416" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D416" s="32"/>
+    <row r="416" spans="1:12" ht="45">
+      <c r="D416" s="30"/>
       <c r="E416" s="6">
         <v>12</v>
       </c>
@@ -8067,11 +8252,14 @@
       <c r="G416" s="7" t="s">
         <v>262</v>
       </c>
+      <c r="H416" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="K416" s="5"/>
       <c r="L416" s="8"/>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D417" s="32"/>
+    <row r="417" spans="1:12">
+      <c r="D417" s="30"/>
       <c r="E417" s="6">
         <v>13</v>
       </c>
@@ -8081,18 +8269,21 @@
       <c r="G417" s="7" t="s">
         <v>263</v>
       </c>
+      <c r="H417" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="K417" s="5"/>
       <c r="L417" s="8"/>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12">
       <c r="K418" s="5"/>
       <c r="L418" s="8"/>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12">
       <c r="K419" s="5"/>
       <c r="L419" s="8"/>
     </row>
-    <row r="420" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" ht="30">
       <c r="A420" s="7" t="s">
         <v>61</v>
       </c>
@@ -8102,7 +8293,7 @@
       <c r="C420" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D420" s="32" t="s">
+      <c r="D420" s="30" t="s">
         <v>414</v>
       </c>
       <c r="E420" s="6">
@@ -8114,14 +8305,17 @@
       <c r="G420" s="7" t="s">
         <v>79</v>
       </c>
+      <c r="H420" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="I420" s="18" t="s">
         <v>80</v>
       </c>
       <c r="K420" s="5"/>
       <c r="L420" s="8"/>
     </row>
-    <row r="421" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D421" s="32"/>
+    <row r="421" spans="1:12" ht="30">
+      <c r="D421" s="30"/>
       <c r="E421" s="6">
         <v>2</v>
       </c>
@@ -8131,14 +8325,17 @@
       <c r="G421" s="7" t="s">
         <v>82</v>
       </c>
+      <c r="H421" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="I421" s="19" t="s">
         <v>83</v>
       </c>
       <c r="K421" s="5"/>
       <c r="L421" s="8"/>
     </row>
-    <row r="422" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D422" s="32"/>
+    <row r="422" spans="1:12" ht="30">
+      <c r="D422" s="30"/>
       <c r="E422" s="6">
         <v>3</v>
       </c>
@@ -8148,11 +8345,14 @@
       <c r="G422" s="7" t="s">
         <v>88</v>
       </c>
+      <c r="H422" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="K422" s="5"/>
       <c r="L422" s="8"/>
     </row>
-    <row r="423" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="D423" s="32"/>
+    <row r="423" spans="1:12" ht="165">
+      <c r="D423" s="30"/>
       <c r="E423" s="6">
         <v>4</v>
       </c>
@@ -8162,14 +8362,17 @@
       <c r="G423" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="H423" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="I423" s="7" t="s">
         <v>250</v>
       </c>
       <c r="K423" s="5"/>
       <c r="L423" s="8"/>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D424" s="32"/>
+    <row r="424" spans="1:12">
+      <c r="D424" s="30"/>
       <c r="E424" s="6">
         <v>5</v>
       </c>
@@ -8182,8 +8385,8 @@
       <c r="K424" s="5"/>
       <c r="L424" s="8"/>
     </row>
-    <row r="425" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D425" s="32"/>
+    <row r="425" spans="1:12" ht="60">
+      <c r="D425" s="30"/>
       <c r="E425" s="6">
         <v>6</v>
       </c>
@@ -8196,8 +8399,8 @@
       <c r="K425" s="5"/>
       <c r="L425" s="8"/>
     </row>
-    <row r="426" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D426" s="32"/>
+    <row r="426" spans="1:12" ht="30">
+      <c r="D426" s="30"/>
       <c r="E426" s="6">
         <v>7</v>
       </c>
@@ -8210,8 +8413,8 @@
       <c r="K426" s="5"/>
       <c r="L426" s="8"/>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D427" s="32"/>
+    <row r="427" spans="1:12">
+      <c r="D427" s="30"/>
       <c r="E427" s="6">
         <v>8</v>
       </c>
@@ -8224,8 +8427,8 @@
       <c r="K427" s="5"/>
       <c r="L427" s="8"/>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D428" s="32"/>
+    <row r="428" spans="1:12">
+      <c r="D428" s="30"/>
       <c r="E428" s="6">
         <v>9</v>
       </c>
@@ -8241,8 +8444,8 @@
       <c r="K428" s="5"/>
       <c r="L428" s="8"/>
     </row>
-    <row r="429" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="D429" s="32"/>
+    <row r="429" spans="1:12" ht="120">
+      <c r="D429" s="30"/>
       <c r="E429" s="6">
         <v>10</v>
       </c>
@@ -8258,8 +8461,8 @@
       <c r="K429" s="5"/>
       <c r="L429" s="8"/>
     </row>
-    <row r="430" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D430" s="32"/>
+    <row r="430" spans="1:12" ht="45">
+      <c r="D430" s="30"/>
       <c r="E430" s="6">
         <v>11</v>
       </c>
@@ -8272,8 +8475,8 @@
       <c r="K430" s="5"/>
       <c r="L430" s="8"/>
     </row>
-    <row r="431" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D431" s="32"/>
+    <row r="431" spans="1:12" ht="45">
+      <c r="D431" s="30"/>
       <c r="E431" s="6">
         <v>12</v>
       </c>
@@ -8286,8 +8489,8 @@
       <c r="K431" s="5"/>
       <c r="L431" s="8"/>
     </row>
-    <row r="432" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D432" s="32"/>
+    <row r="432" spans="1:12" ht="45">
+      <c r="D432" s="30"/>
       <c r="E432" s="6">
         <v>13</v>
       </c>
@@ -8300,7 +8503,7 @@
       <c r="K432" s="5"/>
       <c r="L432" s="8"/>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12">
       <c r="E433" s="6">
         <v>14</v>
       </c>
@@ -8313,15 +8516,15 @@
       <c r="K433" s="5"/>
       <c r="L433" s="8"/>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12">
       <c r="K434" s="5"/>
       <c r="L434" s="8"/>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12">
       <c r="K435" s="5"/>
       <c r="L435" s="8"/>
     </row>
-    <row r="436" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" ht="30">
       <c r="A436" s="7" t="s">
         <v>62</v>
       </c>
@@ -8331,7 +8534,7 @@
       <c r="C436" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D436" s="32" t="s">
+      <c r="D436" s="30" t="s">
         <v>415</v>
       </c>
       <c r="E436" s="6">
@@ -8349,8 +8552,8 @@
       <c r="K436" s="5"/>
       <c r="L436" s="8"/>
     </row>
-    <row r="437" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D437" s="32"/>
+    <row r="437" spans="1:12" ht="30">
+      <c r="D437" s="30"/>
       <c r="E437" s="6">
         <v>2</v>
       </c>
@@ -8366,8 +8569,8 @@
       <c r="K437" s="5"/>
       <c r="L437" s="8"/>
     </row>
-    <row r="438" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D438" s="32"/>
+    <row r="438" spans="1:12" ht="30">
+      <c r="D438" s="30"/>
       <c r="E438" s="6">
         <v>3</v>
       </c>
@@ -8380,8 +8583,8 @@
       <c r="K438" s="5"/>
       <c r="L438" s="8"/>
     </row>
-    <row r="439" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="D439" s="32"/>
+    <row r="439" spans="1:12" ht="165">
+      <c r="D439" s="30"/>
       <c r="E439" s="6">
         <v>4</v>
       </c>
@@ -8397,8 +8600,8 @@
       <c r="K439" s="5"/>
       <c r="L439" s="8"/>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D440" s="32"/>
+    <row r="440" spans="1:12">
+      <c r="D440" s="30"/>
       <c r="E440" s="6">
         <v>5</v>
       </c>
@@ -8411,8 +8614,8 @@
       <c r="K440" s="5"/>
       <c r="L440" s="8"/>
     </row>
-    <row r="441" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D441" s="32"/>
+    <row r="441" spans="1:12" ht="60">
+      <c r="D441" s="30"/>
       <c r="E441" s="6">
         <v>6</v>
       </c>
@@ -8425,8 +8628,8 @@
       <c r="K441" s="5"/>
       <c r="L441" s="8"/>
     </row>
-    <row r="442" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D442" s="32"/>
+    <row r="442" spans="1:12" ht="60">
+      <c r="D442" s="30"/>
       <c r="E442" s="6">
         <v>7</v>
       </c>
@@ -8439,8 +8642,8 @@
       <c r="K442" s="5"/>
       <c r="L442" s="8"/>
     </row>
-    <row r="443" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D443" s="32"/>
+    <row r="443" spans="1:12" ht="30">
+      <c r="D443" s="30"/>
       <c r="E443" s="6">
         <v>8</v>
       </c>
@@ -8453,8 +8656,8 @@
       <c r="K443" s="5"/>
       <c r="L443" s="8"/>
     </row>
-    <row r="444" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D444" s="32"/>
+    <row r="444" spans="1:12" ht="30">
+      <c r="D444" s="30"/>
       <c r="E444" s="6">
         <v>9</v>
       </c>
@@ -8467,8 +8670,8 @@
       <c r="K444" s="5"/>
       <c r="L444" s="8"/>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D445" s="32"/>
+    <row r="445" spans="1:12">
+      <c r="D445" s="30"/>
       <c r="E445" s="6">
         <v>10</v>
       </c>
@@ -8481,8 +8684,8 @@
       <c r="K445" s="5"/>
       <c r="L445" s="8"/>
     </row>
-    <row r="446" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="D446" s="32"/>
+    <row r="446" spans="1:12" ht="105">
+      <c r="D446" s="30"/>
       <c r="E446" s="6">
         <v>11</v>
       </c>
@@ -8498,8 +8701,8 @@
       <c r="K446" s="5"/>
       <c r="L446" s="8"/>
     </row>
-    <row r="447" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D447" s="32"/>
+    <row r="447" spans="1:12" ht="45">
+      <c r="D447" s="30"/>
       <c r="E447" s="6">
         <v>12</v>
       </c>
@@ -8512,8 +8715,8 @@
       <c r="K447" s="5"/>
       <c r="L447" s="8"/>
     </row>
-    <row r="448" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D448" s="32"/>
+    <row r="448" spans="1:12" ht="45">
+      <c r="D448" s="30"/>
       <c r="E448" s="6">
         <v>13</v>
       </c>
@@ -8526,8 +8729,8 @@
       <c r="K448" s="5"/>
       <c r="L448" s="8"/>
     </row>
-    <row r="449" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D449" s="32"/>
+    <row r="449" spans="1:12" ht="45">
+      <c r="D449" s="30"/>
       <c r="E449" s="6">
         <v>14</v>
       </c>
@@ -8540,8 +8743,8 @@
       <c r="K449" s="5"/>
       <c r="L449" s="8"/>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D450" s="32"/>
+    <row r="450" spans="1:12">
+      <c r="D450" s="30"/>
       <c r="E450" s="6">
         <v>15</v>
       </c>
@@ -8554,15 +8757,15 @@
       <c r="K450" s="5"/>
       <c r="L450" s="8"/>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12">
       <c r="K451" s="5"/>
       <c r="L451" s="8"/>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12">
       <c r="K452" s="5"/>
       <c r="L452" s="8"/>
     </row>
-    <row r="453" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" ht="30">
       <c r="A453" s="7" t="s">
         <v>63</v>
       </c>
@@ -8572,7 +8775,7 @@
       <c r="C453" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D453" s="32" t="s">
+      <c r="D453" s="30" t="s">
         <v>416</v>
       </c>
       <c r="E453" s="6">
@@ -8590,8 +8793,8 @@
       <c r="K453" s="5"/>
       <c r="L453" s="8"/>
     </row>
-    <row r="454" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D454" s="32"/>
+    <row r="454" spans="1:12" ht="30">
+      <c r="D454" s="30"/>
       <c r="E454" s="6">
         <v>2</v>
       </c>
@@ -8607,8 +8810,8 @@
       <c r="K454" s="5"/>
       <c r="L454" s="8"/>
     </row>
-    <row r="455" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D455" s="32"/>
+    <row r="455" spans="1:12" ht="30">
+      <c r="D455" s="30"/>
       <c r="E455" s="6">
         <v>3</v>
       </c>
@@ -8621,8 +8824,8 @@
       <c r="K455" s="5"/>
       <c r="L455" s="8"/>
     </row>
-    <row r="456" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D456" s="32"/>
+    <row r="456" spans="1:12" ht="30">
+      <c r="D456" s="30"/>
       <c r="E456" s="6">
         <v>4</v>
       </c>
@@ -8638,8 +8841,8 @@
       <c r="K456" s="5"/>
       <c r="L456" s="8"/>
     </row>
-    <row r="457" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D457" s="32"/>
+    <row r="457" spans="1:12" ht="30">
+      <c r="D457" s="30"/>
       <c r="E457" s="6">
         <v>5</v>
       </c>
@@ -8652,8 +8855,8 @@
       <c r="K457" s="5"/>
       <c r="L457" s="8"/>
     </row>
-    <row r="458" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D458" s="32"/>
+    <row r="458" spans="1:12" ht="30">
+      <c r="D458" s="30"/>
       <c r="E458" s="6">
         <v>6</v>
       </c>
@@ -8666,8 +8869,8 @@
       <c r="K458" s="5"/>
       <c r="L458" s="8"/>
     </row>
-    <row r="459" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D459" s="32"/>
+    <row r="459" spans="1:12" ht="45">
+      <c r="D459" s="30"/>
       <c r="E459" s="6">
         <v>7</v>
       </c>
@@ -8680,8 +8883,8 @@
       <c r="K459" s="5"/>
       <c r="L459" s="8"/>
     </row>
-    <row r="460" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D460" s="32"/>
+    <row r="460" spans="1:12" ht="45">
+      <c r="D460" s="30"/>
       <c r="E460" s="6">
         <v>8</v>
       </c>
@@ -8694,8 +8897,8 @@
       <c r="K460" s="5"/>
       <c r="L460" s="8"/>
     </row>
-    <row r="461" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D461" s="32"/>
+    <row r="461" spans="1:12" ht="30">
+      <c r="D461" s="30"/>
       <c r="E461" s="6">
         <v>9</v>
       </c>
@@ -8708,8 +8911,8 @@
       <c r="K461" s="5"/>
       <c r="L461" s="8"/>
     </row>
-    <row r="462" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D462" s="32"/>
+    <row r="462" spans="1:12" ht="30">
+      <c r="D462" s="30"/>
       <c r="E462" s="6">
         <v>10</v>
       </c>
@@ -8722,7 +8925,7 @@
       <c r="K462" s="5"/>
       <c r="L462" s="8"/>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12">
       <c r="E463" s="6">
         <v>11</v>
       </c>
@@ -8735,15 +8938,15 @@
       <c r="K463" s="5"/>
       <c r="L463" s="8"/>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12">
       <c r="K464" s="5"/>
       <c r="L464" s="8"/>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12">
       <c r="K465" s="5"/>
       <c r="L465" s="8"/>
     </row>
-    <row r="466" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" ht="30">
       <c r="A466" s="7" t="s">
         <v>64</v>
       </c>
@@ -8753,7 +8956,7 @@
       <c r="C466" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D466" s="32" t="s">
+      <c r="D466" s="30" t="s">
         <v>417</v>
       </c>
       <c r="E466" s="6">
@@ -8771,8 +8974,8 @@
       <c r="K466" s="5"/>
       <c r="L466" s="8"/>
     </row>
-    <row r="467" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D467" s="32"/>
+    <row r="467" spans="1:12" ht="30">
+      <c r="D467" s="30"/>
       <c r="E467" s="6">
         <v>2</v>
       </c>
@@ -8788,8 +8991,8 @@
       <c r="K467" s="5"/>
       <c r="L467" s="8"/>
     </row>
-    <row r="468" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D468" s="32"/>
+    <row r="468" spans="1:12" ht="30">
+      <c r="D468" s="30"/>
       <c r="E468" s="6">
         <v>3</v>
       </c>
@@ -8802,8 +9005,8 @@
       <c r="K468" s="5"/>
       <c r="L468" s="8"/>
     </row>
-    <row r="469" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D469" s="32"/>
+    <row r="469" spans="1:12" ht="30">
+      <c r="D469" s="30"/>
       <c r="E469" s="6">
         <v>4</v>
       </c>
@@ -8819,8 +9022,8 @@
       <c r="K469" s="5"/>
       <c r="L469" s="8"/>
     </row>
-    <row r="470" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D470" s="32"/>
+    <row r="470" spans="1:12" ht="30">
+      <c r="D470" s="30"/>
       <c r="E470" s="6">
         <v>5</v>
       </c>
@@ -8833,8 +9036,8 @@
       <c r="K470" s="5"/>
       <c r="L470" s="8"/>
     </row>
-    <row r="471" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D471" s="32"/>
+    <row r="471" spans="1:12" ht="45">
+      <c r="D471" s="30"/>
       <c r="E471" s="6">
         <v>6</v>
       </c>
@@ -8847,8 +9050,8 @@
       <c r="K471" s="5"/>
       <c r="L471" s="8"/>
     </row>
-    <row r="472" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D472" s="32"/>
+    <row r="472" spans="1:12" ht="30">
+      <c r="D472" s="30"/>
       <c r="E472" s="6">
         <v>7</v>
       </c>
@@ -8861,8 +9064,8 @@
       <c r="K472" s="5"/>
       <c r="L472" s="8"/>
     </row>
-    <row r="473" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D473" s="32"/>
+    <row r="473" spans="1:12" ht="30">
+      <c r="D473" s="30"/>
       <c r="E473" s="6">
         <v>8</v>
       </c>
@@ -8875,8 +9078,8 @@
       <c r="K473" s="5"/>
       <c r="L473" s="8"/>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D474" s="32"/>
+    <row r="474" spans="1:12">
+      <c r="D474" s="30"/>
       <c r="E474" s="6">
         <v>9</v>
       </c>
@@ -8889,15 +9092,15 @@
       <c r="K474" s="5"/>
       <c r="L474" s="8"/>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12">
       <c r="K475" s="5"/>
       <c r="L475" s="8"/>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12">
       <c r="K476" s="5"/>
       <c r="L476" s="8"/>
     </row>
-    <row r="477" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" ht="30">
       <c r="A477" s="7" t="s">
         <v>65</v>
       </c>
@@ -8907,7 +9110,7 @@
       <c r="C477" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D477" s="32" t="s">
+      <c r="D477" s="30" t="s">
         <v>418</v>
       </c>
       <c r="E477" s="6">
@@ -8925,8 +9128,8 @@
       <c r="K477" s="5"/>
       <c r="L477" s="8"/>
     </row>
-    <row r="478" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D478" s="32"/>
+    <row r="478" spans="1:12" ht="30">
+      <c r="D478" s="30"/>
       <c r="E478" s="6">
         <v>2</v>
       </c>
@@ -8942,8 +9145,8 @@
       <c r="K478" s="5"/>
       <c r="L478" s="8"/>
     </row>
-    <row r="479" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D479" s="32"/>
+    <row r="479" spans="1:12" ht="30">
+      <c r="D479" s="30"/>
       <c r="E479" s="6">
         <v>3</v>
       </c>
@@ -8956,8 +9159,8 @@
       <c r="K479" s="5"/>
       <c r="L479" s="8"/>
     </row>
-    <row r="480" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D480" s="32"/>
+    <row r="480" spans="1:12" ht="30">
+      <c r="D480" s="30"/>
       <c r="E480" s="6">
         <v>4</v>
       </c>
@@ -8970,8 +9173,8 @@
       <c r="K480" s="5"/>
       <c r="L480" s="8"/>
     </row>
-    <row r="481" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D481" s="32"/>
+    <row r="481" spans="1:12" ht="30">
+      <c r="D481" s="30"/>
       <c r="E481" s="6">
         <v>5</v>
       </c>
@@ -8984,8 +9187,8 @@
       <c r="K481" s="5"/>
       <c r="L481" s="8"/>
     </row>
-    <row r="482" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D482" s="32"/>
+    <row r="482" spans="1:12" ht="30">
+      <c r="D482" s="30"/>
       <c r="E482" s="6">
         <v>6</v>
       </c>
@@ -9001,8 +9204,8 @@
       <c r="K482" s="5"/>
       <c r="L482" s="8"/>
     </row>
-    <row r="483" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D483" s="32"/>
+    <row r="483" spans="1:12" ht="45">
+      <c r="D483" s="30"/>
       <c r="E483" s="6">
         <v>7</v>
       </c>
@@ -9015,8 +9218,8 @@
       <c r="K483" s="5"/>
       <c r="L483" s="8"/>
     </row>
-    <row r="484" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D484" s="32"/>
+    <row r="484" spans="1:12" ht="45">
+      <c r="D484" s="30"/>
       <c r="E484" s="6">
         <v>8</v>
       </c>
@@ -9029,8 +9232,8 @@
       <c r="K484" s="5"/>
       <c r="L484" s="8"/>
     </row>
-    <row r="485" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D485" s="32"/>
+    <row r="485" spans="1:12" ht="30">
+      <c r="D485" s="30"/>
       <c r="E485" s="6">
         <v>9</v>
       </c>
@@ -9043,8 +9246,8 @@
       <c r="K485" s="8"/>
       <c r="L485" s="8"/>
     </row>
-    <row r="486" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D486" s="32"/>
+    <row r="486" spans="1:12" ht="30">
+      <c r="D486" s="30"/>
       <c r="E486" s="6">
         <v>10</v>
       </c>
@@ -9057,8 +9260,8 @@
       <c r="K486" s="8"/>
       <c r="L486" s="8"/>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D487" s="32"/>
+    <row r="487" spans="1:12">
+      <c r="D487" s="30"/>
       <c r="E487" s="6">
         <v>11</v>
       </c>
@@ -9071,15 +9274,15 @@
       <c r="K487" s="8"/>
       <c r="L487" s="8"/>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12">
       <c r="K488" s="8"/>
       <c r="L488" s="8"/>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12">
       <c r="K489" s="8"/>
       <c r="L489" s="8"/>
     </row>
-    <row r="490" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" ht="30">
       <c r="A490" s="7" t="s">
         <v>66</v>
       </c>
@@ -9089,7 +9292,7 @@
       <c r="C490" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D490" s="32" t="s">
+      <c r="D490" s="30" t="s">
         <v>419</v>
       </c>
       <c r="E490" s="6">
@@ -9107,8 +9310,8 @@
       <c r="K490" s="8"/>
       <c r="L490" s="8"/>
     </row>
-    <row r="491" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D491" s="32"/>
+    <row r="491" spans="1:12" ht="30">
+      <c r="D491" s="30"/>
       <c r="E491" s="6">
         <v>2</v>
       </c>
@@ -9124,8 +9327,8 @@
       <c r="K491" s="8"/>
       <c r="L491" s="8"/>
     </row>
-    <row r="492" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D492" s="32"/>
+    <row r="492" spans="1:12" ht="45">
+      <c r="D492" s="30"/>
       <c r="E492" s="6">
         <v>3</v>
       </c>
@@ -9138,8 +9341,8 @@
       <c r="K492" s="8"/>
       <c r="L492" s="8"/>
     </row>
-    <row r="493" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D493" s="32"/>
+    <row r="493" spans="1:12" ht="30">
+      <c r="D493" s="30"/>
       <c r="E493" s="6">
         <v>4</v>
       </c>
@@ -9155,8 +9358,8 @@
       <c r="K493" s="8"/>
       <c r="L493" s="8"/>
     </row>
-    <row r="494" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D494" s="32"/>
+    <row r="494" spans="1:12" ht="30">
+      <c r="D494" s="30"/>
       <c r="E494" s="6">
         <v>5</v>
       </c>
@@ -9169,8 +9372,8 @@
       <c r="K494" s="8"/>
       <c r="L494" s="8"/>
     </row>
-    <row r="495" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D495" s="32"/>
+    <row r="495" spans="1:12" ht="30">
+      <c r="D495" s="30"/>
       <c r="E495" s="6">
         <v>6</v>
       </c>
@@ -9183,8 +9386,8 @@
       <c r="K495" s="8"/>
       <c r="L495" s="8"/>
     </row>
-    <row r="496" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D496" s="32"/>
+    <row r="496" spans="1:12" ht="45">
+      <c r="D496" s="30"/>
       <c r="E496" s="6">
         <v>7</v>
       </c>
@@ -9197,8 +9400,8 @@
       <c r="K496" s="8"/>
       <c r="L496" s="8"/>
     </row>
-    <row r="497" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D497" s="32"/>
+    <row r="497" spans="1:12" ht="30">
+      <c r="D497" s="30"/>
       <c r="E497" s="6">
         <v>8</v>
       </c>
@@ -9211,8 +9414,8 @@
       <c r="K497" s="8"/>
       <c r="L497" s="8"/>
     </row>
-    <row r="498" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D498" s="32"/>
+    <row r="498" spans="1:12" ht="30">
+      <c r="D498" s="30"/>
       <c r="E498" s="6">
         <v>9</v>
       </c>
@@ -9225,8 +9428,8 @@
       <c r="K498" s="8"/>
       <c r="L498" s="8"/>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D499" s="32"/>
+    <row r="499" spans="1:12">
+      <c r="D499" s="30"/>
       <c r="E499" s="6">
         <v>10</v>
       </c>
@@ -9239,15 +9442,15 @@
       <c r="K499" s="8"/>
       <c r="L499" s="8"/>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12">
       <c r="K500" s="8"/>
       <c r="L500" s="8"/>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12">
       <c r="K501" s="8"/>
       <c r="L501" s="8"/>
     </row>
-    <row r="502" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" ht="30">
       <c r="A502" s="7" t="s">
         <v>67</v>
       </c>
@@ -9257,7 +9460,7 @@
       <c r="C502" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D502" s="32" t="s">
+      <c r="D502" s="30" t="s">
         <v>420</v>
       </c>
       <c r="E502" s="6">
@@ -9275,8 +9478,8 @@
       <c r="K502" s="8"/>
       <c r="L502" s="8"/>
     </row>
-    <row r="503" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D503" s="32"/>
+    <row r="503" spans="1:12" ht="30">
+      <c r="D503" s="30"/>
       <c r="E503" s="6">
         <v>2</v>
       </c>
@@ -9292,8 +9495,8 @@
       <c r="K503" s="8"/>
       <c r="L503" s="8"/>
     </row>
-    <row r="504" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D504" s="32"/>
+    <row r="504" spans="1:12" ht="30">
+      <c r="D504" s="30"/>
       <c r="E504" s="6">
         <v>3</v>
       </c>
@@ -9306,8 +9509,8 @@
       <c r="K504" s="8"/>
       <c r="L504" s="8"/>
     </row>
-    <row r="505" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D505" s="32"/>
+    <row r="505" spans="1:12" ht="30">
+      <c r="D505" s="30"/>
       <c r="E505" s="6">
         <v>4</v>
       </c>
@@ -9323,8 +9526,8 @@
       <c r="K505" s="8"/>
       <c r="L505" s="8"/>
     </row>
-    <row r="506" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D506" s="32"/>
+    <row r="506" spans="1:12" ht="30">
+      <c r="D506" s="30"/>
       <c r="E506" s="6">
         <v>5</v>
       </c>
@@ -9337,8 +9540,8 @@
       <c r="K506" s="8"/>
       <c r="L506" s="8"/>
     </row>
-    <row r="507" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D507" s="32"/>
+    <row r="507" spans="1:12" ht="30">
+      <c r="D507" s="30"/>
       <c r="E507" s="6">
         <v>6</v>
       </c>
@@ -9351,8 +9554,8 @@
       <c r="K507" s="8"/>
       <c r="L507" s="8"/>
     </row>
-    <row r="508" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D508" s="32"/>
+    <row r="508" spans="1:12" ht="30">
+      <c r="D508" s="30"/>
       <c r="E508" s="6">
         <v>7</v>
       </c>
@@ -9365,8 +9568,8 @@
       <c r="K508" s="8"/>
       <c r="L508" s="8"/>
     </row>
-    <row r="509" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D509" s="32"/>
+    <row r="509" spans="1:12" ht="45">
+      <c r="D509" s="30"/>
       <c r="E509" s="6">
         <v>8</v>
       </c>
@@ -9379,8 +9582,8 @@
       <c r="K509" s="8"/>
       <c r="L509" s="8"/>
     </row>
-    <row r="510" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D510" s="32"/>
+    <row r="510" spans="1:12" ht="30">
+      <c r="D510" s="30"/>
       <c r="E510" s="6">
         <v>9</v>
       </c>
@@ -9393,8 +9596,8 @@
       <c r="K510" s="8"/>
       <c r="L510" s="8"/>
     </row>
-    <row r="511" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D511" s="32"/>
+    <row r="511" spans="1:12" ht="30">
+      <c r="D511" s="30"/>
       <c r="E511" s="6">
         <v>10</v>
       </c>
@@ -9407,8 +9610,8 @@
       <c r="K511" s="8"/>
       <c r="L511" s="8"/>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D512" s="32"/>
+    <row r="512" spans="1:12">
+      <c r="D512" s="30"/>
       <c r="E512" s="6">
         <v>11</v>
       </c>
@@ -9421,15 +9624,15 @@
       <c r="K512" s="8"/>
       <c r="L512" s="8"/>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12">
       <c r="K513" s="8"/>
       <c r="L513" s="8"/>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12">
       <c r="K514" s="8"/>
       <c r="L514" s="8"/>
     </row>
-    <row r="515" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" ht="30">
       <c r="A515" s="7" t="s">
         <v>68</v>
       </c>
@@ -9439,7 +9642,7 @@
       <c r="C515" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D515" s="32" t="s">
+      <c r="D515" s="30" t="s">
         <v>421</v>
       </c>
       <c r="E515" s="6">
@@ -9457,8 +9660,8 @@
       <c r="K515" s="8"/>
       <c r="L515" s="8"/>
     </row>
-    <row r="516" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D516" s="32"/>
+    <row r="516" spans="1:12" ht="30">
+      <c r="D516" s="30"/>
       <c r="E516" s="6">
         <v>2</v>
       </c>
@@ -9474,8 +9677,8 @@
       <c r="K516" s="8"/>
       <c r="L516" s="8"/>
     </row>
-    <row r="517" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D517" s="32"/>
+    <row r="517" spans="1:12" ht="30">
+      <c r="D517" s="30"/>
       <c r="E517" s="6">
         <v>3</v>
       </c>
@@ -9488,8 +9691,8 @@
       <c r="K517" s="8"/>
       <c r="L517" s="8"/>
     </row>
-    <row r="518" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D518" s="32"/>
+    <row r="518" spans="1:12" ht="30">
+      <c r="D518" s="30"/>
       <c r="E518" s="6">
         <v>4</v>
       </c>
@@ -9505,8 +9708,8 @@
       <c r="K518" s="8"/>
       <c r="L518" s="8"/>
     </row>
-    <row r="519" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D519" s="32"/>
+    <row r="519" spans="1:12" ht="30">
+      <c r="D519" s="30"/>
       <c r="E519" s="6">
         <v>5</v>
       </c>
@@ -9519,8 +9722,8 @@
       <c r="K519" s="8"/>
       <c r="L519" s="8"/>
     </row>
-    <row r="520" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D520" s="32"/>
+    <row r="520" spans="1:12" ht="30">
+      <c r="D520" s="30"/>
       <c r="E520" s="6">
         <v>6</v>
       </c>
@@ -9533,8 +9736,8 @@
       <c r="K520" s="8"/>
       <c r="L520" s="8"/>
     </row>
-    <row r="521" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D521" s="32"/>
+    <row r="521" spans="1:12" ht="30">
+      <c r="D521" s="30"/>
       <c r="E521" s="6">
         <v>7</v>
       </c>
@@ -9547,8 +9750,8 @@
       <c r="K521" s="8"/>
       <c r="L521" s="8"/>
     </row>
-    <row r="522" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D522" s="32"/>
+    <row r="522" spans="1:12" ht="30">
+      <c r="D522" s="30"/>
       <c r="E522" s="6">
         <v>8</v>
       </c>
@@ -9561,8 +9764,8 @@
       <c r="K522" s="8"/>
       <c r="L522" s="8"/>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D523" s="32"/>
+    <row r="523" spans="1:12">
+      <c r="D523" s="30"/>
       <c r="E523" s="6">
         <v>9</v>
       </c>
@@ -9575,15 +9778,15 @@
       <c r="K523" s="8"/>
       <c r="L523" s="8"/>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12">
       <c r="K524" s="8"/>
       <c r="L524" s="8"/>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12">
       <c r="K525" s="8"/>
       <c r="L525" s="8"/>
     </row>
-    <row r="526" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" ht="30">
       <c r="A526" s="7" t="s">
         <v>69</v>
       </c>
@@ -9593,7 +9796,7 @@
       <c r="C526" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D526" s="32" t="s">
+      <c r="D526" s="30" t="s">
         <v>422</v>
       </c>
       <c r="E526" s="6">
@@ -9611,8 +9814,8 @@
       <c r="K526" s="8"/>
       <c r="L526" s="8"/>
     </row>
-    <row r="527" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D527" s="32"/>
+    <row r="527" spans="1:12" ht="30">
+      <c r="D527" s="30"/>
       <c r="E527" s="6">
         <v>2</v>
       </c>
@@ -9628,8 +9831,8 @@
       <c r="K527" s="8"/>
       <c r="L527" s="8"/>
     </row>
-    <row r="528" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D528" s="32"/>
+    <row r="528" spans="1:12" ht="30">
+      <c r="D528" s="30"/>
       <c r="E528" s="6">
         <v>3</v>
       </c>
@@ -9642,8 +9845,8 @@
       <c r="K528" s="8"/>
       <c r="L528" s="8"/>
     </row>
-    <row r="529" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D529" s="32"/>
+    <row r="529" spans="1:12" ht="30">
+      <c r="D529" s="30"/>
       <c r="E529" s="6">
         <v>4</v>
       </c>
@@ -9659,8 +9862,8 @@
       <c r="K529" s="8"/>
       <c r="L529" s="8"/>
     </row>
-    <row r="530" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D530" s="32"/>
+    <row r="530" spans="1:12" ht="30">
+      <c r="D530" s="30"/>
       <c r="E530" s="6">
         <v>5</v>
       </c>
@@ -9673,8 +9876,8 @@
       <c r="K530" s="8"/>
       <c r="L530" s="8"/>
     </row>
-    <row r="531" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D531" s="32"/>
+    <row r="531" spans="1:12" ht="45">
+      <c r="D531" s="30"/>
       <c r="E531" s="6">
         <v>6</v>
       </c>
@@ -9687,8 +9890,8 @@
       <c r="K531" s="8"/>
       <c r="L531" s="8"/>
     </row>
-    <row r="532" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D532" s="32"/>
+    <row r="532" spans="1:12" ht="30">
+      <c r="D532" s="30"/>
       <c r="E532" s="6">
         <v>7</v>
       </c>
@@ -9701,8 +9904,8 @@
       <c r="K532" s="8"/>
       <c r="L532" s="8"/>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D533" s="32"/>
+    <row r="533" spans="1:12">
+      <c r="D533" s="30"/>
       <c r="E533" s="6">
         <v>8</v>
       </c>
@@ -9715,15 +9918,15 @@
       <c r="K533" s="8"/>
       <c r="L533" s="8"/>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12">
       <c r="K534" s="8"/>
       <c r="L534" s="8"/>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12">
       <c r="K535" s="8"/>
       <c r="L535" s="8"/>
     </row>
-    <row r="536" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" ht="30">
       <c r="A536" s="7" t="s">
         <v>70</v>
       </c>
@@ -9733,7 +9936,7 @@
       <c r="C536" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D536" s="32" t="s">
+      <c r="D536" s="30" t="s">
         <v>423</v>
       </c>
       <c r="E536" s="6">
@@ -9751,8 +9954,8 @@
       <c r="K536" s="8"/>
       <c r="L536" s="8"/>
     </row>
-    <row r="537" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D537" s="32"/>
+    <row r="537" spans="1:12" ht="30">
+      <c r="D537" s="30"/>
       <c r="E537" s="6">
         <v>2</v>
       </c>
@@ -9768,8 +9971,8 @@
       <c r="K537" s="8"/>
       <c r="L537" s="8"/>
     </row>
-    <row r="538" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D538" s="32"/>
+    <row r="538" spans="1:12" ht="30">
+      <c r="D538" s="30"/>
       <c r="E538" s="6">
         <v>3</v>
       </c>
@@ -9782,8 +9985,8 @@
       <c r="K538" s="8"/>
       <c r="L538" s="8"/>
     </row>
-    <row r="539" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D539" s="32"/>
+    <row r="539" spans="1:12" ht="30">
+      <c r="D539" s="30"/>
       <c r="E539" s="6">
         <v>4</v>
       </c>
@@ -9799,8 +10002,8 @@
       <c r="K539" s="8"/>
       <c r="L539" s="8"/>
     </row>
-    <row r="540" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D540" s="32"/>
+    <row r="540" spans="1:12" ht="30">
+      <c r="D540" s="30"/>
       <c r="E540" s="6">
         <v>5</v>
       </c>
@@ -9813,8 +10016,8 @@
       <c r="K540" s="8"/>
       <c r="L540" s="8"/>
     </row>
-    <row r="541" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D541" s="32"/>
+    <row r="541" spans="1:12" ht="30">
+      <c r="D541" s="30"/>
       <c r="E541" s="6">
         <v>6</v>
       </c>
@@ -9827,8 +10030,8 @@
       <c r="K541" s="8"/>
       <c r="L541" s="8"/>
     </row>
-    <row r="542" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D542" s="32"/>
+    <row r="542" spans="1:12" ht="30">
+      <c r="D542" s="30"/>
       <c r="E542" s="6">
         <v>7</v>
       </c>
@@ -9841,8 +10044,8 @@
       <c r="K542" s="8"/>
       <c r="L542" s="8"/>
     </row>
-    <row r="543" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D543" s="32"/>
+    <row r="543" spans="1:12" ht="45">
+      <c r="D543" s="30"/>
       <c r="E543" s="6">
         <v>8</v>
       </c>
@@ -9855,8 +10058,8 @@
       <c r="K543" s="8"/>
       <c r="L543" s="8"/>
     </row>
-    <row r="544" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D544" s="32"/>
+    <row r="544" spans="1:12" ht="30">
+      <c r="D544" s="30"/>
       <c r="E544" s="6">
         <v>9</v>
       </c>
@@ -9869,8 +10072,8 @@
       <c r="K544" s="8"/>
       <c r="L544" s="8"/>
     </row>
-    <row r="545" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D545" s="32"/>
+    <row r="545" spans="1:12" ht="30">
+      <c r="D545" s="30"/>
       <c r="E545" s="6">
         <v>10</v>
       </c>
@@ -9883,8 +10086,8 @@
       <c r="K545" s="8"/>
       <c r="L545" s="8"/>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D546" s="32"/>
+    <row r="546" spans="1:12">
+      <c r="D546" s="30"/>
       <c r="E546" s="6">
         <v>11</v>
       </c>
@@ -9897,15 +10100,15 @@
       <c r="K546" s="8"/>
       <c r="L546" s="8"/>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12">
       <c r="K547" s="8"/>
       <c r="L547" s="8"/>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12">
       <c r="K548" s="8"/>
       <c r="L548" s="8"/>
     </row>
-    <row r="549" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" ht="30">
       <c r="A549" s="7" t="s">
         <v>71</v>
       </c>
@@ -9915,7 +10118,7 @@
       <c r="C549" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D549" s="32" t="s">
+      <c r="D549" s="30" t="s">
         <v>424</v>
       </c>
       <c r="E549" s="6">
@@ -9933,8 +10136,8 @@
       <c r="K549" s="8"/>
       <c r="L549" s="8"/>
     </row>
-    <row r="550" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D550" s="32"/>
+    <row r="550" spans="1:12" ht="30">
+      <c r="D550" s="30"/>
       <c r="E550" s="6">
         <v>2</v>
       </c>
@@ -9950,8 +10153,8 @@
       <c r="K550" s="8"/>
       <c r="L550" s="8"/>
     </row>
-    <row r="551" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D551" s="32"/>
+    <row r="551" spans="1:12" ht="30">
+      <c r="D551" s="30"/>
       <c r="E551" s="6">
         <v>3</v>
       </c>
@@ -9964,8 +10167,8 @@
       <c r="K551" s="8"/>
       <c r="L551" s="8"/>
     </row>
-    <row r="552" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D552" s="32"/>
+    <row r="552" spans="1:12" ht="30">
+      <c r="D552" s="30"/>
       <c r="E552" s="6">
         <v>4</v>
       </c>
@@ -9981,8 +10184,8 @@
       <c r="K552" s="8"/>
       <c r="L552" s="8"/>
     </row>
-    <row r="553" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D553" s="32"/>
+    <row r="553" spans="1:12" ht="30">
+      <c r="D553" s="30"/>
       <c r="E553" s="6">
         <v>5</v>
       </c>
@@ -9995,8 +10198,8 @@
       <c r="K553" s="8"/>
       <c r="L553" s="8"/>
     </row>
-    <row r="554" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D554" s="32"/>
+    <row r="554" spans="1:12" ht="45">
+      <c r="D554" s="30"/>
       <c r="E554" s="6">
         <v>6</v>
       </c>
@@ -10009,8 +10212,8 @@
       <c r="K554" s="8"/>
       <c r="L554" s="8"/>
     </row>
-    <row r="555" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D555" s="32"/>
+    <row r="555" spans="1:12" ht="30">
+      <c r="D555" s="30"/>
       <c r="E555" s="6">
         <v>7</v>
       </c>
@@ -10023,8 +10226,8 @@
       <c r="K555" s="8"/>
       <c r="L555" s="8"/>
     </row>
-    <row r="556" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D556" s="32"/>
+    <row r="556" spans="1:12" ht="30">
+      <c r="D556" s="30"/>
       <c r="E556" s="6">
         <v>8</v>
       </c>
@@ -10037,8 +10240,8 @@
       <c r="K556" s="8"/>
       <c r="L556" s="8"/>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D557" s="32"/>
+    <row r="557" spans="1:12">
+      <c r="D557" s="30"/>
       <c r="E557" s="6">
         <v>9</v>
       </c>
@@ -10051,15 +10254,15 @@
       <c r="K557" s="8"/>
       <c r="L557" s="8"/>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12">
       <c r="K558" s="8"/>
       <c r="L558" s="8"/>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12">
       <c r="K559" s="8"/>
       <c r="L559" s="8"/>
     </row>
-    <row r="560" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" ht="30">
       <c r="A560" s="7" t="s">
         <v>72</v>
       </c>
@@ -10069,7 +10272,7 @@
       <c r="C560" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D560" s="32" t="s">
+      <c r="D560" s="30" t="s">
         <v>425</v>
       </c>
       <c r="E560" s="6">
@@ -10087,8 +10290,8 @@
       <c r="K560" s="8"/>
       <c r="L560" s="8"/>
     </row>
-    <row r="561" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D561" s="32"/>
+    <row r="561" spans="1:12" ht="30">
+      <c r="D561" s="30"/>
       <c r="E561" s="6">
         <v>2</v>
       </c>
@@ -10104,8 +10307,8 @@
       <c r="K561" s="8"/>
       <c r="L561" s="8"/>
     </row>
-    <row r="562" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D562" s="32"/>
+    <row r="562" spans="1:12" ht="30">
+      <c r="D562" s="30"/>
       <c r="E562" s="6">
         <v>3</v>
       </c>
@@ -10118,8 +10321,8 @@
       <c r="K562" s="8"/>
       <c r="L562" s="8"/>
     </row>
-    <row r="563" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D563" s="32"/>
+    <row r="563" spans="1:12" ht="30">
+      <c r="D563" s="30"/>
       <c r="E563" s="6">
         <v>4</v>
       </c>
@@ -10135,8 +10338,8 @@
       <c r="K563" s="8"/>
       <c r="L563" s="8"/>
     </row>
-    <row r="564" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D564" s="32"/>
+    <row r="564" spans="1:12" ht="30">
+      <c r="D564" s="30"/>
       <c r="E564" s="6">
         <v>5</v>
       </c>
@@ -10149,8 +10352,8 @@
       <c r="K564" s="8"/>
       <c r="L564" s="8"/>
     </row>
-    <row r="565" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D565" s="32"/>
+    <row r="565" spans="1:12" ht="30">
+      <c r="D565" s="30"/>
       <c r="E565" s="6">
         <v>6</v>
       </c>
@@ -10163,8 +10366,8 @@
       <c r="K565" s="8"/>
       <c r="L565" s="8"/>
     </row>
-    <row r="566" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D566" s="32"/>
+    <row r="566" spans="1:12" ht="45">
+      <c r="D566" s="30"/>
       <c r="E566" s="6">
         <v>7</v>
       </c>
@@ -10177,8 +10380,8 @@
       <c r="K566" s="8"/>
       <c r="L566" s="8"/>
     </row>
-    <row r="567" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D567" s="32"/>
+    <row r="567" spans="1:12" ht="30">
+      <c r="D567" s="30"/>
       <c r="E567" s="6">
         <v>8</v>
       </c>
@@ -10191,8 +10394,8 @@
       <c r="K567" s="8"/>
       <c r="L567" s="8"/>
     </row>
-    <row r="568" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D568" s="32"/>
+    <row r="568" spans="1:12" ht="30">
+      <c r="D568" s="30"/>
       <c r="E568" s="6">
         <v>9</v>
       </c>
@@ -10205,8 +10408,8 @@
       <c r="K568" s="8"/>
       <c r="L568" s="8"/>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D569" s="32"/>
+    <row r="569" spans="1:12">
+      <c r="D569" s="30"/>
       <c r="E569" s="6">
         <v>10</v>
       </c>
@@ -10219,15 +10422,15 @@
       <c r="K569" s="8"/>
       <c r="L569" s="8"/>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12">
       <c r="K570" s="8"/>
       <c r="L570" s="8"/>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12">
       <c r="K571" s="8"/>
       <c r="L571" s="8"/>
     </row>
-    <row r="572" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" ht="30">
       <c r="A572" s="7" t="s">
         <v>73</v>
       </c>
@@ -10237,7 +10440,7 @@
       <c r="C572" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D572" s="32" t="s">
+      <c r="D572" s="30" t="s">
         <v>426</v>
       </c>
       <c r="E572" s="6">
@@ -10255,8 +10458,8 @@
       <c r="K572" s="8"/>
       <c r="L572" s="8"/>
     </row>
-    <row r="573" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D573" s="32"/>
+    <row r="573" spans="1:12" ht="30">
+      <c r="D573" s="30"/>
       <c r="E573" s="6">
         <v>2</v>
       </c>
@@ -10272,8 +10475,8 @@
       <c r="K573" s="8"/>
       <c r="L573" s="8"/>
     </row>
-    <row r="574" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D574" s="32"/>
+    <row r="574" spans="1:12" ht="30">
+      <c r="D574" s="30"/>
       <c r="E574" s="6">
         <v>3</v>
       </c>
@@ -10286,8 +10489,8 @@
       <c r="K574" s="8"/>
       <c r="L574" s="8"/>
     </row>
-    <row r="575" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="D575" s="32"/>
+    <row r="575" spans="1:12" ht="165">
+      <c r="D575" s="30"/>
       <c r="E575" s="6">
         <v>4</v>
       </c>
@@ -10303,8 +10506,8 @@
       <c r="K575" s="8"/>
       <c r="L575" s="8"/>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D576" s="32"/>
+    <row r="576" spans="1:12">
+      <c r="D576" s="30"/>
       <c r="E576" s="6">
         <v>5</v>
       </c>
@@ -10317,8 +10520,8 @@
       <c r="K576" s="8"/>
       <c r="L576" s="8"/>
     </row>
-    <row r="577" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D577" s="32"/>
+    <row r="577" spans="1:12" ht="60">
+      <c r="D577" s="30"/>
       <c r="E577" s="6">
         <v>6</v>
       </c>
@@ -10331,8 +10534,8 @@
       <c r="K577" s="8"/>
       <c r="L577" s="8"/>
     </row>
-    <row r="578" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D578" s="32"/>
+    <row r="578" spans="1:12" ht="60">
+      <c r="D578" s="30"/>
       <c r="E578" s="6">
         <v>7</v>
       </c>
@@ -10345,8 +10548,8 @@
       <c r="K578" s="8"/>
       <c r="L578" s="8"/>
     </row>
-    <row r="579" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D579" s="32"/>
+    <row r="579" spans="1:12" ht="30">
+      <c r="D579" s="30"/>
       <c r="E579" s="6">
         <v>8</v>
       </c>
@@ -10359,8 +10562,8 @@
       <c r="K579" s="8"/>
       <c r="L579" s="8"/>
     </row>
-    <row r="580" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D580" s="32"/>
+    <row r="580" spans="1:12" ht="30">
+      <c r="D580" s="30"/>
       <c r="E580" s="6">
         <v>9</v>
       </c>
@@ -10373,8 +10576,8 @@
       <c r="K580" s="8"/>
       <c r="L580" s="8"/>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D581" s="32"/>
+    <row r="581" spans="1:12">
+      <c r="D581" s="30"/>
       <c r="E581" s="6">
         <v>10</v>
       </c>
@@ -10387,8 +10590,8 @@
       <c r="K581" s="8"/>
       <c r="L581" s="8"/>
     </row>
-    <row r="582" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="D582" s="32"/>
+    <row r="582" spans="1:12" ht="105">
+      <c r="D582" s="30"/>
       <c r="E582" s="6">
         <v>11</v>
       </c>
@@ -10404,8 +10607,8 @@
       <c r="K582" s="8"/>
       <c r="L582" s="8"/>
     </row>
-    <row r="583" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D583" s="32"/>
+    <row r="583" spans="1:12" ht="45">
+      <c r="D583" s="30"/>
       <c r="E583" s="6">
         <v>12</v>
       </c>
@@ -10418,8 +10621,8 @@
       <c r="K583" s="8"/>
       <c r="L583" s="8"/>
     </row>
-    <row r="584" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D584" s="32"/>
+    <row r="584" spans="1:12" ht="45">
+      <c r="D584" s="30"/>
       <c r="E584" s="6">
         <v>13</v>
       </c>
@@ -10432,8 +10635,8 @@
       <c r="K584" s="8"/>
       <c r="L584" s="8"/>
     </row>
-    <row r="585" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D585" s="32"/>
+    <row r="585" spans="1:12" ht="45">
+      <c r="D585" s="30"/>
       <c r="E585" s="6">
         <v>14</v>
       </c>
@@ -10446,8 +10649,8 @@
       <c r="K585" s="8"/>
       <c r="L585" s="8"/>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D586" s="32"/>
+    <row r="586" spans="1:12">
+      <c r="D586" s="30"/>
       <c r="E586" s="6">
         <v>15</v>
       </c>
@@ -10460,15 +10663,15 @@
       <c r="K586" s="8"/>
       <c r="L586" s="8"/>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:12">
       <c r="K587" s="8"/>
       <c r="L587" s="8"/>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:12">
       <c r="K588" s="8"/>
       <c r="L588" s="8"/>
     </row>
-    <row r="589" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:12" ht="30">
       <c r="A589" s="7" t="s">
         <v>74</v>
       </c>
@@ -10478,7 +10681,7 @@
       <c r="C589" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D589" s="32" t="s">
+      <c r="D589" s="30" t="s">
         <v>427</v>
       </c>
       <c r="E589" s="6">
@@ -10496,8 +10699,8 @@
       <c r="K589" s="8"/>
       <c r="L589" s="8"/>
     </row>
-    <row r="590" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D590" s="32"/>
+    <row r="590" spans="1:12" ht="30">
+      <c r="D590" s="30"/>
       <c r="E590" s="6">
         <v>2</v>
       </c>
@@ -10513,8 +10716,8 @@
       <c r="K590" s="8"/>
       <c r="L590" s="8"/>
     </row>
-    <row r="591" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D591" s="32"/>
+    <row r="591" spans="1:12" ht="30">
+      <c r="D591" s="30"/>
       <c r="E591" s="6">
         <v>3</v>
       </c>
@@ -10527,8 +10730,8 @@
       <c r="K591" s="8"/>
       <c r="L591" s="8"/>
     </row>
-    <row r="592" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="D592" s="32"/>
+    <row r="592" spans="1:12" ht="165">
+      <c r="D592" s="30"/>
       <c r="E592" s="6">
         <v>4</v>
       </c>
@@ -10544,8 +10747,8 @@
       <c r="K592" s="8"/>
       <c r="L592" s="8"/>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D593" s="32"/>
+    <row r="593" spans="1:12">
+      <c r="D593" s="30"/>
       <c r="E593" s="6">
         <v>5</v>
       </c>
@@ -10558,8 +10761,8 @@
       <c r="K593" s="8"/>
       <c r="L593" s="8"/>
     </row>
-    <row r="594" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D594" s="32"/>
+    <row r="594" spans="1:12" ht="60">
+      <c r="D594" s="30"/>
       <c r="E594" s="6">
         <v>6</v>
       </c>
@@ -10572,8 +10775,8 @@
       <c r="K594" s="8"/>
       <c r="L594" s="8"/>
     </row>
-    <row r="595" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D595" s="32"/>
+    <row r="595" spans="1:12" ht="60">
+      <c r="D595" s="30"/>
       <c r="E595" s="6">
         <v>7</v>
       </c>
@@ -10586,8 +10789,8 @@
       <c r="K595" s="8"/>
       <c r="L595" s="8"/>
     </row>
-    <row r="596" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D596" s="32"/>
+    <row r="596" spans="1:12" ht="60">
+      <c r="D596" s="30"/>
       <c r="E596" s="6">
         <v>8</v>
       </c>
@@ -10600,8 +10803,8 @@
       <c r="K596" s="8"/>
       <c r="L596" s="8"/>
     </row>
-    <row r="597" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D597" s="32"/>
+    <row r="597" spans="1:12" ht="30">
+      <c r="D597" s="30"/>
       <c r="E597" s="6">
         <v>9</v>
       </c>
@@ -10614,8 +10817,8 @@
       <c r="K597" s="8"/>
       <c r="L597" s="8"/>
     </row>
-    <row r="598" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D598" s="32"/>
+    <row r="598" spans="1:12" ht="30">
+      <c r="D598" s="30"/>
       <c r="E598" s="6">
         <v>10</v>
       </c>
@@ -10628,8 +10831,8 @@
       <c r="K598" s="8"/>
       <c r="L598" s="8"/>
     </row>
-    <row r="599" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D599" s="32"/>
+    <row r="599" spans="1:12" ht="30">
+      <c r="D599" s="30"/>
       <c r="E599" s="6">
         <v>11</v>
       </c>
@@ -10642,8 +10845,8 @@
       <c r="K599" s="8"/>
       <c r="L599" s="8"/>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D600" s="32"/>
+    <row r="600" spans="1:12">
+      <c r="D600" s="30"/>
       <c r="E600" s="6">
         <v>12</v>
       </c>
@@ -10656,8 +10859,8 @@
       <c r="K600" s="8"/>
       <c r="L600" s="8"/>
     </row>
-    <row r="601" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="D601" s="32"/>
+    <row r="601" spans="1:12" ht="105">
+      <c r="D601" s="30"/>
       <c r="E601" s="6">
         <v>13</v>
       </c>
@@ -10673,8 +10876,8 @@
       <c r="K601" s="8"/>
       <c r="L601" s="8"/>
     </row>
-    <row r="602" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D602" s="32"/>
+    <row r="602" spans="1:12" ht="45">
+      <c r="D602" s="30"/>
       <c r="E602" s="6">
         <v>14</v>
       </c>
@@ -10687,8 +10890,8 @@
       <c r="K602" s="8"/>
       <c r="L602" s="8"/>
     </row>
-    <row r="603" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D603" s="32"/>
+    <row r="603" spans="1:12" ht="45">
+      <c r="D603" s="30"/>
       <c r="E603" s="6">
         <v>15</v>
       </c>
@@ -10701,8 +10904,8 @@
       <c r="K603" s="8"/>
       <c r="L603" s="8"/>
     </row>
-    <row r="604" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D604" s="32"/>
+    <row r="604" spans="1:12" ht="45">
+      <c r="D604" s="30"/>
       <c r="E604" s="6">
         <v>16</v>
       </c>
@@ -10715,8 +10918,8 @@
       <c r="K604" s="8"/>
       <c r="L604" s="8"/>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D605" s="32"/>
+    <row r="605" spans="1:12">
+      <c r="D605" s="30"/>
       <c r="E605" s="6">
         <v>17</v>
       </c>
@@ -10729,15 +10932,15 @@
       <c r="K605" s="8"/>
       <c r="L605" s="8"/>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:12">
       <c r="K606" s="8"/>
       <c r="L606" s="8"/>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:12">
       <c r="K607" s="8"/>
       <c r="L607" s="8"/>
     </row>
-    <row r="608" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:12" ht="30">
       <c r="A608" s="7" t="s">
         <v>75</v>
       </c>
@@ -10747,7 +10950,7 @@
       <c r="C608" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D608" s="32" t="s">
+      <c r="D608" s="30" t="s">
         <v>428</v>
       </c>
       <c r="E608" s="6">
@@ -10765,8 +10968,8 @@
       <c r="K608" s="8"/>
       <c r="L608" s="8"/>
     </row>
-    <row r="609" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D609" s="32"/>
+    <row r="609" spans="1:12" ht="30">
+      <c r="D609" s="30"/>
       <c r="E609" s="6">
         <v>2</v>
       </c>
@@ -10782,8 +10985,8 @@
       <c r="K609" s="8"/>
       <c r="L609" s="8"/>
     </row>
-    <row r="610" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D610" s="32"/>
+    <row r="610" spans="1:12" ht="30">
+      <c r="D610" s="30"/>
       <c r="E610" s="6">
         <v>3</v>
       </c>
@@ -10796,8 +10999,8 @@
       <c r="K610" s="8"/>
       <c r="L610" s="8"/>
     </row>
-    <row r="611" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D611" s="32"/>
+    <row r="611" spans="1:12" ht="30">
+      <c r="D611" s="30"/>
       <c r="E611" s="6">
         <v>4</v>
       </c>
@@ -10810,8 +11013,8 @@
       <c r="K611" s="8"/>
       <c r="L611" s="8"/>
     </row>
-    <row r="612" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D612" s="32"/>
+    <row r="612" spans="1:12" ht="30">
+      <c r="D612" s="30"/>
       <c r="E612" s="6">
         <v>5</v>
       </c>
@@ -10824,8 +11027,8 @@
       <c r="K612" s="8"/>
       <c r="L612" s="8"/>
     </row>
-    <row r="613" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D613" s="32"/>
+    <row r="613" spans="1:12" ht="30">
+      <c r="D613" s="30"/>
       <c r="E613" s="6">
         <v>6</v>
       </c>
@@ -10838,8 +11041,8 @@
       <c r="K613" s="8"/>
       <c r="L613" s="8"/>
     </row>
-    <row r="614" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D614" s="32"/>
+    <row r="614" spans="1:12" ht="45">
+      <c r="D614" s="30"/>
       <c r="E614" s="6">
         <v>7</v>
       </c>
@@ -10852,8 +11055,8 @@
       <c r="K614" s="8"/>
       <c r="L614" s="8"/>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D615" s="32"/>
+    <row r="615" spans="1:12">
+      <c r="D615" s="30"/>
       <c r="E615" s="6">
         <v>8</v>
       </c>
@@ -10866,15 +11069,15 @@
       <c r="K615" s="8"/>
       <c r="L615" s="8"/>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:12">
       <c r="K616" s="8"/>
       <c r="L616" s="8"/>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:12">
       <c r="K617" s="8"/>
       <c r="L617" s="8"/>
     </row>
-    <row r="618" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:12" ht="45" customHeight="1">
       <c r="A618" s="7" t="s">
         <v>344</v>
       </c>
@@ -10884,7 +11087,7 @@
       <c r="C618" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="D618" s="32" t="s">
+      <c r="D618" s="30" t="s">
         <v>429</v>
       </c>
       <c r="E618" s="7">
@@ -10902,9 +11105,9 @@
       <c r="K618" s="8"/>
       <c r="L618" s="8"/>
     </row>
-    <row r="619" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:12" ht="30">
       <c r="C619" s="16"/>
-      <c r="D619" s="32"/>
+      <c r="D619" s="30"/>
       <c r="E619" s="7">
         <v>2</v>
       </c>
@@ -10920,9 +11123,9 @@
       <c r="K619" s="8"/>
       <c r="L619" s="8"/>
     </row>
-    <row r="620" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:12" ht="30">
       <c r="C620" s="16"/>
-      <c r="D620" s="32"/>
+      <c r="D620" s="30"/>
       <c r="E620" s="7">
         <v>3</v>
       </c>
@@ -10935,9 +11138,9 @@
       <c r="K620" s="8"/>
       <c r="L620" s="8"/>
     </row>
-    <row r="621" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:12" ht="30">
       <c r="C621" s="16"/>
-      <c r="D621" s="32"/>
+      <c r="D621" s="30"/>
       <c r="E621" s="7">
         <v>4</v>
       </c>
@@ -10950,9 +11153,9 @@
       <c r="K621" s="8"/>
       <c r="L621" s="8"/>
     </row>
-    <row r="622" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:12" ht="30">
       <c r="C622" s="16"/>
-      <c r="D622" s="32"/>
+      <c r="D622" s="30"/>
       <c r="E622" s="7">
         <v>5</v>
       </c>
@@ -10965,9 +11168,9 @@
       <c r="K622" s="8"/>
       <c r="L622" s="8"/>
     </row>
-    <row r="623" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:12" ht="30">
       <c r="C623" s="16"/>
-      <c r="D623" s="32"/>
+      <c r="D623" s="30"/>
       <c r="E623" s="7">
         <v>6</v>
       </c>
@@ -10980,9 +11183,9 @@
       <c r="K623" s="8"/>
       <c r="L623" s="8"/>
     </row>
-    <row r="624" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:12" ht="30">
       <c r="C624" s="16"/>
-      <c r="D624" s="32"/>
+      <c r="D624" s="30"/>
       <c r="E624" s="7">
         <v>7</v>
       </c>
@@ -10995,9 +11198,9 @@
       <c r="K624" s="8"/>
       <c r="L624" s="8"/>
     </row>
-    <row r="625" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:12" ht="45">
       <c r="C625" s="16"/>
-      <c r="D625" s="32"/>
+      <c r="D625" s="30"/>
       <c r="E625" s="7">
         <v>8</v>
       </c>
@@ -11010,9 +11213,9 @@
       <c r="K625" s="8"/>
       <c r="L625" s="8"/>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:12">
       <c r="C626" s="16"/>
-      <c r="D626" s="32"/>
+      <c r="D626" s="30"/>
       <c r="E626" s="7">
         <v>9</v>
       </c>
@@ -11025,15 +11228,15 @@
       <c r="K626" s="8"/>
       <c r="L626" s="8"/>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:12">
       <c r="K627" s="8"/>
       <c r="L627" s="8"/>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:12">
       <c r="K628" s="8"/>
       <c r="L628" s="8"/>
     </row>
-    <row r="629" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:12" ht="45" customHeight="1">
       <c r="A629" s="7" t="s">
         <v>349</v>
       </c>
@@ -11043,7 +11246,7 @@
       <c r="C629" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D629" s="32" t="s">
+      <c r="D629" s="30" t="s">
         <v>430</v>
       </c>
       <c r="E629" s="6">
@@ -11061,8 +11264,8 @@
       <c r="K629" s="8"/>
       <c r="L629" s="8"/>
     </row>
-    <row r="630" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D630" s="32"/>
+    <row r="630" spans="1:12" ht="30">
+      <c r="D630" s="30"/>
       <c r="E630" s="6">
         <v>2</v>
       </c>
@@ -11078,8 +11281,8 @@
       <c r="K630" s="8"/>
       <c r="L630" s="8"/>
     </row>
-    <row r="631" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D631" s="32"/>
+    <row r="631" spans="1:12" ht="30">
+      <c r="D631" s="30"/>
       <c r="E631" s="6">
         <v>3</v>
       </c>
@@ -11093,8 +11296,8 @@
       <c r="K631" s="8"/>
       <c r="L631" s="8"/>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D632" s="32"/>
+    <row r="632" spans="1:12">
+      <c r="D632" s="30"/>
       <c r="E632" s="6">
         <v>4</v>
       </c>
@@ -11108,8 +11311,8 @@
       <c r="K632" s="8"/>
       <c r="L632" s="8"/>
     </row>
-    <row r="633" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D633" s="32"/>
+    <row r="633" spans="1:12" ht="30">
+      <c r="D633" s="30"/>
       <c r="E633" s="6">
         <v>5</v>
       </c>
@@ -11122,8 +11325,8 @@
       <c r="K633" s="8"/>
       <c r="L633" s="8"/>
     </row>
-    <row r="634" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="D634" s="32"/>
+    <row r="634" spans="1:12" ht="165">
+      <c r="D634" s="30"/>
       <c r="E634" s="6">
         <v>6</v>
       </c>
@@ -11139,8 +11342,8 @@
       <c r="K634" s="8"/>
       <c r="L634" s="8"/>
     </row>
-    <row r="635" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D635" s="32"/>
+    <row r="635" spans="1:12" ht="60">
+      <c r="D635" s="30"/>
       <c r="E635" s="6">
         <v>7</v>
       </c>
@@ -11153,8 +11356,8 @@
       <c r="K635" s="8"/>
       <c r="L635" s="8"/>
     </row>
-    <row r="636" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D636" s="32"/>
+    <row r="636" spans="1:12" ht="60">
+      <c r="D636" s="30"/>
       <c r="E636" s="6">
         <v>8</v>
       </c>
@@ -11167,8 +11370,8 @@
       <c r="K636" s="8"/>
       <c r="L636" s="8"/>
     </row>
-    <row r="637" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D637" s="32"/>
+    <row r="637" spans="1:12" ht="30">
+      <c r="D637" s="30"/>
       <c r="E637" s="6">
         <v>9</v>
       </c>
@@ -11181,15 +11384,15 @@
       <c r="K637" s="8"/>
       <c r="L637" s="8"/>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:12">
       <c r="K638" s="8"/>
       <c r="L638" s="8"/>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:12">
       <c r="K639" s="8"/>
       <c r="L639" s="8"/>
     </row>
-    <row r="640" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:12" ht="30">
       <c r="A640" s="7" t="s">
         <v>360</v>
       </c>
@@ -11199,7 +11402,7 @@
       <c r="C640" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D640" s="32" t="s">
+      <c r="D640" s="30" t="s">
         <v>431</v>
       </c>
       <c r="E640" s="6">
@@ -11217,8 +11420,8 @@
       <c r="K640" s="8"/>
       <c r="L640" s="8"/>
     </row>
-    <row r="641" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D641" s="32"/>
+    <row r="641" spans="1:12" ht="30">
+      <c r="D641" s="30"/>
       <c r="E641" s="6">
         <v>2</v>
       </c>
@@ -11234,8 +11437,8 @@
       <c r="K641" s="8"/>
       <c r="L641" s="8"/>
     </row>
-    <row r="642" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D642" s="32"/>
+    <row r="642" spans="1:12" ht="30">
+      <c r="D642" s="30"/>
       <c r="E642" s="6">
         <v>3</v>
       </c>
@@ -11249,8 +11452,8 @@
       <c r="K642" s="8"/>
       <c r="L642" s="8"/>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D643" s="32"/>
+    <row r="643" spans="1:12">
+      <c r="D643" s="30"/>
       <c r="E643" s="6">
         <v>4</v>
       </c>
@@ -11264,8 +11467,8 @@
       <c r="K643" s="8"/>
       <c r="L643" s="8"/>
     </row>
-    <row r="644" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D644" s="32"/>
+    <row r="644" spans="1:12" ht="30">
+      <c r="D644" s="30"/>
       <c r="E644" s="6">
         <v>5</v>
       </c>
@@ -11278,8 +11481,8 @@
       <c r="K644" s="8"/>
       <c r="L644" s="8"/>
     </row>
-    <row r="645" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="D645" s="32"/>
+    <row r="645" spans="1:12" ht="165">
+      <c r="D645" s="30"/>
       <c r="E645" s="6">
         <v>6</v>
       </c>
@@ -11295,8 +11498,8 @@
       <c r="K645" s="8"/>
       <c r="L645" s="8"/>
     </row>
-    <row r="646" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D646" s="32"/>
+    <row r="646" spans="1:12" ht="45">
+      <c r="D646" s="30"/>
       <c r="F646" s="7" t="s">
         <v>355</v>
       </c>
@@ -11306,8 +11509,8 @@
       <c r="K646" s="8"/>
       <c r="L646" s="8"/>
     </row>
-    <row r="647" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D647" s="32"/>
+    <row r="647" spans="1:12" ht="60">
+      <c r="D647" s="30"/>
       <c r="E647" s="6">
         <v>8</v>
       </c>
@@ -11320,8 +11523,8 @@
       <c r="K647" s="8"/>
       <c r="L647" s="8"/>
     </row>
-    <row r="648" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="D648" s="32"/>
+    <row r="648" spans="1:12" ht="60">
+      <c r="D648" s="30"/>
       <c r="E648" s="6">
         <v>9</v>
       </c>
@@ -11334,15 +11537,15 @@
       <c r="K648" s="8"/>
       <c r="L648" s="8"/>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:12">
       <c r="K649" s="8"/>
       <c r="L649" s="8"/>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:12">
       <c r="K650" s="8"/>
       <c r="L650" s="8"/>
     </row>
-    <row r="651" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:12" ht="45" customHeight="1">
       <c r="A651" s="7" t="s">
         <v>365</v>
       </c>
@@ -11352,7 +11555,7 @@
       <c r="C651" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D651" s="32" t="s">
+      <c r="D651" s="30" t="s">
         <v>432</v>
       </c>
       <c r="E651" s="6">
@@ -11370,8 +11573,8 @@
       <c r="K651" s="8"/>
       <c r="L651" s="8"/>
     </row>
-    <row r="652" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D652" s="32"/>
+    <row r="652" spans="1:12" ht="30">
+      <c r="D652" s="30"/>
       <c r="E652" s="6">
         <v>2</v>
       </c>
@@ -11387,8 +11590,8 @@
       <c r="K652" s="8"/>
       <c r="L652" s="8"/>
     </row>
-    <row r="653" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D653" s="32"/>
+    <row r="653" spans="1:12" ht="45">
+      <c r="D653" s="30"/>
       <c r="E653" s="6">
         <v>3</v>
       </c>
@@ -11401,279 +11604,334 @@
       <c r="K653" s="8"/>
       <c r="L653" s="8"/>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:12">
       <c r="K654" s="8"/>
       <c r="L654" s="8"/>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:12">
       <c r="K655" s="8"/>
       <c r="L655" s="8"/>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:12">
       <c r="K656" s="8"/>
       <c r="L656" s="8"/>
     </row>
-    <row r="657" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="657" spans="11:12">
       <c r="K657" s="8"/>
       <c r="L657" s="8"/>
     </row>
-    <row r="658" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="658" spans="11:12">
       <c r="K658" s="8"/>
       <c r="L658" s="8"/>
     </row>
-    <row r="659" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="659" spans="11:12">
       <c r="K659" s="8"/>
       <c r="L659" s="8"/>
     </row>
-    <row r="660" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="660" spans="11:12">
       <c r="K660" s="8"/>
       <c r="L660" s="8"/>
     </row>
-    <row r="661" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="661" spans="11:12">
       <c r="K661" s="8"/>
       <c r="L661" s="8"/>
     </row>
-    <row r="662" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="662" spans="11:12">
       <c r="K662" s="8"/>
       <c r="L662" s="8"/>
     </row>
-    <row r="663" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="663" spans="11:12">
       <c r="K663" s="8"/>
       <c r="L663" s="8"/>
     </row>
-    <row r="664" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="664" spans="11:12">
       <c r="K664" s="8"/>
       <c r="L664" s="8"/>
     </row>
-    <row r="665" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="665" spans="11:12">
       <c r="K665" s="8"/>
       <c r="L665" s="8"/>
     </row>
-    <row r="666" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="666" spans="11:12">
       <c r="K666" s="8"/>
       <c r="L666" s="8"/>
     </row>
-    <row r="667" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="667" spans="11:12">
       <c r="K667" s="8"/>
       <c r="L667" s="8"/>
     </row>
-    <row r="668" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="668" spans="11:12">
       <c r="K668" s="8"/>
       <c r="L668" s="8"/>
     </row>
-    <row r="669" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="669" spans="11:12">
       <c r="K669" s="8"/>
       <c r="L669" s="8"/>
     </row>
-    <row r="670" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="670" spans="11:12">
       <c r="K670" s="8"/>
       <c r="L670" s="8"/>
     </row>
-    <row r="671" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="671" spans="11:12">
       <c r="K671" s="8"/>
       <c r="L671" s="8"/>
     </row>
-    <row r="672" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="672" spans="11:12">
       <c r="K672" s="8"/>
       <c r="L672" s="8"/>
     </row>
-    <row r="673" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="673" spans="11:12">
       <c r="K673" s="8"/>
       <c r="L673" s="8"/>
     </row>
-    <row r="674" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="674" spans="11:12">
       <c r="K674" s="8"/>
       <c r="L674" s="8"/>
     </row>
-    <row r="675" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="675" spans="11:12">
       <c r="K675" s="8"/>
       <c r="L675" s="8"/>
     </row>
-    <row r="676" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="676" spans="11:12">
       <c r="K676" s="8"/>
       <c r="L676" s="8"/>
     </row>
-    <row r="677" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="677" spans="11:12">
       <c r="K677" s="8"/>
       <c r="L677" s="8"/>
     </row>
-    <row r="678" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="678" spans="11:12">
       <c r="K678" s="8"/>
       <c r="L678" s="8"/>
     </row>
-    <row r="679" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="679" spans="11:12">
       <c r="K679" s="8"/>
       <c r="L679" s="8"/>
     </row>
-    <row r="680" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="680" spans="11:12">
       <c r="K680" s="8"/>
       <c r="L680" s="8"/>
     </row>
-    <row r="681" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="681" spans="11:12">
       <c r="K681" s="8"/>
       <c r="L681" s="8"/>
     </row>
-    <row r="682" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="682" spans="11:12">
       <c r="K682" s="8"/>
       <c r="L682" s="8"/>
     </row>
-    <row r="683" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="683" spans="11:12">
       <c r="K683" s="8"/>
       <c r="L683" s="8"/>
     </row>
-    <row r="684" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="684" spans="11:12">
       <c r="K684" s="8"/>
       <c r="L684" s="8"/>
     </row>
-    <row r="685" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="685" spans="11:12">
       <c r="K685" s="8"/>
       <c r="L685" s="8"/>
     </row>
-    <row r="686" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="686" spans="11:12">
       <c r="K686" s="8"/>
       <c r="L686" s="8"/>
     </row>
-    <row r="687" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="687" spans="11:12">
       <c r="K687" s="8"/>
       <c r="L687" s="8"/>
     </row>
-    <row r="688" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="688" spans="11:12">
       <c r="L688" s="8"/>
     </row>
-    <row r="689" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="689" spans="12:12">
       <c r="L689" s="8"/>
     </row>
-    <row r="690" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="690" spans="12:12">
       <c r="L690" s="8"/>
     </row>
-    <row r="691" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="691" spans="12:12">
       <c r="L691" s="8"/>
     </row>
-    <row r="692" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="692" spans="12:12">
       <c r="L692" s="8"/>
     </row>
-    <row r="693" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="693" spans="12:12">
       <c r="L693" s="8"/>
     </row>
-    <row r="694" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="694" spans="12:12">
       <c r="L694" s="8"/>
     </row>
-    <row r="695" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="695" spans="12:12">
       <c r="L695" s="8"/>
     </row>
-    <row r="696" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="696" spans="12:12">
       <c r="L696" s="8"/>
     </row>
-    <row r="697" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="697" spans="12:12">
       <c r="L697" s="8"/>
     </row>
-    <row r="698" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="698" spans="12:12">
       <c r="L698" s="8"/>
     </row>
-    <row r="699" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="699" spans="12:12">
       <c r="L699" s="8"/>
     </row>
-    <row r="700" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="700" spans="12:12">
       <c r="L700" s="8"/>
     </row>
-    <row r="701" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="701" spans="12:12">
       <c r="L701" s="8"/>
     </row>
-    <row r="702" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="702" spans="12:12">
       <c r="L702" s="8"/>
     </row>
-    <row r="703" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="703" spans="12:12">
       <c r="L703" s="8"/>
     </row>
-    <row r="704" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="704" spans="12:12">
       <c r="L704" s="8"/>
     </row>
-    <row r="705" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="705" spans="12:12">
       <c r="L705" s="8"/>
     </row>
-    <row r="706" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="706" spans="12:12">
       <c r="L706" s="8"/>
     </row>
-    <row r="707" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="707" spans="12:12">
       <c r="L707" s="8"/>
     </row>
-    <row r="708" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="708" spans="12:12">
       <c r="L708" s="8"/>
     </row>
-    <row r="709" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="709" spans="12:12">
       <c r="L709" s="8"/>
     </row>
-    <row r="710" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="710" spans="12:12">
       <c r="L710" s="8"/>
     </row>
-    <row r="711" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="711" spans="12:12">
       <c r="L711" s="8"/>
     </row>
-    <row r="712" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="712" spans="12:12">
       <c r="L712" s="8"/>
     </row>
-    <row r="713" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="713" spans="12:12">
       <c r="L713" s="8"/>
     </row>
-    <row r="714" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="714" spans="12:12">
       <c r="L714" s="8"/>
     </row>
-    <row r="715" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="715" spans="12:12">
       <c r="L715" s="8"/>
     </row>
-    <row r="716" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="716" spans="12:12">
       <c r="L716" s="8"/>
     </row>
-    <row r="717" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="717" spans="12:12">
       <c r="L717" s="8"/>
     </row>
-    <row r="718" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="718" spans="12:12">
       <c r="L718" s="8"/>
     </row>
-    <row r="719" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="719" spans="12:12">
       <c r="L719" s="8"/>
     </row>
-    <row r="720" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="720" spans="12:12">
       <c r="L720" s="8"/>
     </row>
-    <row r="721" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="721" spans="12:12">
       <c r="L721" s="8"/>
     </row>
-    <row r="722" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="722" spans="12:12">
       <c r="L722" s="8"/>
     </row>
-    <row r="723" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="723" spans="12:12">
       <c r="L723" s="8"/>
     </row>
-    <row r="724" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="724" spans="12:12">
       <c r="L724" s="8"/>
     </row>
-    <row r="725" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="725" spans="12:12">
       <c r="L725" s="8"/>
     </row>
-    <row r="726" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="726" spans="12:12">
       <c r="L726" s="8"/>
     </row>
-    <row r="727" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="727" spans="12:12">
       <c r="L727" s="8"/>
     </row>
-    <row r="728" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="728" spans="12:12">
       <c r="L728" s="8"/>
     </row>
-    <row r="729" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="729" spans="12:12">
       <c r="L729" s="8"/>
     </row>
-    <row r="730" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="730" spans="12:12">
       <c r="L730" s="8"/>
     </row>
-    <row r="731" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="731" spans="12:12">
       <c r="L731" s="8"/>
     </row>
-    <row r="732" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="732" spans="12:12">
       <c r="L732" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="D19:D25"/>
+    <mergeCell ref="D28:D37"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="D50:D60"/>
+    <mergeCell ref="D63:D72"/>
+    <mergeCell ref="D75:D84"/>
+    <mergeCell ref="D87:D97"/>
+    <mergeCell ref="D100:D111"/>
+    <mergeCell ref="D114:D122"/>
+    <mergeCell ref="D126:D137"/>
+    <mergeCell ref="D140:D150"/>
+    <mergeCell ref="D153:D163"/>
+    <mergeCell ref="D166:D177"/>
+    <mergeCell ref="D180:D191"/>
+    <mergeCell ref="D194:D204"/>
+    <mergeCell ref="D207:D219"/>
+    <mergeCell ref="D222:D233"/>
+    <mergeCell ref="D236:D247"/>
+    <mergeCell ref="D250:D261"/>
+    <mergeCell ref="D264:D275"/>
+    <mergeCell ref="D278:D279"/>
+    <mergeCell ref="D282:D284"/>
+    <mergeCell ref="D287:D291"/>
+    <mergeCell ref="D294:D297"/>
+    <mergeCell ref="D300:D302"/>
+    <mergeCell ref="D305:D306"/>
+    <mergeCell ref="D309:D311"/>
+    <mergeCell ref="D314:D318"/>
+    <mergeCell ref="D322:D327"/>
+    <mergeCell ref="D330:D334"/>
+    <mergeCell ref="D337:D341"/>
+    <mergeCell ref="D344:D348"/>
+    <mergeCell ref="D351:D354"/>
+    <mergeCell ref="D357:D361"/>
+    <mergeCell ref="D364:D370"/>
+    <mergeCell ref="D376:D382"/>
+    <mergeCell ref="D385:D392"/>
+    <mergeCell ref="D395:D402"/>
+    <mergeCell ref="D405:D417"/>
+    <mergeCell ref="D420:D432"/>
+    <mergeCell ref="D436:D450"/>
+    <mergeCell ref="D453:D462"/>
+    <mergeCell ref="D466:D474"/>
+    <mergeCell ref="D477:D487"/>
+    <mergeCell ref="D490:D499"/>
+    <mergeCell ref="D502:D512"/>
+    <mergeCell ref="D515:D523"/>
+    <mergeCell ref="D526:D533"/>
+    <mergeCell ref="D536:D546"/>
+    <mergeCell ref="D549:D557"/>
+    <mergeCell ref="D560:D569"/>
     <mergeCell ref="D618:D626"/>
     <mergeCell ref="D629:D637"/>
     <mergeCell ref="D640:D648"/>
@@ -11681,133 +11939,78 @@
     <mergeCell ref="D572:D586"/>
     <mergeCell ref="D589:D605"/>
     <mergeCell ref="D608:D615"/>
-    <mergeCell ref="D515:D523"/>
-    <mergeCell ref="D526:D533"/>
-    <mergeCell ref="D536:D546"/>
-    <mergeCell ref="D549:D557"/>
-    <mergeCell ref="D560:D569"/>
-    <mergeCell ref="D453:D462"/>
-    <mergeCell ref="D466:D474"/>
-    <mergeCell ref="D477:D487"/>
-    <mergeCell ref="D490:D499"/>
-    <mergeCell ref="D502:D512"/>
-    <mergeCell ref="D385:D392"/>
-    <mergeCell ref="D395:D402"/>
-    <mergeCell ref="D405:D417"/>
-    <mergeCell ref="D420:D432"/>
-    <mergeCell ref="D436:D450"/>
-    <mergeCell ref="D344:D348"/>
-    <mergeCell ref="D351:D354"/>
-    <mergeCell ref="D357:D361"/>
-    <mergeCell ref="D364:D370"/>
-    <mergeCell ref="D376:D382"/>
-    <mergeCell ref="D309:D311"/>
-    <mergeCell ref="D314:D318"/>
-    <mergeCell ref="D322:D327"/>
-    <mergeCell ref="D330:D334"/>
-    <mergeCell ref="D337:D341"/>
-    <mergeCell ref="D282:D284"/>
-    <mergeCell ref="D287:D291"/>
-    <mergeCell ref="D294:D297"/>
-    <mergeCell ref="D300:D302"/>
-    <mergeCell ref="D305:D306"/>
-    <mergeCell ref="D222:D233"/>
-    <mergeCell ref="D236:D247"/>
-    <mergeCell ref="D250:D261"/>
-    <mergeCell ref="D264:D275"/>
-    <mergeCell ref="D278:D279"/>
-    <mergeCell ref="D153:D163"/>
-    <mergeCell ref="D166:D177"/>
-    <mergeCell ref="D180:D191"/>
-    <mergeCell ref="D194:D204"/>
-    <mergeCell ref="D207:D219"/>
-    <mergeCell ref="D87:D97"/>
-    <mergeCell ref="D100:D111"/>
-    <mergeCell ref="D114:D122"/>
-    <mergeCell ref="D126:D137"/>
-    <mergeCell ref="D140:D150"/>
-    <mergeCell ref="D28:D37"/>
-    <mergeCell ref="D39:D47"/>
-    <mergeCell ref="D50:D60"/>
-    <mergeCell ref="D63:D72"/>
-    <mergeCell ref="D75:D84"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="D19:D25"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K484 C2:C658" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K484 C2:C658">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C659:C728" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C659:C728">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B10 B19 B28 B39 B50 B63 B75 B87 B100 B114 B126 B140 B153 B166 B180 B194 B207 B222 B236 B250 B264 B278 B282 B287 B294 B300 B305 B309 B314 B322 B330 B337 B344 B351 B357 B364 B376 B385 B395 B405 B420 B436 B453 B466 B477 B490 B502 B515 B526 B536 B549 B560 B572 B589 B608 B618 B629 B640 B651" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B10 B19 B28 B39 B50 B63 B75 B87 B100 B114 B126 B140 B153 B166 B180 B194 B207 B222 B236 B250 B264 B278 B282 B287 B294 B300 B305 B309 B314 B322 B330 B337 B344 B351 B357 B364 B376 B385 B395 B405 B420 B436 B453 B466 B477 B490 B502 B515 B526 B536 B549 B560 B572 B589 B608 B618 B629 B640 B651">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L732" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L732">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K485:K687" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K485:K687">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I20" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I39" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I50" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="I63" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I75" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I87" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I100" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="I114" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I126" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="I180" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I194" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="I207" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I264" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="I278" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I282" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="I287" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I294" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="I300" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I305" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="I309" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I314" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="I322" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I330" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="I337" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I344" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="I351" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I357" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="I364" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I376" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="I385" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I395" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="I405" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I420" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="I436" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I453" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="I466" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I477" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="I490" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I502" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="I515" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I526" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="I536" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I549" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="I560" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I572" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="I589" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="I608" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="I629" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="I640" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="I651" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I10" r:id="rId2"/>
+    <hyperlink ref="I20" r:id="rId3"/>
+    <hyperlink ref="I28" r:id="rId4"/>
+    <hyperlink ref="I39" r:id="rId5"/>
+    <hyperlink ref="I50" r:id="rId6"/>
+    <hyperlink ref="I63" r:id="rId7"/>
+    <hyperlink ref="I75" r:id="rId8"/>
+    <hyperlink ref="I87" r:id="rId9"/>
+    <hyperlink ref="I100" r:id="rId10"/>
+    <hyperlink ref="I114" r:id="rId11"/>
+    <hyperlink ref="I126" r:id="rId12"/>
+    <hyperlink ref="I180" r:id="rId13"/>
+    <hyperlink ref="I194" r:id="rId14"/>
+    <hyperlink ref="I207" r:id="rId15"/>
+    <hyperlink ref="I264" r:id="rId16"/>
+    <hyperlink ref="I278" r:id="rId17"/>
+    <hyperlink ref="I282" r:id="rId18"/>
+    <hyperlink ref="I287" r:id="rId19"/>
+    <hyperlink ref="I294" r:id="rId20"/>
+    <hyperlink ref="I300" r:id="rId21"/>
+    <hyperlink ref="I305" r:id="rId22"/>
+    <hyperlink ref="I309" r:id="rId23"/>
+    <hyperlink ref="I314" r:id="rId24"/>
+    <hyperlink ref="I322" r:id="rId25"/>
+    <hyperlink ref="I330" r:id="rId26"/>
+    <hyperlink ref="I337" r:id="rId27"/>
+    <hyperlink ref="I344" r:id="rId28"/>
+    <hyperlink ref="I351" r:id="rId29"/>
+    <hyperlink ref="I357" r:id="rId30"/>
+    <hyperlink ref="I364" r:id="rId31"/>
+    <hyperlink ref="I376" r:id="rId32"/>
+    <hyperlink ref="I385" r:id="rId33"/>
+    <hyperlink ref="I395" r:id="rId34"/>
+    <hyperlink ref="I405" r:id="rId35"/>
+    <hyperlink ref="I420" r:id="rId36"/>
+    <hyperlink ref="I436" r:id="rId37"/>
+    <hyperlink ref="I453" r:id="rId38"/>
+    <hyperlink ref="I466" r:id="rId39"/>
+    <hyperlink ref="I477" r:id="rId40"/>
+    <hyperlink ref="I490" r:id="rId41"/>
+    <hyperlink ref="I502" r:id="rId42"/>
+    <hyperlink ref="I515" r:id="rId43"/>
+    <hyperlink ref="I526" r:id="rId44"/>
+    <hyperlink ref="I536" r:id="rId45"/>
+    <hyperlink ref="I549" r:id="rId46"/>
+    <hyperlink ref="I560" r:id="rId47"/>
+    <hyperlink ref="I572" r:id="rId48"/>
+    <hyperlink ref="I589" r:id="rId49"/>
+    <hyperlink ref="I608" r:id="rId50"/>
+    <hyperlink ref="I629" r:id="rId51"/>
+    <hyperlink ref="I640" r:id="rId52"/>
+    <hyperlink ref="I651" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId54"/>
